--- a/notebook/results/Continuous_Learning_papers.xlsx
+++ b/notebook/results/Continuous_Learning_papers.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:AM44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,11 +439,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
+    <col width="15" customWidth="1" min="24" max="24"/>
+    <col width="15" customWidth="1" min="25" max="25"/>
+    <col width="15" customWidth="1" min="26" max="26"/>
+    <col width="15" customWidth="1" min="27" max="27"/>
+    <col width="15" customWidth="1" min="28" max="28"/>
+    <col width="15" customWidth="1" min="29" max="29"/>
+    <col width="15" customWidth="1" min="30" max="30"/>
+    <col width="15" customWidth="1" min="31" max="31"/>
+    <col width="40" customWidth="1" min="32" max="32"/>
+    <col width="15" customWidth="1" min="33" max="33"/>
+    <col width="15" customWidth="1" min="34" max="34"/>
+    <col width="15" customWidth="1" min="35" max="35"/>
+    <col width="15" customWidth="1" min="36" max="36"/>
+    <col width="15" customWidth="1" min="37" max="37"/>
+    <col width="15" customWidth="1" min="38" max="38"/>
+    <col width="15" customWidth="1" min="39" max="39"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -454,22 +488,192 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Abstract</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>StoreId</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AccessionNumber</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>AlternateTitle</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ArticleType</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AuthorAffiliation</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Authors</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>coden</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>companies</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>copyright</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>digitalObjectIdentifier</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>documentStatus</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>documentType</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>elecPubDate</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>entryDate</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>identifierKeywords</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>isbn</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>issn</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>issue</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>languageOfSummary</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>originalTitle</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>pages</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>placeOfPublication</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>pubdate</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>pubtitle</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>year</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Authors</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Abstract</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>reportNumber</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>DocumentURL</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>URL</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>FindACopy</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Database</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>processed_abstract</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>primary_doc_type</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>dominant_topic</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>theme</t>
         </is>
       </c>
     </row>
@@ -479,20 +683,126 @@
           <t>Analyzing Factors That Contribute to Cost Overruns on Department of Defense (DoD) Contractor Programs</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>The Department of Defense (DoD) is the key to the United States’ National Security. The organizational body is responsible for being a safeguard for U.S. citizens and an integral alliance to our allies. However, the DoD has been plagued by costly overruns on defense programs that are funded to provide armaments that allow our military the ability to respond to and protect against national and international threats. These costly overruns have plagued the Department of Defense (DoD), as early as 1977 with high occurrences of cost overruns on more than 500 major defense programs resulting in tens of billions of dollars spent over the past 25 years on weapons systems that were over budget, delivered late, or canceled (Smith, 2022). The overruns limit future research and development, impede the country’s defense capabilities, and disrupts the financial balance that affects taxpayers, healthcare, education, and transportation. This study examines DoD contract cost overruns by identifying and analyzing significant contributing factors and applying machine learning models to determine the likelihood of these overruns. The dataset for this research incorporated 524 records (262 overruns and 262 non- overruns) of various DoD contracts into four different supervised machine learning algorithms: logistic regression, gradient boosting, support vector machines, and random forest. The results outline which machine learning algorithm performed best using the induced dependent (overrun) and independent (factors) variables.</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3142156496</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Funches Allen, Dawn</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Classification , Cost overruns , Defense acquisition , Department of Defense , Diagnostic analytics , Machine learning</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9798346806165</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB2" t="n">
         <v>2025</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Funches Allen, Dawn</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>The Department of Defense (DoD) is the key to the United States’ National Security. The organizational body is responsible for being a safeguard for U.S. citizens and an integral alliance to our allies. However, the DoD has been plagued by costly overruns on defense programs that are funded to provide armaments that allow our military the ability to respond to and protect against national and international threats. These costly overruns have plagued the Department of Defense (DoD), as early as 1977 with high occurrences of cost overruns on more than 500 major defense programs resulting in tens of billions of dollars spent over the past 25 years on weapons systems that were over budget, delivered late, or canceled (Smith, 2022). The overruns limit future research and development, impede the country’s defense capabilities, and disrupts the financial balance that affects taxpayers, healthcare, education, and transportation. This study examines DoD contract cost overruns by identifying and analyzing significant contributing factors and applying machine learning models to determine the likelihood of these overruns. The dataset for this research incorporated 524 records (262 overruns and 262 non- overruns) of various DoD contracts into four different supervised machine learning algorithms: logistic regression, gradient boosting, support vector machines, and random forest. The results outline which machine learning algorithm performed best using the induced dependent (overrun) and independent (factors) variables.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/analyzing-factors-that-contribute-cost-overruns/docview/3142156496/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Analyzing+Factors+That+Contribute+to+Cost+Overruns+on+Department+of+Defense+%28DoD%29+Contractor+Programs&amp;amp;issn=&amp;amp;date=2025-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Funches+Allen%2C+Dawn&amp;amp;isbn=9798346806165&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>key united state national security organizational body responsible safeguard citizen integral alliance ally however plagued costly overrun program funded provide armament allow ability respond protect national international threat costly overrun plagued early high occurrence cost overrun major program resulting ten billion dollar spent past year weapon system budget delivered late canceled smith overrun limit future development impede country capability disrupts financial balance affect taxpayer healthcare education transportation examines contract cost overrun identifying analyzing significant contributing factor applying machine learning model determine likelihood overrun dataset incorporated record overrun overrun various contract four different supervised machine learning algorithm logistic regression gradient boosting support vector machine random forest result outline machine learning algorithm performed best using induced dependent overrun independent factor variable</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>['key', 'united', 'states', 'national', 'security', 'organizational', 'body', 'responsible', 'safeguard', 'citizens', 'integral', 'alliance', 'allies', 'however', 'plagued', 'costly', 'overruns', 'programs', 'funded', 'provide', 'armaments', 'allow', 'ability', 'respond', 'protect', 'national', 'international', 'threats', 'costly', 'overruns', 'plagued', 'early', 'high', 'occurrences', 'cost', 'overruns', 'major', 'programs', 'resulting', 'tens', 'billions', 'dollars', 'spent', 'past', 'years', 'weapons', 'systems', 'budget', 'delivered', 'late', 'canceled', 'smith', 'overruns', 'limit', 'future', 'development', 'impede', 'country', 'capabilities', 'disrupts', 'financial', 'balance', 'affects', 'taxpayers', 'healthcare', 'education', 'transportation', 'examines', 'contract', 'cost', 'overruns', 'identifying', 'analyzing', 'significant', 'contributing', 'factors', 'applying', 'machine', 'learning', 'models', 'determine', 'likelihood', 'overruns', 'dataset', 'incorporated', 'records', 'overruns', 'overruns', 'various', 'contracts', 'four', 'different', 'supervised', 'machine', 'learning', 'algorithms', 'logistic', 'regression', 'gradient', 'boosting', 'support', 'vector', 'machines', 'random', 'forest', 'results', 'outline', 'machine', 'learning', 'algorithm', 'performed', 'best', 'using', 'induced', 'dependent', 'overrun', 'independent', 'factors', 'variables']</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -500,20 +810,126 @@
           <t>&lt;strong&gt;Skills of an Effective United States Air Force Program Manager:&lt;/strong&gt; A Qualitative Descriptive Study of the Skills Required for United States Air Force Program Managers</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The United States Air Force (USAF) purchases billions in arms, equipment, and services to support the Department of Defense and its mission to defend the public from all enemies, foreign and domestic. Program Managers (PM) are the leaders appointed to develop, deliver, and sustain a solution for the capability gaps identified by operational leaders. PMs oversee programs of all sizes across many domains. A substantial proportion of programs fail to meet the triple constraint of cost, schedule, and performance. It is in the interest of the public who funds these purchases to identify the skills that can help PMs deliver programs within the triple constraint. PMs require skills to lead an effective program. The researcher used Katz's (1955) framework to identify the technical, human, and conceptual skills PMs need. The researcher interviewed nine retired United States Air Force acquisition members and identified seventeen PM skills required to deliver programs within the triple constraint alongside other observations about the acquisition field. The seventeen skills include (1) General Military Knowledge, (2) Programmatic Knowledge, (3) Functional Knowledge, (4) Program-specific Knowledge, (5) Technological Proficiency, (6) Leadership, (7) Mentorship, (8) Communication, (9) Relationship Management, (10) Emotional Intelligence, (11) Political Skills, (12) Stakeholder Management, (13) Requirement Management, (14) Problem-solving, (15) Critical Thinking, (16) Outlook, and (17) Continuity.&amp;#xa0; PMs can use the seventeen skills from this study as possible competencies to identify where they excel and need improvement and create a plan of action to improve performance at their current job and prepare for the next. Career managers can use the skill set as criteria to consider in selecting, developing, and retaining PMs to meet today's and tomorrow's needs. Additionally, the USAF should incorporate the seventeen skills into professional development,&amp;#xa0;education, and training. The study further serves as a template for future studies and meritocratic initiatives within the defense acquisition workforce.&amp;#xa0;</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2933806305</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Rowlands, Shane C.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2024</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Program Managers , Defense acquisitions , Operational leaders , United States Air Force , Skills management</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9798381749052</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
         <v>2024</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Rowlands, Shane C.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The United States Air Force (USAF) purchases billions in arms, equipment, and services to support the Department of Defense and its mission to defend the public from all enemies, foreign and domestic. Program Managers (PM) are the leaders appointed to develop, deliver, and sustain a solution for the capability gaps identified by operational leaders. PMs oversee programs of all sizes across many domains. A substantial proportion of programs fail to meet the triple constraint of cost, schedule, and performance. It is in the interest of the public who funds these purchases to identify the skills that can help PMs deliver programs within the triple constraint. PMs require skills to lead an effective program. The researcher used Katz's (1955) framework to identify the technical, human, and conceptual skills PMs need. The researcher interviewed nine retired United States Air Force acquisition members and identified seventeen PM skills required to deliver programs within the triple constraint alongside other observations about the acquisition field. The seventeen skills include (1) General Military Knowledge, (2) Programmatic Knowledge, (3) Functional Knowledge, (4) Program-specific Knowledge, (5) Technological Proficiency, (6) Leadership, (7) Mentorship, (8) Communication, (9) Relationship Management, (10) Emotional Intelligence, (11) Political Skills, (12) Stakeholder Management, (13) Requirement Management, (14) Problem-solving, (15) Critical Thinking, (16) Outlook, and (17) Continuity.&amp;#xa0; PMs can use the seventeen skills from this study as possible competencies to identify where they excel and need improvement and create a plan of action to improve performance at their current job and prepare for the next. Career managers can use the skill set as criteria to consider in selecting, developing, and retaining PMs to meet today's and tomorrow's needs. Additionally, the USAF should incorporate the seventeen skills into professional development,&amp;#xa0;education, and training. The study further serves as a template for future studies and meritocratic initiatives within the defense acquisition workforce.&amp;#xa0;</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/strong-skills-effective-united-states-air-force/docview/2933806305/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Skills+of+an+Effective+United+States+Air+Force+Program+Manager%3A+A+Qualitative+Descriptive+Study+of+the+Skills+Required+for+United+States+Air+Force+Program+Managers&amp;amp;issn=&amp;amp;date=2024-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Rowlands%2C+Shane+C.&amp;amp;isbn=9798381749052&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>united state air force usaf purchase billion arm equipment service support mission defend public enemy foreign domestic program manager leader appointed develop deliver sustain solution capability gap identified operational leader pm oversee program size across many domain substantial proportion program fail meet triple constraint cost schedule performance interest public fund purchase identify skill help pm deliver program within triple constraint pm require skill lead effective program researcher used katz framework identify technical human conceptual skill pm need researcher interviewed nine retired united state air force acquisition member identified seventeen skill required deliver program within triple constraint alongside observation acquisition field seventeen skill include general knowledge programmatic knowledge functional knowledge knowledge technological proficiency leadership mentorship communication relationship management emotional intelligence political skill stakeholder management requirement management critical thinking outlook pm use seventeen skill possible competency identify excel need improvement create plan action improve performance current job prepare next career manager use skill set criterion consider selecting developing retaining pm meet today tomorrow need additionally usaf incorporate seventeen skill professional development education training serf template future study meritocratic initiative within acquisition</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>['united', 'states', 'air', 'force', 'usaf', 'purchases', 'billions', 'arms', 'equipment', 'services', 'support', 'mission', 'defend', 'public', 'enemies', 'foreign', 'domestic', 'program', 'managers', 'leaders', 'appointed', 'develop', 'deliver', 'sustain', 'solution', 'capability', 'gaps', 'identified', 'operational', 'leaders', 'pms', 'oversee', 'programs', 'sizes', 'across', 'many', 'domains', 'substantial', 'proportion', 'programs', 'fail', 'meet', 'triple', 'constraint', 'cost', 'schedule', 'performance', 'interest', 'public', 'funds', 'purchases', 'identify', 'skills', 'help', 'pms', 'deliver', 'programs', 'within', 'triple', 'constraint', 'pms', 'require', 'skills', 'lead', 'effective', 'program', 'researcher', 'used', 'katz', 'framework', 'identify', 'technical', 'human', 'conceptual', 'skills', 'pms', 'need', 'researcher', 'interviewed', 'nine', 'retired', 'united', 'states', 'air', 'force', 'acquisition', 'members', 'identified', 'seventeen', 'skills', 'required', 'deliver', 'programs', 'within', 'triple', 'constraint', 'alongside', 'observations', 'acquisition', 'field', 'seventeen', 'skills', 'include', 'general', 'knowledge', 'programmatic', 'knowledge', 'functional', 'knowledge', 'knowledge', 'technological', 'proficiency', 'leadership', 'mentorship', 'communication', 'relationship', 'management', 'emotional', 'intelligence', 'political', 'skills', 'stakeholder', 'management', 'requirement', 'management', 'critical', 'thinking', 'outlook', 'pms', 'use', 'seventeen', 'skills', 'possible', 'competencies', 'identify', 'excel', 'need', 'improvement', 'create', 'plan', 'action', 'improve', 'performance', 'current', 'job', 'prepare', 'next', 'career', 'managers', 'use', 'skill', 'set', 'criteria', 'consider', 'selecting', 'developing', 'retaining', 'pms', 'meet', 'today', 'tomorrow', 'needs', 'additionally', 'usaf', 'incorporate', 'seventeen', 'skills', 'professional', 'development', 'education', 'training', 'serves', 'template', 'future', 'studies', 'meritocratic', 'initiatives', 'within', 'acquisition']</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -521,20 +937,134 @@
           <t>LEADER DEVELOPMENT: Army Invests in Logisticians with Industry-Based Broadening Opportunity: Army Logistician</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Program Overview The IB2 LOG SBS program provides officers, warrant officers, senior NCOs, DOD civilians, and private sector participants with a unique opportunity to broaden their perspectives by exposure to what private industry is doing in critical areas, including data, technology, innovation, artificial intelligence, continuous process improvement, and overall organizational culture. Problem Statement and Collaborative Approach Before attending the program, participants prepare a problem statement related to an essential, problematic issue within their organization or one that requires attention to move the organization toward increasing readiness, reducing costs, or improving performance. The presentations draw upon the knowledge gained throughout the program, emphasizing innovation, culture change, data utilization, and the role of artificial intelligence in addressing complex supply chain and logistics challenges.</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2893045404</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Trade Journals</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Susnis, Mark</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Copyright Superintendent of Documents, United States Army Fall 2023</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Feature</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fall 2023</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2153-5973</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>4</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 41-43</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fort Lee</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Fall 2023</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Army Sustainment</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
         <v>2023</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Susnis, Mark</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Program Overview The IB2 LOG SBS program provides officers, warrant officers, senior NCOs, DOD civilians, and private sector participants with a unique opportunity to broaden their perspectives by exposure to what private industry is doing in critical areas, including data, technology, innovation, artificial intelligence, continuous process improvement, and overall organizational culture. Problem Statement and Collaborative Approach Before attending the program, participants prepare a problem statement related to an essential, problematic issue within their organization or one that requires attention to move the organization toward increasing readiness, reducing costs, or improving performance. The presentations draw upon the knowledge gained throughout the program, emphasizing innovation, culture change, data utilization, and the role of artificial intelligence in addressing complex supply chain and logistics challenges.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/trade-journals/leader-development-army-invests-logisticians-with/docview/2893045404/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=article&amp;amp;sid=ProQ:ProQ%3Amilitary&amp;amp;atitle=LEADER+DEVELOPMENT%3A+Army+Invests+in+Logisticians+with+Industry-Based+Broadening+Opportunity%3A+Army+Logistician&amp;amp;title=Army+Sustainment&amp;amp;issn=21535973&amp;amp;date=2023-10-01&amp;amp;volume=55&amp;amp;issue=4&amp;amp;spage=41&amp;amp;au=Susnis%2C+Mark&amp;amp;isbn=&amp;amp;jtitle=Army+Sustainment&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Military Database, ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>program overview log sb program provides officer warrant officer senior ncos civilian private sector participant unique opportunity broaden perspective exposure private industry critical area including technology innovation artificial intelligence continuous process improvement overall organizational culture problem statement collaborative attending program participant prepare problem statement related essential problematic issue within organization one requires attention move organization toward increasing readiness reducing cost improving performance presentation draw upon knowledge gained throughout program emphasizing innovation culture change utilization role artificial intelligence addressing complex supply chain logistics challenge</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>['program', 'overview', 'log', 'sbs', 'program', 'provides', 'officers', 'warrant', 'officers', 'senior', 'ncos', 'civilians', 'private', 'sector', 'participants', 'unique', 'opportunity', 'broaden', 'perspectives', 'exposure', 'private', 'industry', 'critical', 'areas', 'including', 'data', 'technology', 'innovation', 'artificial', 'intelligence', 'continuous', 'process', 'improvement', 'overall', 'organizational', 'culture', 'problem', 'statement', 'collaborative', 'attending', 'program', 'participants', 'prepare', 'problem', 'statement', 'related', 'essential', 'problematic', 'issue', 'within', 'organization', 'one', 'requires', 'attention', 'move', 'organization', 'toward', 'increasing', 'readiness', 'reducing', 'costs', 'improving', 'performance', 'presentations', 'draw', 'upon', 'knowledge', 'gained', 'throughout', 'program', 'emphasizing', 'innovation', 'culture', 'change', 'data', 'utilization', 'role', 'artificial', 'intelligence', 'addressing', 'complex', 'supply', 'chain', 'logistics', 'challenges']</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="AL4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -542,20 +1072,150 @@
           <t>Developments in high-resolution mass spectrometric analyses of new psychoactive substances</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The proliferation of new psychoactive substances (NPS) has necessitated the development and improvement of current practices for the detection and identification of known NPS and newly emerging derivatives. High-resolution mass spectrometry (HRMS) is quickly becoming the industry standard for these analyses due to its ability to be operated in data-independent acquisition (DIA) modes, allowing for the collection of large amounts of data and enabling retrospective data interrogation as new information becomes available. The increasing popularity of HRMS has also prompted the exploration of new ways to screen for NPS, including broad-spectrum wastewater analysis to identify usage trends in the community and metabolomic-based approaches to examine the effects of drugs of abuse on endogenous compounds. In this paper, the novel applications of HRMS techniques to the analysis of NPS is reviewed. In particular, the development of innovative data analysis and interpretation approaches is discussed, including the application of machine learning and molecular networking to toxicological analyses.</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2638856724</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Scholarly Journals</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Australian Racing Forensic Laboratory, Sydney, Australia , University of Technology Sydney, Centre for Forensic Science, Broadway, Australia (GRID:grid.117476.2) (ISNI:0000 0004 1936 7611) , Australian Racing Forensic Laboratory, Sydney, Australia (GRID:grid.117476.2) , University of Copenhagen, Section of Forensic Chemistry, Department of Forensic Medicine, Copenhagen, Denmark (GRID:grid.5254.6) (ISNI:0000 0001 0674 042X) , University of Technology Sydney, Centre for Forensic Science, Broadway, Australia (GRID:grid.117476.2) (ISNI:0000 0004 1936 7611)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Klingberg, Joshua;Keen, Bethany;Cawley, Adam;Pasin, Daniel;Fu Shanlin</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> © The Author(s) 2022. This work is published under http://creativecommons.org/licenses/by/4.0/ (the “License”). Notwithstanding the ProQuest Terms and Conditions, you may use this content in accordance with the terms of the License.</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>10.1007/s00204-022-03224-2</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Journal Article</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2022-02-09</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Apr 2022</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> New psychoactive substances , Data-independent acquisition , Designer drug , Machine learning , Mass spectrometry , Psychoactive drug , Illicit drugs , HRMS , Machine learning , Molecular networking , Metabolomics</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0340-5761</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>4</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 949-967</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Heidelberg</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Apr 2022</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Archives of Toxicology. Archiv für Toxikologie</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
         <v>2022</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Klingberg, Joshua;Keen, Bethany;Cawley, Adam;Pasin, Daniel;Fu Shanlin</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The proliferation of new psychoactive substances (NPS) has necessitated the development and improvement of current practices for the detection and identification of known NPS and newly emerging derivatives. High-resolution mass spectrometry (HRMS) is quickly becoming the industry standard for these analyses due to its ability to be operated in data-independent acquisition (DIA) modes, allowing for the collection of large amounts of data and enabling retrospective data interrogation as new information becomes available. The increasing popularity of HRMS has also prompted the exploration of new ways to screen for NPS, including broad-spectrum wastewater analysis to identify usage trends in the community and metabolomic-based approaches to examine the effects of drugs of abuse on endogenous compounds. In this paper, the novel applications of HRMS techniques to the analysis of NPS is reviewed. In particular, the development of innovative data analysis and interpretation approaches is discussed, including the application of machine learning and molecular networking to toxicological analyses.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>96</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/scholarly-journals/developments-high-resolution-mass-spectrometric/docview/2638856724/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=article&amp;amp;sid=ProQ:ProQ%3Ahealthcompleteshell&amp;amp;atitle=Developments+in+high-resolution+mass+spectrometric+analyses+of+new+psychoactive+substances&amp;amp;title=Archives+of+Toxicology.+Archiv+f%C3%BCr+Toxikologie&amp;amp;issn=03405761&amp;amp;date=2022-04-01&amp;amp;volume=96&amp;amp;issue=4&amp;amp;spage=949&amp;amp;au=Klingberg%2C+Joshua%3BKeen%2C+Bethany%3BCawley%2C+Adam%3BPasin%2C+Daniel%3BFu+Shanlin&amp;amp;isbn=&amp;amp;jtitle=Archives+of+Toxicology.+Archiv+f%C3%BCr+Toxikologie&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/10.1007%2Fs00204-022-03224-2</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Health Research Premium Collection, ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>proliferation new psychoactive substance np necessitated development improvement current practice detection identification known np newly emerging derivative mass spectrometry hrms quickly becoming industry standard analysis due ability operated acquisition dia mode allowing collection large amount enabling retrospective interrogation new information becomes available increasing popularity hrms also prompted exploration new way screen np including wastewater identify usage trend community approach examine effect drug abuse endogenous compound novel application hrms technique np reviewed particular development innovative interpretation approach discussed including application machine learning molecular networking toxicological analysis</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>['proliferation', 'new', 'psychoactive', 'substances', 'nps', 'necessitated', 'development', 'improvement', 'current', 'practices', 'detection', 'identification', 'known', 'nps', 'newly', 'emerging', 'derivatives', 'mass', 'spectrometry', 'hrms', 'quickly', 'becoming', 'industry', 'standard', 'analyses', 'due', 'ability', 'operated', 'acquisition', 'dia', 'modes', 'allowing', 'collection', 'large', 'amounts', 'data', 'enabling', 'retrospective', 'data', 'interrogation', 'new', 'information', 'becomes', 'available', 'increasing', 'popularity', 'hrms', 'also', 'prompted', 'exploration', 'new', 'ways', 'screen', 'nps', 'including', 'wastewater', 'identify', 'usage', 'trends', 'community', 'approaches', 'examine', 'effects', 'drugs', 'abuse', 'endogenous', 'compounds', 'novel', 'applications', 'hrms', 'techniques', 'nps', 'reviewed', 'particular', 'development', 'innovative', 'data', 'interpretation', 'approaches', 'discussed', 'including', 'application', 'machine', 'learning', 'molecular', 'networking', 'toxicological', 'analyses']</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Journal Article</t>
+        </is>
+      </c>
+      <c r="AL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -563,20 +1223,122 @@
           <t>Evaluation of Analysis Methods in Mass Spectrometry Based Proteomics</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mass spectrometry (MS) has become indispensable in proteomics and is routinely used in biomarker discovery, on which the foundation of personalised medicine is built. Effective MS analysis relies on sophisticated software tools capable of processing large quantities of complex data. As such, constant improvement of MS data analysis pipelines is essential to keep up with advances in MS capabilities. Data independent analysis (DIA) is favourable in discovery proteomics due to the unbiased fragmentation of all peptides, reportedly improving reproducibility. SWATH MS, SONAR and HDMSe are among the best DIA MS methods available for proteomic biomarker discovery. In order to evaluate the effectiveness of MS pipelines inclusive of software tools commonly used in conjunction with these DIA MS methods, here we conduct a comparative analysis on a range of proteomic data sets. An initial comparison between SWATH MS data processed with OpenSWATH (OS) and HDMSe data processed with Progenesis QI P (PQIP) was conducted on serum samples, the predominant sample type used in biomarker studies. Data processing methods were found to significantly influence outcomes, in particular the ion accounting identification method used in PQIP reports fewer missing values (missingness) than the OS pipeline, which is beneficial in biomarker discovery to achieve comprehensive differential expression analysis. Serum samples typically have low proteins yields in MS analysis due to the large dynamic range of the plasma proteome, therefore a secondary comparison was conducted on cell lines. Cell lines were processed using SWATH MS with OS, SONAR with PQIP, and HDMSe with PQIP. In absence of a universal processing method, SONAR with PQIP was used to provide insights into whether differences seen between SWATH MS with OS and HDMSe with PQIP related to the MS or processing method. Findings substantiated evidence that the PQIP ion accounting method is better able to alleviate missingness. Other findings highlighted differences between outcomes in HDMSe and SONAR that are likely attributed to advances in the SONAR MS method. Finally, developments to the SWATH MS with OS pipeline were tested by comparing a novel multi-library approach to the standard single library method, along with a new machine learning element to replace standard p-value based expression analysis in order to determine which of the methods offers the most valuable insights for candidate biomarker discovery. Combining multiple libraries using z-scores increased the number of total proteins quantified and those significantly differentially expressed, providing higher predictive power for the potential biomarker panels. Throughout this research the choice of processing methods were found to significantly impact the interpretation of data and final results. As such, further efforts into improving reproducibility across the field are needed.</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2861185199</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Arthur, Caitlin S.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2022</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9798381843316</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>PQDT - UK &amp; Ireland</t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
         <v>2022</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Arthur, Caitlin S.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Mass spectrometry (MS) has become indispensable in proteomics and is routinely used in biomarker discovery, on which the foundation of personalised medicine is built. Effective MS analysis relies on sophisticated software tools capable of processing large quantities of complex data. As such, constant improvement of MS data analysis pipelines is essential to keep up with advances in MS capabilities. Data independent analysis (DIA) is favourable in discovery proteomics due to the unbiased fragmentation of all peptides, reportedly improving reproducibility. SWATH MS, SONAR and HDMSe are among the best DIA MS methods available for proteomic biomarker discovery. In order to evaluate the effectiveness of MS pipelines inclusive of software tools commonly used in conjunction with these DIA MS methods, here we conduct a comparative analysis on a range of proteomic data sets. An initial comparison between SWATH MS data processed with OpenSWATH (OS) and HDMSe data processed with Progenesis QI P (PQIP) was conducted on serum samples, the predominant sample type used in biomarker studies. Data processing methods were found to significantly influence outcomes, in particular the ion accounting identification method used in PQIP reports fewer missing values (missingness) than the OS pipeline, which is beneficial in biomarker discovery to achieve comprehensive differential expression analysis. Serum samples typically have low proteins yields in MS analysis due to the large dynamic range of the plasma proteome, therefore a secondary comparison was conducted on cell lines. Cell lines were processed using SWATH MS with OS, SONAR with PQIP, and HDMSe with PQIP. In absence of a universal processing method, SONAR with PQIP was used to provide insights into whether differences seen between SWATH MS with OS and HDMSe with PQIP related to the MS or processing method. Findings substantiated evidence that the PQIP ion accounting method is better able to alleviate missingness. Other findings highlighted differences between outcomes in HDMSe and SONAR that are likely attributed to advances in the SONAR MS method. Finally, developments to the SWATH MS with OS pipeline were tested by comparing a novel multi-library approach to the standard single library method, along with a new machine learning element to replace standard p-value based expression analysis in order to determine which of the methods offers the most valuable insights for candidate biomarker discovery. Combining multiple libraries using z-scores increased the number of total proteins quantified and those significantly differentially expressed, providing higher predictive power for the potential biomarker panels. Throughout this research the choice of processing methods were found to significantly impact the interpretation of data and final results. As such, further efforts into improving reproducibility across the field are needed.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/evaluation-analysis-methods-mass-spectrometry/docview/2861185199/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Evaluation+of+Analysis+Methods+in+Mass+Spectrometry+Based+Proteomics&amp;amp;issn=&amp;amp;date=2022-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Arthur%2C+Caitlin+S.&amp;amp;isbn=9798381843316&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>mass spectrometry become indispensable proteomics routinely used biomarker discovery foundation personalised medicine built effective relies sophisticated software tool capable processing large quantity complex constant improvement pipeline essential keep advance capability independent dia favourable discovery proteomics due unbiased fragmentation peptide reportedly improving reproducibility swath sonar hdmse among best dia method available proteomic biomarker discovery order evaluate effectiveness pipeline inclusive software tool commonly used conjunction dia method conduct comparative range proteomic set initial comparison swath processed openswath hdmse processed progenesis pqip conducted serum sample predominant sample type used biomarker study processing method found significantly influence outcome particular ion accounting identification used pqip report fewer missing value missingness pipeline beneficial biomarker discovery achieve comprehensive differential expression serum sample typically low protein yield due large dynamic range plasma proteome therefore secondary comparison conducted cell line cell line processed using swath sonar pqip hdmse pqip absence universal processing sonar pqip used provide insight whether difference seen swath hdmse pqip related processing finding substantiated evidence pqip ion accounting better able alleviate missingness finding highlighted difference outcome hdmse sonar likely attributed advance sonar finally development swath pipeline tested comparing novel standard single library along new machine learning element replace standard based expression order determine method offer valuable insight candidate biomarker discovery combining multiple library using increased number total protein quantified significantly differentially expressed providing higher predictive power potential biomarker panel throughout choice processing method found significantly impact interpretation final result effort improving reproducibility across field needed</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>['mass', 'spectrometry', 'become', 'indispensable', 'proteomics', 'routinely', 'used', 'biomarker', 'discovery', 'foundation', 'personalised', 'medicine', 'built', 'effective', 'relies', 'sophisticated', 'software', 'tools', 'capable', 'processing', 'large', 'quantities', 'complex', 'data', 'constant', 'improvement', 'data', 'pipelines', 'essential', 'keep', 'advances', 'capabilities', 'data', 'independent', 'dia', 'favourable', 'discovery', 'proteomics', 'due', 'unbiased', 'fragmentation', 'peptides', 'reportedly', 'improving', 'reproducibility', 'swath', 'sonar', 'hdmse', 'among', 'best', 'dia', 'methods', 'available', 'proteomic', 'biomarker', 'discovery', 'order', 'evaluate', 'effectiveness', 'pipelines', 'inclusive', 'software', 'tools', 'commonly', 'used', 'conjunction', 'dia', 'methods', 'conduct', 'comparative', 'range', 'proteomic', 'data', 'sets', 'initial', 'comparison', 'swath', 'data', 'processed', 'openswath', 'hdmse', 'data', 'processed', 'progenesis', 'pqip', 'conducted', 'serum', 'samples', 'predominant', 'sample', 'type', 'used', 'biomarker', 'studies', 'data', 'processing', 'methods', 'found', 'significantly', 'influence', 'outcomes', 'particular', 'ion', 'accounting', 'identification', 'used', 'pqip', 'reports', 'fewer', 'missing', 'values', 'missingness', 'pipeline', 'beneficial', 'biomarker', 'discovery', 'achieve', 'comprehensive', 'differential', 'expression', 'serum', 'samples', 'typically', 'low', 'proteins', 'yields', 'due', 'large', 'dynamic', 'range', 'plasma', 'proteome', 'therefore', 'secondary', 'comparison', 'conducted', 'cell', 'lines', 'cell', 'lines', 'processed', 'using', 'swath', 'sonar', 'pqip', 'hdmse', 'pqip', 'absence', 'universal', 'processing', 'sonar', 'pqip', 'used', 'provide', 'insights', 'whether', 'differences', 'seen', 'swath', 'hdmse', 'pqip', 'related', 'processing', 'findings', 'substantiated', 'evidence', 'pqip', 'ion', 'accounting', 'better', 'able', 'alleviate', 'missingness', 'findings', 'highlighted', 'differences', 'outcomes', 'hdmse', 'sonar', 'likely', 'attributed', 'advances', 'sonar', 'finally', 'developments', 'swath', 'pipeline', 'tested', 'comparing', 'novel', 'standard', 'single', 'library', 'along', 'new', 'machine', 'learning', 'element', 'replace', 'standard', 'based', 'expression', 'order', 'determine', 'methods', 'offers', 'valuable', 'insights', 'candidate', 'biomarker', 'discovery', 'combining', 'multiple', 'libraries', 'using', 'increased', 'number', 'total', 'proteins', 'quantified', 'significantly', 'differentially', 'expressed', 'providing', 'higher', 'predictive', 'power', 'potential', 'biomarker', 'panels', 'throughout', 'choice', 'processing', 'methods', 'found', 'significantly', 'impact', 'interpretation', 'data', 'final', 'results', 'efforts', 'improving', 'reproducibility', 'across', 'field', 'needed']</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -584,20 +1346,142 @@
           <t>Pancreatic cancer cells spectral library by DIA-MS and the phenotype analysis of gemcitabine sensitivity</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Data-independent acquisition (DIA)-mass spectrometry (MS)-based proteome strategies are increasingly used for detecting and validating protein biomarkers and therapeutic targets. Here, based on an in-depth proteome analysis of seven pancreatic cancer cell lines, we built a pancreas-specific mass spectrum library containing 10633 protein groups and 184551 peptides. The proteome difference among the seven pancreatic cancer cells was significant, especially for the divergent expression of proteins related to epithelial-mesenchymal transition (EMT). The spectra library was applied to explore the proteome difference of PANC-1 and BxPC-3 cells upon gemcitabine (GEM) treatment, and potential GEM targets were identified. The cytotoxicity test and GEM target analysis found that HPAC, CFPAC-1, and BxPC-3 were sensitive to GEM treatment, whereas PANC-1 and AsPC-1 were resistant. Finally, we found EMT was significant for CFPAC-1, AsPC-1, and PANC-1 cells, whereas BxPC-3 and HPAC cells showed more typical epithelial features. This library provides a valuable resource for in-depth proteomic analysis on pancreatic cancer cell lines, meeting the urgent demands for cell line-dependent protein differences and targeted drug analysis. Measurement(s) protein expression profiling Technology Type(s) Mass Spectrometry</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2674579234</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Scholarly Journals</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beijing Institute of Lifeomics, State Key Laboratory of Proteomics, Beijing Proteome Research Center, National Center for Protein Sciences (Beijing), Beijing, China (GRID:grid.419611.a) (ISNI:0000 0004 0457 9072) , Beijing Institute of Lifeomics, State Key Laboratory of Proteomics, Beijing Proteome Research Center, National Center for Protein Sciences (Beijing), Beijing, China (GRID:grid.419611.a) (ISNI:0000 0004 0457 9072) , Beijing Institute of Lifeomics, State Key Laboratory of Proteomics, Beijing Proteome Research Center, National Center for Protein Sciences (Beijing), Beijing, China (GRID:grid.419611.a) (ISNI:0000 0004 0457 9072)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Kong, Ran;Qian, Xiaohong;Ying, Wantao</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> © The Author(s) 2022. This work is published under http://creativecommons.org/licenses/by/4.0/ (the “License”). Notwithstanding the ProQuest Terms and Conditions, you may use this content in accordance with the terms of the License.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>10.1038/s41597-022-01407-1</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Journal Article</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2022-06-09</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2022</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pancreatic cancer , Cancer cell , Proteomics , Gemcitabine</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> London</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Scientific Data</t>
+        </is>
+      </c>
+      <c r="AB7" t="n">
         <v>2022</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Kong, Ran;Qian, Xiaohong;Ying, Wantao</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Data-independent acquisition (DIA)-mass spectrometry (MS)-based proteome strategies are increasingly used for detecting and validating protein biomarkers and therapeutic targets. Here, based on an in-depth proteome analysis of seven pancreatic cancer cell lines, we built a pancreas-specific mass spectrum library containing 10633 protein groups and 184551 peptides. The proteome difference among the seven pancreatic cancer cells was significant, especially for the divergent expression of proteins related to epithelial-mesenchymal transition (EMT). The spectra library was applied to explore the proteome difference of PANC-1 and BxPC-3 cells upon gemcitabine (GEM) treatment, and potential GEM targets were identified. The cytotoxicity test and GEM target analysis found that HPAC, CFPAC-1, and BxPC-3 were sensitive to GEM treatment, whereas PANC-1 and AsPC-1 were resistant. Finally, we found EMT was significant for CFPAC-1, AsPC-1, and PANC-1 cells, whereas BxPC-3 and HPAC cells showed more typical epithelial features. This library provides a valuable resource for in-depth proteomic analysis on pancreatic cancer cell lines, meeting the urgent demands for cell line-dependent protein differences and targeted drug analysis. Measurement(s) protein expression profiling Technology Type(s) Mass Spectrometry</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/scholarly-journals/pancreatic-cancer-cells-spectral-library-dia-ms/docview/2674579234/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=article&amp;amp;sid=ProQ:ProQ%3Ahealthcompleteshell&amp;amp;atitle=Pancreatic+cancer+cells+spectral+library+by+DIA-MS+and+the+phenotype+analysis+of+gemcitabine+sensitivity&amp;amp;title=Scientific+Data&amp;amp;issn=&amp;amp;date=2022-01-01&amp;amp;volume=9&amp;amp;issue=1&amp;amp;spage=&amp;amp;au=Kong%2C+Ran%3BQian%2C+Xiaohong%3BYing%2C+Wantao&amp;amp;isbn=&amp;amp;jtitle=Scientific+Data&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/10.1038%2Fs41597-022-01407-1</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Health Research Premium Collection, ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>acquisition dia spectrometry proteome strategy increasingly used detecting validating protein biomarkers therapeutic target based proteome seven pancreatic cancer cell line built mass spectrum library containing protein group peptide proteome difference among seven pancreatic cancer cell significant especially divergent expression protein related transition emt spectrum library applied explore proteome difference cell upon gemcitabine gem treatment potential gem target identified cytotoxicity test gem target found hpac sensitive gem treatment whereas resistant finally found emt significant cell whereas hpac cell showed typical epithelial feature library provides valuable resource proteomic pancreatic cancer cell line meeting urgent demand cell protein difference targeted drug measurement protein expression profiling technology type mass spectrometry</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>['acquisition', 'dia', 'spectrometry', 'proteome', 'strategies', 'increasingly', 'used', 'detecting', 'validating', 'protein', 'biomarkers', 'therapeutic', 'targets', 'based', 'proteome', 'seven', 'pancreatic', 'cancer', 'cell', 'lines', 'built', 'mass', 'spectrum', 'library', 'containing', 'protein', 'groups', 'peptides', 'proteome', 'difference', 'among', 'seven', 'pancreatic', 'cancer', 'cells', 'significant', 'especially', 'divergent', 'expression', 'proteins', 'related', 'transition', 'emt', 'spectra', 'library', 'applied', 'explore', 'proteome', 'difference', 'cells', 'upon', 'gemcitabine', 'gem', 'treatment', 'potential', 'gem', 'targets', 'identified', 'cytotoxicity', 'test', 'gem', 'target', 'found', 'hpac', 'sensitive', 'gem', 'treatment', 'whereas', 'resistant', 'finally', 'found', 'emt', 'significant', 'cells', 'whereas', 'hpac', 'cells', 'showed', 'typical', 'epithelial', 'features', 'library', 'provides', 'valuable', 'resource', 'proteomic', 'pancreatic', 'cancer', 'cell', 'lines', 'meeting', 'urgent', 'demands', 'cell', 'protein', 'differences', 'targeted', 'drug', 'measurement', 'protein', 'expression', 'profiling', 'technology', 'type', 'mass', 'spectrometry']</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Journal Article</t>
+        </is>
+      </c>
+      <c r="AL7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -605,20 +1489,126 @@
           <t>Staff Hypertension Education Program for Vulnerable Populations in a Primary Care Setting</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>For health care practitioners to effectively manage hypertension (HTN) patients and their related long- and short-term consequences, they must first identify the underlying cause of the disease. When patient interventions are not regularly implemented by clinicians, the likelihood of complications from HTN increases. A gap in staff knowledge on managing patients with HTN was identified in an outpatient clinic in the midwestern United States. A staff education program for health care providers to close the knowledge gap was developed based on the most recent Veterans Affairs/Department of Defense Clinical Practice Guidelines for the management of HTN. The aim of this project was to explore the impact of an evidence-based staff education program on increasing clinical personnel’s awareness of the management of HTN. The health promotion model played a critical role in guiding the project’s development and implementation. Three expert stakeholders endorsed the project, agreeing that the educational program and content, when applied to clinical practice, would increase staff understanding of the management and diagnosis of HTN. Ten clinical staff members participated in the education program, first completing a pretest questionnaire and then viewing a PowerPoint presentation outlining the educational program’s content. The participants completed posttest questionnaires to assess their knowledge following the PowerPoint presentation. Posttest results suggested that staff knowledge grew due to a learning gain from the program’s original baseline. The project has the potential for positive social change when evidence from the staff education is translated into practice, resulting in improved patient management for the treatment of HTN.</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2649525349</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jobity, Brando</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2022</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Staff hypertension education program , Vulnerable populations , Primary care setting</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 979-8-209-98840-3</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
         <v>2022</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Jobity, Brando</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>For health care practitioners to effectively manage hypertension (HTN) patients and their related long- and short-term consequences, they must first identify the underlying cause of the disease. When patient interventions are not regularly implemented by clinicians, the likelihood of complications from HTN increases. A gap in staff knowledge on managing patients with HTN was identified in an outpatient clinic in the midwestern United States. A staff education program for health care providers to close the knowledge gap was developed based on the most recent Veterans Affairs/Department of Defense Clinical Practice Guidelines for the management of HTN. The aim of this project was to explore the impact of an evidence-based staff education program on increasing clinical personnel’s awareness of the management of HTN. The health promotion model played a critical role in guiding the project’s development and implementation. Three expert stakeholders endorsed the project, agreeing that the educational program and content, when applied to clinical practice, would increase staff understanding of the management and diagnosis of HTN. Ten clinical staff members participated in the education program, first completing a pretest questionnaire and then viewing a PowerPoint presentation outlining the educational program’s content. The participants completed posttest questionnaires to assess their knowledge following the PowerPoint presentation. Posttest results suggested that staff knowledge grew due to a learning gain from the program’s original baseline. The project has the potential for positive social change when evidence from the staff education is translated into practice, resulting in improved patient management for the treatment of HTN.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/staff-hypertension-education-program-vulnerable/docview/2649525349/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Staff+Hypertension+Education+Program+for+Vulnerable+Populations+in+a+Primary+Care+Setting&amp;amp;issn=&amp;amp;date=2022-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Jobity%2C+Brando&amp;amp;isbn=979-8-209-98840-3&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Health Research Premium Collection, ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>health care practitioner effectively manage hypertension htn patient related consequence must first identify underlying cause disease patient intervention regularly implemented clinician likelihood complication htn increase gap staff knowledge managing patient htn identified outpatient clinic midwestern united state staff education program health care provider close knowledge gap developed based recent veteran clinical practice guideline management htn aim project explore impact staff education program increasing clinical personnel awareness management htn health promotion model played critical role guiding project development implementation three expert stakeholder endorsed project agreeing educational program content applied clinical practice would increase staff understanding management diagnosis htn ten clinical staff member participated education program first completing pretest questionnaire viewing powerpoint presentation outlining educational program content participant completed posttest questionnaire assess knowledge following powerpoint presentation posttest result suggested staff knowledge grew due learning gain program original baseline project potential positive social change evidence staff education translated practice resulting improved patient management treatment htn</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>['health', 'care', 'practitioners', 'effectively', 'manage', 'hypertension', 'htn', 'patients', 'related', 'consequences', 'must', 'first', 'identify', 'underlying', 'cause', 'disease', 'patient', 'interventions', 'regularly', 'implemented', 'clinicians', 'likelihood', 'complications', 'htn', 'increases', 'gap', 'staff', 'knowledge', 'managing', 'patients', 'htn', 'identified', 'outpatient', 'clinic', 'midwestern', 'united', 'states', 'staff', 'education', 'program', 'health', 'care', 'providers', 'close', 'knowledge', 'gap', 'developed', 'based', 'recent', 'veterans', 'clinical', 'practice', 'guidelines', 'management', 'htn', 'aim', 'project', 'explore', 'impact', 'staff', 'education', 'program', 'increasing', 'clinical', 'personnel', 'awareness', 'management', 'htn', 'health', 'promotion', 'model', 'played', 'critical', 'role', 'guiding', 'project', 'development', 'implementation', 'three', 'expert', 'stakeholders', 'endorsed', 'project', 'agreeing', 'educational', 'program', 'content', 'applied', 'clinical', 'practice', 'would', 'increase', 'staff', 'understanding', 'management', 'diagnosis', 'htn', 'ten', 'clinical', 'staff', 'members', 'participated', 'education', 'program', 'first', 'completing', 'pretest', 'questionnaire', 'viewing', 'powerpoint', 'presentation', 'outlining', 'educational', 'program', 'content', 'participants', 'completed', 'posttest', 'questionnaires', 'assess', 'knowledge', 'following', 'powerpoint', 'presentation', 'posttest', 'results', 'suggested', 'staff', 'knowledge', 'grew', 'due', 'learning', 'gain', 'program', 'original', 'baseline', 'project', 'potential', 'positive', 'social', 'change', 'evidence', 'staff', 'education', 'translated', 'practice', 'resulting', 'improved', 'patient', 'management', 'treatment', 'htn']</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -626,20 +1616,138 @@
           <t>STITCHING THE ARMY'S DATA FABRIC</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[...]artificial intelligence (AI) capabilities-a necessity in order to operate at the speed of digital war-are starved for data, because warfighting systems generate information at high volume but without great value, as much of the collected data remains unprocessed and difficult to find, unbeknownst to the operator. Recently, the JADC2 Cross-Functional Team, run by the Joint Staff J-6, codified data fabric as a "Department of Defense federated data environment for sharing information through interfaces and services to discover, understand, and exchange data with partners across all domains, security levels and echelons." In late 2019, the Army issued a request for information to industry on data fabric as part of the recurring technical exchange meeting process, which is led by the Army Futures Command Network Cross-Functional Team (CFT) and the Program Executive Office for Command, Control, Communications - Tactical (PEO C3T) to shape and target commercial innovation for potential Capability Set fielding. (The 6 A category is the DOD research, development, test and evaluation budget activity code for advanced component development and prototypes.) CFT and PEO experts conducted laboratory-based experimentation with the vendor technologies under realistic threat conditions this spring, which led to a follow-on contract award to one vendor for field experimentation at Project Convergence 21.</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2595669220</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Trade Journals</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Patel, Nihar;Patel, Upesh;Hawk, Evert R, II;Kapadia, Krupal</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Army Futures Command</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Copyright Superintendent of Documents Fall 2021</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> General Information</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fall 2021</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Army , Artificial intelligence , Data</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>1529-8507</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14-19</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fort Belvoir</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Fall 2021</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Army AL &amp; T</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
         <v>2021</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Patel, Nihar;Patel, Upesh;Hawk, Evert R, II;Kapadia, Krupal</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[...]artificial intelligence (AI) capabilities-a necessity in order to operate at the speed of digital war-are starved for data, because warfighting systems generate information at high volume but without great value, as much of the collected data remains unprocessed and difficult to find, unbeknownst to the operator. Recently, the JADC2 Cross-Functional Team, run by the Joint Staff J-6, codified data fabric as a "Department of Defense federated data environment for sharing information through interfaces and services to discover, understand, and exchange data with partners across all domains, security levels and echelons." In late 2019, the Army issued a request for information to industry on data fabric as part of the recurring technical exchange meeting process, which is led by the Army Futures Command Network Cross-Functional Team (CFT) and the Program Executive Office for Command, Control, Communications - Tactical (PEO C3T) to shape and target commercial innovation for potential Capability Set fielding. (The 6 A category is the DOD research, development, test and evaluation budget activity code for advanced component development and prototypes.) CFT and PEO experts conducted laboratory-based experimentation with the vendor technologies under realistic threat conditions this spring, which led to a follow-on contract award to one vendor for field experimentation at Project Convergence 21.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/trade-journals/stitching-armys-data-fabric/docview/2595669220/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=article&amp;amp;sid=ProQ:ProQ%3Amilitary&amp;amp;atitle=STITCHING+THE+ARMY%27S+DATA+FABRIC&amp;amp;title=Army+AL+%26+T&amp;amp;issn=15298507&amp;amp;date=2021-10-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=14&amp;amp;au=Patel%2C+Nihar%3BPatel%2C+Upesh%3BHawk%2C+Evert+R%2C+II%3BKapadia%2C+Krupal&amp;amp;isbn=&amp;amp;jtitle=Army+AL+%26+T&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Military Database, ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>artificial intelligence necessity order operate speed digital starved warfighting system generate information high volume without great value much collected remains unprocessed difficult find unbeknownst operator recently team run joint staff codified fabric federated environment sharing information interface service discover understand exchange partner across domain security level echelon late army issued request information industry fabric part recurring technical exchange meeting process led army future command network team cft program executive office command control communication tactical peo shape target commercial innovation potential capability set fielding category development test evaluation budget activity code advanced component development prototype cft peo expert conducted experimentation vendor technology realistic threat condition spring led contract award one vendor field experimentation project convergence</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>['artificial', 'intelligence', 'necessity', 'order', 'operate', 'speed', 'digital', 'starved', 'data', 'warfighting', 'systems', 'generate', 'information', 'high', 'volume', 'without', 'great', 'value', 'much', 'collected', 'data', 'remains', 'unprocessed', 'difficult', 'find', 'unbeknownst', 'operator', 'recently', 'team', 'run', 'joint', 'staff', 'codified', 'data', 'fabric', 'federated', 'data', 'environment', 'sharing', 'information', 'interfaces', 'services', 'discover', 'understand', 'exchange', 'data', 'partners', 'across', 'domains', 'security', 'levels', 'echelons', 'late', 'army', 'issued', 'request', 'information', 'industry', 'data', 'fabric', 'part', 'recurring', 'technical', 'exchange', 'meeting', 'process', 'led', 'army', 'futures', 'command', 'network', 'team', 'cft', 'program', 'executive', 'office', 'command', 'control', 'communications', 'tactical', 'peo', 'shape', 'target', 'commercial', 'innovation', 'potential', 'capability', 'set', 'fielding', 'category', 'development', 'test', 'evaluation', 'budget', 'activity', 'code', 'advanced', 'component', 'development', 'prototypes', 'cft', 'peo', 'experts', 'conducted', 'experimentation', 'vendor', 'technologies', 'realistic', 'threat', 'conditions', 'spring', 'led', 'contract', 'award', 'one', 'vendor', 'field', 'experimentation', 'project', 'convergence']</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>General Information</t>
+        </is>
+      </c>
+      <c r="AL9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -647,20 +1755,134 @@
           <t>Improvement of Project Management Efficiency With a Business Intelligence Solution in an Automotive Supplier Company</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The present dissertation thesis was developed under the Integrated Master in Engineering and Industrial Management of the University of Minho. This work was developed in the company Bosch Car Multimedia S.A, in Braga, in the project management section of the development department. The main goal was to improve the project management processes and efficiency by designing and implementing a Business Intelligence solution to monitor the development projects. The methodology “Action-research” was used, and the researcher was inserted in the daily life of a specific project team with the goal to understand their way of work, analyze improvement opportunities and to propose improvement actions. At the same time, a literature review was made with the combination of project management topics with Lean Thinking that aim for the “continuous improvement” of project management and also literature related to metrics, key performance indicators (KPI’s) and Dashboards. After analyzing the team activities, some opportunities were found in several areas that the project manager and the team members faced daily. These improvement opportunities were generally related to the lack of visibility of the several topics, the redundancy of information, documents and templates that were not efficient, lack of awareness on the project metrics and KPI’s. The solution proposed to use PowerBI to create a Project Dashboard that could centralize the topics on one single place, aiming for increasing visibility and information sharing. After the implementation on the first project, it was possible to reduce the time spending on team meetings, reports preparation, report meetings and some documents were simplified to be faster to fill and read. With the implementation, it is possible to estimate the saving amount of 7580€ on time savings, on one single project. The feedback of the team was collected using a questionnaire; the general perception is frankly positive and the expansion to other projects highly recommended. This expansion to other projects and to integrate several projects in the same dashboard, creating a “Portfolio Management Dashboard” was also initiated, but not concluded. Thus, the expansion of the dashboard is a suggestion for future work, allowing to integrate other projects and other project management departments, aiming for the benefits obtained with the first trial project.</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3164232446</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Melhoria da eficiência da gestão de projetos com uma solução de Business Intelligence numa empresa de componentes para veículos</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Pereira, Isac Oliveira</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2021</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Project management , Efficiency , Improvement</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9798302855107</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Melhoria da eficiência da gestão de projetos com uma solução de Business Intelligence numa empresa de componentes para veículos</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>PQDT - Global</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
         <v>2021</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Pereira, Isac Oliveira</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>The present dissertation thesis was developed under the Integrated Master in Engineering and Industrial Management of the University of Minho. This work was developed in the company Bosch Car Multimedia S.A, in Braga, in the project management section of the development department. The main goal was to improve the project management processes and efficiency by designing and implementing a Business Intelligence solution to monitor the development projects. The methodology “Action-research” was used, and the researcher was inserted in the daily life of a specific project team with the goal to understand their way of work, analyze improvement opportunities and to propose improvement actions. At the same time, a literature review was made with the combination of project management topics with Lean Thinking that aim for the “continuous improvement” of project management and also literature related to metrics, key performance indicators (KPI’s) and Dashboards. After analyzing the team activities, some opportunities were found in several areas that the project manager and the team members faced daily. These improvement opportunities were generally related to the lack of visibility of the several topics, the redundancy of information, documents and templates that were not efficient, lack of awareness on the project metrics and KPI’s. The solution proposed to use PowerBI to create a Project Dashboard that could centralize the topics on one single place, aiming for increasing visibility and information sharing. After the implementation on the first project, it was possible to reduce the time spending on team meetings, reports preparation, report meetings and some documents were simplified to be faster to fill and read. With the implementation, it is possible to estimate the saving amount of 7580€ on time savings, on one single project. The feedback of the team was collected using a questionnaire; the general perception is frankly positive and the expansion to other projects highly recommended. This expansion to other projects and to integrate several projects in the same dashboard, creating a “Portfolio Management Dashboard” was also initiated, but not concluded. Thus, the expansion of the dashboard is a suggestion for future work, allowing to integrate other projects and other project management departments, aiming for the benefits obtained with the first trial project.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/improvement-project-management-efficiency-with/docview/3164232446/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Improvement+of+Project+Management+Efficiency+With+a+Business+Intelligence+Solution+in+an+Automotive+Supplier+Company&amp;amp;issn=&amp;amp;date=2021-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Pereira%2C+Isac+Oliveira&amp;amp;isbn=9798302855107&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>present developed integrated master engineering industrial management minho work developed company bosch car multimedia braga project management section development main goal improve project management process efficiency designing implementing business intelligence solution monitor development project used researcher inserted daily life specific project team goal understand way work analyze improvement opportunity propose improvement action time literature review made combination project management topic lean thinking aim continuous improvement project management also literature related metric key performance indicator kpi dashboard analyzing team activity opportunity found several area project manager team member faced daily improvement opportunity generally related lack visibility several topic redundancy information document template efficient lack awareness project metric kpi solution proposed use powerbi create project dashboard could centralize topic one single place aiming increasing visibility information sharing implementation first project possible reduce time spending team meeting report preparation report meeting document simplified faster fill read implementation possible estimate saving amount time saving one single project feedback team collected using questionnaire general perception frankly positive expansion project highly recommended expansion project integrate several project dashboard creating portfolio management dashboard also initiated concluded thus expansion dashboard suggestion future work allowing integrate project project management department aiming benefit obtained first trial project</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>['present', 'dissertation', 'thesis', 'developed', 'integrated', 'master', 'engineering', 'industrial', 'management', 'university', 'minho', 'work', 'developed', 'company', 'bosch', 'car', 'multimedia', 'braga', 'project', 'management', 'section', 'development', 'main', 'goal', 'improve', 'project', 'management', 'processes', 'efficiency', 'designing', 'implementing', 'business', 'intelligence', 'solution', 'monitor', 'development', 'projects', 'used', 'researcher', 'inserted', 'daily', 'life', 'specific', 'project', 'team', 'goal', 'understand', 'way', 'work', 'analyze', 'improvement', 'opportunities', 'propose', 'improvement', 'actions', 'time', 'literature', 'review', 'made', 'combination', 'project', 'management', 'topics', 'lean', 'thinking', 'aim', 'continuous', 'improvement', 'project', 'management', 'also', 'literature', 'related', 'metrics', 'key', 'performance', 'indicators', 'kpi', 'dashboards', 'analyzing', 'team', 'activities', 'opportunities', 'found', 'several', 'areas', 'project', 'manager', 'team', 'members', 'faced', 'daily', 'improvement', 'opportunities', 'generally', 'related', 'lack', 'visibility', 'several', 'topics', 'redundancy', 'information', 'documents', 'templates', 'efficient', 'lack', 'awareness', 'project', 'metrics', 'kpi', 'solution', 'proposed', 'use', 'powerbi', 'create', 'project', 'dashboard', 'could', 'centralize', 'topics', 'one', 'single', 'place', 'aiming', 'increasing', 'visibility', 'information', 'sharing', 'implementation', 'first', 'project', 'possible', 'reduce', 'time', 'spending', 'team', 'meetings', 'reports', 'preparation', 'report', 'meetings', 'documents', 'simplified', 'faster', 'fill', 'read', 'implementation', 'possible', 'estimate', 'saving', 'amount', 'time', 'savings', 'one', 'single', 'project', 'feedback', 'team', 'collected', 'using', 'questionnaire', 'general', 'perception', 'frankly', 'positive', 'expansion', 'projects', 'highly', 'recommended', 'expansion', 'projects', 'integrate', 'several', 'projects', 'dashboard', 'creating', 'portfolio', 'management', 'dashboard', 'also', 'initiated', 'concluded', 'thus', 'expansion', 'dashboard', 'suggestion', 'future', 'work', 'allowing', 'integrate', 'projects', 'project', 'management', 'departments', 'aiming', 'benefits', 'obtained', 'first', 'trial', 'project']</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -668,20 +1890,146 @@
           <t>Tobacco smoking induces metabolic reprogramming of renal cell carcinoma</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BACKGROUND. Clear cell renal cell carcinoma (ccRCC) is the most common histologically defined renal cancer. However, it is not a uniform disease and includes several genetic subtypes with different prognoses. ccRCC is also characterized by distinctive metabolic reprogramming. Tobacco smoking (TS) is an established risk factor for ccRCC, with unknown effects on tumor pathobiology. METHODS. We investigated the landscape of ccRCCs and paired normal kidney tissues using integrated transcriptomic, metabolomic, and metallomic approaches in a cohort of white males who were long-term current smokers (LTS) or were never smokers (NS). RESULTS. All 3 Omics domains consistently identified a distinct metabolic subtype of ccRCCs in LTS, characterized by activation of oxidative phosphorylation (OXPHOS) coupled with reprogramming of the malate-aspartate shuttle and metabolism of aspartate, glutamate, glutamine, and histidine. Cadmium, copper, and inorganic arsenic accumulated in LTS tumors, showing redistribution among intracellular pools, including relocation of copper into the cytochrome c oxidase complex. A gene expression signature based on the LTS metabolic subtype provided prognostic stratification of The Cancer Genome Atlas ccRCC tumors that was independent of genomic alterations. CONCLUSION. The work identified the TS-related metabolic subtype of ccRCC with vulnerabilities that can be exploited for precision medicine approaches targeting metabolic pathways. The results provided rationale for the development of metabolic biomarkers with diagnostic and prognostic applications using evaluation of OXPHOS status. The metallomic analysis revealed the role of disrupted metal homeostasis in ccRCC, highlighting the importance of studying effects of metals from e-cigarettes and environmental exposures. FUNDING. Department of Defense, Veteran Administration, NIH, ACS, and University of Cincinnati Cancer Institute.</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2476869729</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Scholarly Journals</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Department of Cancer Biology , Department of Cancer Biology , Division of Biostatistics and Bioinformatics, Department of Environmental and Public Health Sciences, University of Cincinnati College of Medicine, Cincinnati, Ohio, USA , Department of Cancer Biology , Division of Biostatistics and Bioinformatics, Department of Environmental and Public Health Sciences, University of Cincinnati College of Medicine, Cincinnati, Ohio, USA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Reigle, James;Secic, Dina;Biesiada, Jacek;Wetzel, Collin;Shamsaei, Behrouz;Chu, Johnson;Zang, Yuanwei;Zhang, Xiang;Talbot, Nicholas J;Bischoff, Megan E;Zhang, Yongzhen;Thakar, Charuhas V;Gaitonde, Krishnanath;Sidana, Abhinav;Bui, Hai;Cunningham, John T;Zhang, Qing;Schmidt, Laura S;Linehan, W Marston;Medvedovic, Mario;Plas, David R;Figueroa, Julio A Landero;Meller, Jarek;Czyzyk-Krzeska, Maria F</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Copyright American Society for Clinical Investigation Jan 2021</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>10.1172/JCI140522</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Journal Article</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jan 2021</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oxidative phosphorylation , Metabolomics , Clear cell , Metallome , Kidney cancer , Tobacco , Tobacco smoking , Renal cell carcinoma , Smoking</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0021-9738</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1-16</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ann Arbor</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Jan 2021</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>The Journal of Clinical Investigation</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
         <v>2021</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Reigle, James;Secic, Dina;Biesiada, Jacek;Wetzel, Collin;Shamsaei, Behrouz;Chu, Johnson;Zang, Yuanwei;Zhang, Xiang;Talbot, Nicholas J;Bischoff, Megan E;Zhang, Yongzhen;Thakar, Charuhas V;Gaitonde, Krishnanath;Sidana, Abhinav;Bui, Hai;Cunningham, John T;Zhang, Qing;Schmidt, Laura S;Linehan, W Marston;Medvedovic, Mario;Plas, David R;Figueroa, Julio A Landero;Meller, Jarek;Czyzyk-Krzeska, Maria F</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>BACKGROUND. Clear cell renal cell carcinoma (ccRCC) is the most common histologically defined renal cancer. However, it is not a uniform disease and includes several genetic subtypes with different prognoses. ccRCC is also characterized by distinctive metabolic reprogramming. Tobacco smoking (TS) is an established risk factor for ccRCC, with unknown effects on tumor pathobiology. METHODS. We investigated the landscape of ccRCCs and paired normal kidney tissues using integrated transcriptomic, metabolomic, and metallomic approaches in a cohort of white males who were long-term current smokers (LTS) or were never smokers (NS). RESULTS. All 3 Omics domains consistently identified a distinct metabolic subtype of ccRCCs in LTS, characterized by activation of oxidative phosphorylation (OXPHOS) coupled with reprogramming of the malate-aspartate shuttle and metabolism of aspartate, glutamate, glutamine, and histidine. Cadmium, copper, and inorganic arsenic accumulated in LTS tumors, showing redistribution among intracellular pools, including relocation of copper into the cytochrome c oxidase complex. A gene expression signature based on the LTS metabolic subtype provided prognostic stratification of The Cancer Genome Atlas ccRCC tumors that was independent of genomic alterations. CONCLUSION. The work identified the TS-related metabolic subtype of ccRCC with vulnerabilities that can be exploited for precision medicine approaches targeting metabolic pathways. The results provided rationale for the development of metabolic biomarkers with diagnostic and prognostic applications using evaluation of OXPHOS status. The metallomic analysis revealed the role of disrupted metal homeostasis in ccRCC, highlighting the importance of studying effects of metals from e-cigarettes and environmental exposures. FUNDING. Department of Defense, Veteran Administration, NIH, ACS, and University of Cincinnati Cancer Institute.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="n">
+        <v>131</v>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/scholarly-journals/tobacco-smoking-induces-metabolic-reprogramming/docview/2476869729/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=article&amp;amp;sid=ProQ:ProQ%3Ahealthcompleteshell&amp;amp;atitle=Tobacco+smoking+induces+metabolic+reprogramming+of+renal+cell+carcinoma&amp;amp;title=The+Journal+of+Clinical+Investigation&amp;amp;issn=00219738&amp;amp;date=2021-01-01&amp;amp;volume=131&amp;amp;issue=1&amp;amp;spage=1&amp;amp;au=Reigle%2C+James%3BSecic%2C+Dina%3BBiesiada%2C+Jacek%3BWetzel%2C+Collin%3BShamsaei%2C+Behrouz%3BChu%2C+Johnson%3BZang%2C+Yuanwei%3BZhang%2C+Xiang%3BTalbot%2C+Nicholas+J%3BBischoff%2C+Megan+E%3BZhang%2C+Yongzhen%3BThakar%2C+Charuhas+V%3BGaitonde%2C+Krishnanath%3BSidana%2C+Abhinav%3BBui%2C+Hai%3BCunningham%2C+John+T%3BZhang%2C+Qing%3BSchmidt%2C+Laura+S%3BLinehan%2C+W+Marston%3BMedvedovic%2C+Mario%3BPlas%2C+David+R%3BFigueroa%2C+Julio+A+Landero%3BMeller%2C+Jarek%3BCzyzyk-Krzeska%2C+Maria+F&amp;amp;isbn=&amp;amp;jtitle=The+Journal+of+Clinical+Investigation&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/10.1172%2FJCI140522</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Health Research Premium Collection, ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>background clear cell renal cell carcinoma ccrcc common histologically defined renal cancer however uniform disease includes several genetic subtypes different prognosis ccrcc also characterized distinctive metabolic reprogramming tobacco smoking established risk factor ccrcc unknown effect tumor pathobiology method investigated landscape ccrccs paired normal kidney tissue using integrated transcriptomic metabolomic metallomic approach cohort white male current smoker lts never smoker result omics domain consistently identified distinct metabolic subtype ccrccs lts characterized activation oxidative phosphorylation oxphos coupled reprogramming shuttle metabolism aspartate glutamate glutamine histidine cadmium copper inorganic arsenic accumulated lts tumor showing redistribution among intracellular pool including relocation copper cytochrome oxidase complex gene expression signature based lts metabolic subtype provided prognostic stratification cancer genome atlas ccrcc tumor independent genomic alteration conclusion work identified metabolic subtype ccrcc vulnerability exploited precision medicine approach targeting metabolic pathway result provided rationale development metabolic biomarkers diagnostic prognostic application using evaluation oxphos status metallomic revealed role disrupted metal homeostasis ccrcc highlighting importance studying effect metal environmental exposure funding veteran administration nih ac cincinnati cancer institute</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>['background', 'clear', 'cell', 'renal', 'cell', 'carcinoma', 'ccrcc', 'common', 'histologically', 'defined', 'renal', 'cancer', 'however', 'uniform', 'disease', 'includes', 'several', 'genetic', 'subtypes', 'different', 'prognoses', 'ccrcc', 'also', 'characterized', 'distinctive', 'metabolic', 'reprogramming', 'tobacco', 'smoking', 'established', 'risk', 'factor', 'ccrcc', 'unknown', 'effects', 'tumor', 'pathobiology', 'methods', 'investigated', 'landscape', 'ccrccs', 'paired', 'normal', 'kidney', 'tissues', 'using', 'integrated', 'transcriptomic', 'metabolomic', 'metallomic', 'approaches', 'cohort', 'white', 'males', 'current', 'smokers', 'lts', 'never', 'smokers', 'results', 'omics', 'domains', 'consistently', 'identified', 'distinct', 'metabolic', 'subtype', 'ccrccs', 'lts', 'characterized', 'activation', 'oxidative', 'phosphorylation', 'oxphos', 'coupled', 'reprogramming', 'shuttle', 'metabolism', 'aspartate', 'glutamate', 'glutamine', 'histidine', 'cadmium', 'copper', 'inorganic', 'arsenic', 'accumulated', 'lts', 'tumors', 'showing', 'redistribution', 'among', 'intracellular', 'pools', 'including', 'relocation', 'copper', 'cytochrome', 'oxidase', 'complex', 'gene', 'expression', 'signature', 'based', 'lts', 'metabolic', 'subtype', 'provided', 'prognostic', 'stratification', 'cancer', 'genome', 'atlas', 'ccrcc', 'tumors', 'independent', 'genomic', 'alterations', 'conclusion', 'work', 'identified', 'metabolic', 'subtype', 'ccrcc', 'vulnerabilities', 'exploited', 'precision', 'medicine', 'approaches', 'targeting', 'metabolic', 'pathways', 'results', 'provided', 'rationale', 'development', 'metabolic', 'biomarkers', 'diagnostic', 'prognostic', 'applications', 'using', 'evaluation', 'oxphos', 'status', 'metallomic', 'revealed', 'role', 'disrupted', 'metal', 'homeostasis', 'ccrcc', 'highlighting', 'importance', 'studying', 'effects', 'metals', 'environmental', 'exposures', 'funding', 'veteran', 'administration', 'nih', 'acs', 'university', 'cincinnati', 'cancer', 'institute']</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Journal Article</t>
+        </is>
+      </c>
+      <c r="AL11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -689,20 +2037,138 @@
           <t>How to perform spectrum-based LC-HR-MS screening for more than 1,000 NPS with HighResNPS consensus fragment ions</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Introduction The ever-changing market of new psychoactive substances (NPS) poses challenges for laboratories worldwide. Analytical toxicologists are constantly working to keep high-resolution mass spectrometry (HR-MS) screening libraries updated for NPS. This study sought to use the online crowd-sourced HighResNPS database for spectrum comparison screening, thereby broadening its utility to all HR-MS instruments. Method HighResNPS allows formation of a set of consensus fragment ions for a NPS and prioritises among multiple entries of collision-induced fragment ions. A subset of 42 NPS samples was analysed in data-independent acquisition (DIA) and data-dependent acquisition (DDA) modes on two different instruments. HighResNPS-computed spectra were generated with either Absolute (all fragment ions set to 100%) or Fractional (50% intensity reduction of former fragment ion) intensity. The acquired NPS data were analysed using the consensus library with computed ion intensities and evaluated with vendor-neutral screening software. Results Overall, of the 42 samples, 100% were identified, with 88% identified as the top candidate. Three samples had the correct candidate proposed as the second highest ranking NPS. In all three of those samples, the top proposed candidate was a positional isomer or closely related compound. Absolute intensity assignment provided identical scoring between the top two proposed compounds in two samples with DIA. DDA had a slightly higher identification rate in the spectra comparison screening with fractional intensity assignment, but no major differences were observed. Conclusion The fractional intensity assignment was slightly more advantageous than the absolute assignment. It was selective between proposed candidates, showed a high identification rate and had an overall higher fragmentation scoring. The candidates proposed by the HighResNPS library spectra comparison simplify the determination of NPS for researchers and toxicologists. The database provides free monthly updates of consensus spectra, thereby enabling laboratories to stay at the forefront of NPS screening by LC-HR-MS with spectra screening software.</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2460089694</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Scholarly Journals</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Davidsen, Anders;Mardal, Marie;Linnet, Kristian;Petur Weihe Dalsgaard</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> University of Copenhagen</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> © 2020 Davidsen et al. This is an open access article distributed under the terms of the Creative Commons Attribution License: http://creativecommons.org/licenses/by/4.0/ (the “License”), which permits unrestricted use, distribution, and reproduction in any medium, provided the original author and source are credited. Notwithstanding the ProQuest Terms and Conditions, you may use this content in accordance with the terms of the License.</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>10.1371/journal.pone.0242224</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Journal Article</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nov 2020</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Library screening , Designer drug , Psychoactive drug , Drug screening , Computer software , Isomers , Forensic toxicology , Database and informatics methods , Forensics , Immunoassays</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>11</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> San Francisco</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Nov 2020</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>PLoS One</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
         <v>2020</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Davidsen, Anders;Mardal, Marie;Linnet, Kristian;Petur Weihe Dalsgaard</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Introduction The ever-changing market of new psychoactive substances (NPS) poses challenges for laboratories worldwide. Analytical toxicologists are constantly working to keep high-resolution mass spectrometry (HR-MS) screening libraries updated for NPS. This study sought to use the online crowd-sourced HighResNPS database for spectrum comparison screening, thereby broadening its utility to all HR-MS instruments. Method HighResNPS allows formation of a set of consensus fragment ions for a NPS and prioritises among multiple entries of collision-induced fragment ions. A subset of 42 NPS samples was analysed in data-independent acquisition (DIA) and data-dependent acquisition (DDA) modes on two different instruments. HighResNPS-computed spectra were generated with either Absolute (all fragment ions set to 100%) or Fractional (50% intensity reduction of former fragment ion) intensity. The acquired NPS data were analysed using the consensus library with computed ion intensities and evaluated with vendor-neutral screening software. Results Overall, of the 42 samples, 100% were identified, with 88% identified as the top candidate. Three samples had the correct candidate proposed as the second highest ranking NPS. In all three of those samples, the top proposed candidate was a positional isomer or closely related compound. Absolute intensity assignment provided identical scoring between the top two proposed compounds in two samples with DIA. DDA had a slightly higher identification rate in the spectra comparison screening with fractional intensity assignment, but no major differences were observed. Conclusion The fractional intensity assignment was slightly more advantageous than the absolute assignment. It was selective between proposed candidates, showed a high identification rate and had an overall higher fragmentation scoring. The candidates proposed by the HighResNPS library spectra comparison simplify the determination of NPS for researchers and toxicologists. The database provides free monthly updates of consensus spectra, thereby enabling laboratories to stay at the forefront of NPS screening by LC-HR-MS with spectra screening software.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/scholarly-journals/how-perform-spectrum-based-lc-hr-ms-screening/docview/2460089694/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=article&amp;amp;sid=ProQ:ProQ%3Ahealthcompleteshell&amp;amp;atitle=How+to+perform+spectrum-based+LC-HR-MS+screening+for+more+than+1%2C000+NPS+with+HighResNPS+consensus+fragment+ions&amp;amp;title=PLoS+One&amp;amp;issn=&amp;amp;date=2020-11-01&amp;amp;volume=15&amp;amp;issue=11&amp;amp;spage=e0242224&amp;amp;au=Davidsen%2C+Anders%3BMardal%2C+Marie%3BLinnet%2C+Kristian%3BPetur+Weihe+Dalsgaard&amp;amp;isbn=&amp;amp;jtitle=PLoS+One&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/10.1371%2Fjournal.pone.0242224</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Health Research Premium Collection, ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>introduction market new psychoactive substance np pose challenge laboratory worldwide analytical toxicologist constantly working keep mass spectrometry screening library updated np sought use online highresnps database spectrum comparison screening thereby broadening utility instrument highresnps allows formation set consensus fragment ion np prioritises among multiple entry fragment ion subset np sample analysed acquisition dia acquisition dda mode two different instrument spectrum generated either absolute fragment ion set fractional intensity reduction former fragment ion intensity acquired np analysed using consensus library computed ion intensity evaluated screening software result overall sample identified identified top candidate three sample correct candidate proposed second highest ranking np three sample top proposed candidate positional isomer closely related compound absolute intensity assignment provided identical scoring top two proposed compound two sample dia dda slightly higher identification rate spectrum comparison screening fractional intensity assignment major difference observed conclusion fractional intensity assignment slightly advantageous absolute assignment selective proposed candidate showed high identification rate overall higher fragmentation scoring candidate proposed highresnps library spectrum comparison simplify determination np researcher toxicologist database provides free monthly update consensus spectrum thereby enabling laboratory stay forefront np screening spectrum screening software</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>['introduction', 'market', 'new', 'psychoactive', 'substances', 'nps', 'poses', 'challenges', 'laboratories', 'worldwide', 'analytical', 'toxicologists', 'constantly', 'working', 'keep', 'mass', 'spectrometry', 'screening', 'libraries', 'updated', 'nps', 'sought', 'use', 'online', 'highresnps', 'database', 'spectrum', 'comparison', 'screening', 'thereby', 'broadening', 'utility', 'instruments', 'highresnps', 'allows', 'formation', 'set', 'consensus', 'fragment', 'ions', 'nps', 'prioritises', 'among', 'multiple', 'entries', 'fragment', 'ions', 'subset', 'nps', 'samples', 'analysed', 'acquisition', 'dia', 'acquisition', 'dda', 'modes', 'two', 'different', 'instruments', 'spectra', 'generated', 'either', 'absolute', 'fragment', 'ions', 'set', 'fractional', 'intensity', 'reduction', 'former', 'fragment', 'ion', 'intensity', 'acquired', 'nps', 'data', 'analysed', 'using', 'consensus', 'library', 'computed', 'ion', 'intensities', 'evaluated', 'screening', 'software', 'results', 'overall', 'samples', 'identified', 'identified', 'top', 'candidate', 'three', 'samples', 'correct', 'candidate', 'proposed', 'second', 'highest', 'ranking', 'nps', 'three', 'samples', 'top', 'proposed', 'candidate', 'positional', 'isomer', 'closely', 'related', 'compound', 'absolute', 'intensity', 'assignment', 'provided', 'identical', 'scoring', 'top', 'two', 'proposed', 'compounds', 'two', 'samples', 'dia', 'dda', 'slightly', 'higher', 'identification', 'rate', 'spectra', 'comparison', 'screening', 'fractional', 'intensity', 'assignment', 'major', 'differences', 'observed', 'conclusion', 'fractional', 'intensity', 'assignment', 'slightly', 'advantageous', 'absolute', 'assignment', 'selective', 'proposed', 'candidates', 'showed', 'high', 'identification', 'rate', 'overall', 'higher', 'fragmentation', 'scoring', 'candidates', 'proposed', 'highresnps', 'library', 'spectra', 'comparison', 'simplify', 'determination', 'nps', 'researchers', 'toxicologists', 'database', 'provides', 'free', 'monthly', 'updates', 'consensus', 'spectra', 'thereby', 'enabling', 'laboratories', 'stay', 'forefront', 'nps', 'screening', 'spectra', 'screening', 'software']</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Journal Article</t>
+        </is>
+      </c>
+      <c r="AL12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -710,20 +2176,138 @@
           <t>THE DROIDS YOU'RE LOOKING FOR</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Before we could align the supply chain for personal protective equipment or ventilators, we needed to know which hospital would require those supplies based on the spread of the virus. While a standards-based data exchange like the National Information Exchange Model (NIEM), which DOD nominally adopted in 2013, offers a framework for linking data elements across functional domains, it does not provide the structure necessary for a computer to move beyond representation of data and information to modeling knowledge or understanding. In the dystopian tradition, technology is often presented as a menace, as in the "Terminator" series, or HAL from "2001: A Space Odyssey," but there are also more positive AI role models in popular culture, such as C-3PO from "Star Wars" or Tony Stark's "Iron Man" interface, Just A Rather Very Intelligent System (JARVIS). JARVIS embodies many of the capabilities the Army seeks to enable with AI, for example: automatic speech recognition combined with natural language processing, visual entity extraction and automatic target recognition, health monitoring and damage assessment.</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2436895900</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Trade Journals</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Hawkins, Thorn;Lorentzen, Ken</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Netflix Inc</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Copyright Superintendent of Documents Summer 2020</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> General Information</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Summer 2020</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Information model , Data exchange , Human-computer interaction , Artificial intelligence , Looking , Droid</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>1529-8507</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 138-142</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fort Belvoir</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>Summer 2020</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Army AL &amp; T</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
         <v>2020</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Hawkins, Thorn;Lorentzen, Ken</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Before we could align the supply chain for personal protective equipment or ventilators, we needed to know which hospital would require those supplies based on the spread of the virus. While a standards-based data exchange like the National Information Exchange Model (NIEM), which DOD nominally adopted in 2013, offers a framework for linking data elements across functional domains, it does not provide the structure necessary for a computer to move beyond representation of data and information to modeling knowledge or understanding. In the dystopian tradition, technology is often presented as a menace, as in the "Terminator" series, or HAL from "2001: A Space Odyssey," but there are also more positive AI role models in popular culture, such as C-3PO from "Star Wars" or Tony Stark's "Iron Man" interface, Just A Rather Very Intelligent System (JARVIS). JARVIS embodies many of the capabilities the Army seeks to enable with AI, for example: automatic speech recognition combined with natural language processing, visual entity extraction and automatic target recognition, health monitoring and damage assessment.</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/trade-journals/droids-youre-looking/docview/2436895900/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=article&amp;amp;sid=ProQ:ProQ%3Amilitary&amp;amp;atitle=THE+DROIDS+YOU%27RE+LOOKING+FOR&amp;amp;title=Army+AL+%26+T&amp;amp;issn=15298507&amp;amp;date=2020-07-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=138&amp;amp;au=Hawkins%2C+Thorn%3BLorentzen%2C+Ken&amp;amp;isbn=&amp;amp;jtitle=Army+AL+%26+T&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Military Database, ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>could align supply chain personal protective equipment ventilator needed know hospital would require supply based spread virus exchange like national information exchange model niem nominally adopted offer framework linking element across functional domain provide structure necessary computer move beyond representation information modeling knowledge understanding dystopian tradition technology often presented menace terminator series hal space odyssey also positive role model popular culture star war tony stark iron man interface rather intelligent system jarvis jarvis embodies many capability army seek enable example automatic speech recognition combined natural language processing visual entity extraction automatic target recognition health monitoring damage assessment</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>['could', 'align', 'supply', 'chain', 'personal', 'protective', 'equipment', 'ventilators', 'needed', 'know', 'hospital', 'would', 'require', 'supplies', 'based', 'spread', 'virus', 'data', 'exchange', 'like', 'national', 'information', 'exchange', 'model', 'niem', 'nominally', 'adopted', 'offers', 'framework', 'linking', 'data', 'elements', 'across', 'functional', 'domains', 'provide', 'structure', 'necessary', 'computer', 'move', 'beyond', 'representation', 'data', 'information', 'modeling', 'knowledge', 'understanding', 'dystopian', 'tradition', 'technology', 'often', 'presented', 'menace', 'terminator', 'series', 'hal', 'space', 'odyssey', 'also', 'positive', 'role', 'models', 'popular', 'culture', 'star', 'wars', 'tony', 'stark', 'iron', 'man', 'interface', 'rather', 'intelligent', 'system', 'jarvis', 'jarvis', 'embodies', 'many', 'capabilities', 'army', 'seeks', 'enable', 'example', 'automatic', 'speech', 'recognition', 'combined', 'natural', 'language', 'processing', 'visual', 'entity', 'extraction', 'automatic', 'target', 'recognition', 'health', 'monitoring', 'damage', 'assessment']</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>General Information</t>
+        </is>
+      </c>
+      <c r="AL13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -731,20 +2315,150 @@
           <t>Risk Profile of Polish Enterprises in the Media Sector Listed on the Warsaw Stock Exchange</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Risk management currently determines the probability of survival and development of enterpris­es. The main aim of this article is to attempt to map the risk profile of Polish companies in the me­dia sector listed on the Warsaw Stock Exchange (WSE) based on the categorization of risk fac­tors identified by them. Empirical research was carried out on a sample of 15 companies listed on this Stock Exchange. The goal of empirical research was achieved through triangulation of re­search methods and techniques. The main method used in the research procedure was content anal­ysis of source documents of the examined group of enterprises, mainly: annual reports (financial statements, management board reports), capital adequacy reports and other information published mandatory by WSE listed entities. The logical classification method and the comparative method in the closed comparison variant were also used. The main research findings indicate that the risk pro­file of the enterprises studied shows characteristics specific to the media sector that they represent.</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2520827191</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Scholarly Journals</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Bąk, Sylwia</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Warsaw Stock Exchange</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> © 2020. This work is published under https://creativecommons.org/licenses/by-nc-nd/4.0/  (the “License”).  Notwithstanding the ProQuest Terms and Conditions, you may use this content in accordance with the terms of the License.</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>10.4467/23540214ZM.20.046.12650</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Journal Article</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2020-01-23</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2020</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> media sector , Stock exchange , Enterprise , Poland , Stock , Risk management , risk , risk profile , risk management</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2353-5938</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>4</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English , Polish</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 465-478</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Krakow</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Zarzadzanie Mediami = Media Management</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
         <v>2020</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Bąk, Sylwia</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Risk management currently determines the probability of survival and development of enterpris­es. The main aim of this article is to attempt to map the risk profile of Polish companies in the me­dia sector listed on the Warsaw Stock Exchange (WSE) based on the categorization of risk fac­tors identified by them. Empirical research was carried out on a sample of 15 companies listed on this Stock Exchange. The goal of empirical research was achieved through triangulation of re­search methods and techniques. The main method used in the research procedure was content anal­ysis of source documents of the examined group of enterprises, mainly: annual reports (financial statements, management board reports), capital adequacy reports and other information published mandatory by WSE listed entities. The logical classification method and the comparative method in the closed comparison variant were also used. The main research findings indicate that the risk pro­file of the enterprises studied shows characteristics specific to the media sector that they represent.</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/scholarly-journals/risk-profile-polish-enterprises-media-sector/docview/2520827191/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=article&amp;amp;sid=ProQ:ProQ%3Aeastcentraleurope&amp;amp;atitle=Risk+Profile+of+Polish+Enterprises+in+the+Media+Sector+Listed+on+the+Warsaw+Stock+Exchange&amp;amp;title=Zarzadzanie+Mediami+%3D+Media+Management&amp;amp;issn=23535938&amp;amp;date=2020-01-01&amp;amp;volume=8&amp;amp;issue=4&amp;amp;spage=465&amp;amp;au=B%C4%85k%2C+Sylwia&amp;amp;isbn=&amp;amp;jtitle=Zarzadzanie+Mediami+%3D+Media+Management&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/10.4467%2F23540214ZM.20.046.12650</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>risk management currently determines probability survival development main aim article attempt map risk profile polish company sector listed warsaw stock exchange wse based categorization risk identified empirical carried sample company listed stock exchange goal empirical achieved triangulation method technique main used procedure content source document examined group enterprise mainly annual report financial statement management board report capital adequacy report information published mandatory wse listed entity logical classification comparative closed comparison variant also used main finding indicate risk enterprise studied show characteristic specific medium sector represent</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>['risk', 'management', 'currently', 'determines', 'probability', 'survival', 'development', 'main', 'aim', 'article', 'attempt', 'map', 'risk', 'profile', 'polish', 'companies', 'sector', 'listed', 'warsaw', 'stock', 'exchange', 'wse', 'based', 'categorization', 'risk', 'identified', 'empirical', 'carried', 'sample', 'companies', 'listed', 'stock', 'exchange', 'goal', 'empirical', 'achieved', 'triangulation', 'methods', 'techniques', 'main', 'used', 'procedure', 'content', 'source', 'documents', 'examined', 'group', 'enterprises', 'mainly', 'annual', 'reports', 'financial', 'statements', 'management', 'board', 'reports', 'capital', 'adequacy', 'reports', 'information', 'published', 'mandatory', 'wse', 'listed', 'entities', 'logical', 'classification', 'comparative', 'closed', 'comparison', 'variant', 'also', 'used', 'main', 'findings', 'indicate', 'risk', 'enterprises', 'studied', 'shows', 'characteristics', 'specific', 'media', 'sector', 'represent']</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Journal Article</t>
+        </is>
+      </c>
+      <c r="AL14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -752,20 +2466,134 @@
           <t>DEVELOPMENT OF AN EARLY LIFECYCLE CONCEPTUAL CONFIGURATION MANUFACTURABILITY ASSESSMENT METRIC FOR TRADESPACE ANALYTICS</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Systems Engineers conduct tradespace studies for the purpose of determining those preferred product design configurations that can provide enhanced value based on key selected parameters. The results of such analyses can identify those unique configuration sets that potentially provide more desirable value outcomes as defined for the product being evaluated. A significant limitation of most tradespace studies is the lack of consideration of manufacturing related criteria. Such studies may unintentionally infer that all unique design configurations are essentially equal in terms of their manufacturability while manufacturing related costs often vary significantly for different configurations over a products lifecycle. Department of Defense (DoD) sponsored research has resulted in the development of a methodology for calculating a manufacturability value based on subject matter expert (SME) evaluations of conceptual design criteria that can be available for inclusion in the tradespace early in a products lifecycle. This methodology includes the consideration of eight key, fundamental parameters of design, manufacturing operations, and supply chain as they collectively relate in terms of value inherent with a specified conceptual design configuration. The designs perceived manufacturability is calculated as a relative index value in terms of SME assessed risk using a typical risk matrix considering the likelihood and consequence of problematic situational occurrences. Once the SME performed assessments have been concluded, the compiled manufacturability database can subsequently be utilized for enhanced tradespace analytics by program decision makers. The methodology is explained via discussion of a simplified notional aircraft case study.</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2486552525</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Conference Papers &amp; Proceedings</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> US Army Engineer Research and Development Center</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>McCall, Tonya G;Dalton, Larry G, PE;Rinaudo, Christina H;Babin, Paul D, PhDPE;Watson, T Nathan, PE</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Copyright American Society for Engineering Management (ASEM) 2020</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Conference Proceedings</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2020</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Risk assessment , Design for manufacturability , Manufacturability</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1-11</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Huntsville</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Proceedings of the International Annual Conference of the American Society for Engineering Management.</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
         <v>2020</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>McCall, Tonya G;Dalton, Larry G, PE;Rinaudo, Christina H;Babin, Paul D, PhDPE;Watson, T Nathan, PE</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Systems Engineers conduct tradespace studies for the purpose of determining those preferred product design configurations that can provide enhanced value based on key selected parameters. The results of such analyses can identify those unique configuration sets that potentially provide more desirable value outcomes as defined for the product being evaluated. A significant limitation of most tradespace studies is the lack of consideration of manufacturing related criteria. Such studies may unintentionally infer that all unique design configurations are essentially equal in terms of their manufacturability while manufacturing related costs often vary significantly for different configurations over a products lifecycle. Department of Defense (DoD) sponsored research has resulted in the development of a methodology for calculating a manufacturability value based on subject matter expert (SME) evaluations of conceptual design criteria that can be available for inclusion in the tradespace early in a products lifecycle. This methodology includes the consideration of eight key, fundamental parameters of design, manufacturing operations, and supply chain as they collectively relate in terms of value inherent with a specified conceptual design configuration. The designs perceived manufacturability is calculated as a relative index value in terms of SME assessed risk using a typical risk matrix considering the likelihood and consequence of problematic situational occurrences. Once the SME performed assessments have been concluded, the compiled manufacturability database can subsequently be utilized for enhanced tradespace analytics by program decision makers. The methodology is explained via discussion of a simplified notional aircraft case study.</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/conference-papers-proceedings/development-early-lifecycle-conceptual/docview/2486552525/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=proceeding&amp;amp;sid=ProQ:ProQ%3Aabiglobal&amp;amp;atitle=DEVELOPMENT+OF+AN+EARLY+LIFECYCLE+CONCEPTUAL+CONFIGURATION+MANUFACTURABILITY+ASSESSMENT+METRIC+FOR+TRADESPACE+ANALYTICS&amp;amp;title=Proceedings+of+the+International+Annual+Conference+of+the+American+Society+for+Engineering+Management.&amp;amp;issn=&amp;amp;date=2020-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=1&amp;amp;au=McCall%2C+Tonya+G%3BDalton%2C+Larry+G%2C+PE%3BRinaudo%2C+Christina+H%3BBabin%2C+Paul+D%2C+PhDPE%3BWatson%2C+T+Nathan%2C+PE&amp;amp;isbn=&amp;amp;jtitle=Proceedings+of+the+International+Annual+Conference+of+the+American+Society+for+Engineering+Management.&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>system engineer conduct tradespace study purpose determining preferred product design configuration provide enhanced value based key selected parameter result analysis identify unique configuration set potentially provide desirable value outcome defined product evaluated significant limitation tradespace study lack consideration manufacturing related criterion study may unintentionally infer unique design configuration essentially equal term manufacturability manufacturing related cost often vary significantly different configuration product lifecycle sponsored resulted development calculating manufacturability value based subject matter expert sme evaluation conceptual design criterion available inclusion tradespace early product lifecycle includes consideration eight key fundamental parameter design manufacturing operation supply chain collectively relate term value inherent specified conceptual design configuration design perceived manufacturability calculated relative index value term sme assessed risk using typical risk matrix considering likelihood consequence problematic situational occurrence sme performed assessment concluded compiled manufacturability database subsequently utilized enhanced tradespace analytics program decision maker explained via discussion simplified notional aircraft case</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>['systems', 'engineers', 'conduct', 'tradespace', 'studies', 'purpose', 'determining', 'preferred', 'product', 'design', 'configurations', 'provide', 'enhanced', 'value', 'based', 'key', 'selected', 'parameters', 'results', 'analyses', 'identify', 'unique', 'configuration', 'sets', 'potentially', 'provide', 'desirable', 'value', 'outcomes', 'defined', 'product', 'evaluated', 'significant', 'limitation', 'tradespace', 'studies', 'lack', 'consideration', 'manufacturing', 'related', 'criteria', 'studies', 'may', 'unintentionally', 'infer', 'unique', 'design', 'configurations', 'essentially', 'equal', 'terms', 'manufacturability', 'manufacturing', 'related', 'costs', 'often', 'vary', 'significantly', 'different', 'configurations', 'products', 'lifecycle', 'sponsored', 'resulted', 'development', 'calculating', 'manufacturability', 'value', 'based', 'subject', 'matter', 'expert', 'sme', 'evaluations', 'conceptual', 'design', 'criteria', 'available', 'inclusion', 'tradespace', 'early', 'products', 'lifecycle', 'includes', 'consideration', 'eight', 'key', 'fundamental', 'parameters', 'design', 'manufacturing', 'operations', 'supply', 'chain', 'collectively', 'relate', 'terms', 'value', 'inherent', 'specified', 'conceptual', 'design', 'configuration', 'designs', 'perceived', 'manufacturability', 'calculated', 'relative', 'index', 'value', 'terms', 'sme', 'assessed', 'risk', 'using', 'typical', 'risk', 'matrix', 'considering', 'likelihood', 'consequence', 'problematic', 'situational', 'occurrences', 'sme', 'performed', 'assessments', 'concluded', 'compiled', 'manufacturability', 'database', 'subsequently', 'utilized', 'enhanced', 'tradespace', 'analytics', 'program', 'decision', 'makers', 'explained', 'via', 'discussion', 'simplified', 'notional', 'aircraft', 'case']</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Conference Proceedings</t>
+        </is>
+      </c>
+      <c r="AL15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -773,20 +2601,130 @@
           <t>Corrosion Prevention and Control Planning</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Foreword Corrosion costs the United States of America an estimated $451B annually.1 While guidance existed for corrosion prevention and control (CPC) planning, there wasn't a published standard that defined the key elements/composition of CPC planning for all public and private sector users as well as the suppliers of products (all equipment, systems, platforms, vehicles, support equipment and items necessary to perform a specific function or mission including all components of such items) and facilities (all buildings, structures, airfields, port facilities, surface and subterranean utility systems, heating and cooling systems, fuel tanks, pavements and bridges). The standard includes such items as: * Attributes that impact planning for CPC * Considerations for material selection and design to minimize corrosion * Items or topics that should be addressed in corrosion prevention and control planning which affect CPC in design, fabrication and construction, operation and use, and maintenance and sustainability * Characteristics of the key elements of CPC planning * Approaches to CPC assessment This standard was prepared in 2016 and revised in 2020 by Joint Task Group (JTG) 527, Corrosion Prevention and Control Planning Standard, a task group comprised of representatives from SSPC and NACE. Facility-Specific CPC Planning Elements.11 5.1 Planning and Programming.11 5.2 Project Development .11 5.3 Design Considerations for CPC .12 5.4 Construction.12 5.5 Sustainability.12 5.6 Facilities CPC Procedure Example.12 Section 6: CPC Planning Assessment.12 6.1 CPC Planning Key Element Assessment.12 6.2 Overall CPC Planning Effectiveness.13 References.13 Definitions.14 Acronyms.15 Appendix A Support Information for Elements of CPC Planning (Nonmandatory)16 A3.0 General Elements of CPC Planning.16 A3.1 Strategy.16 A3.2 Design.17 A3.3 Management.23 A3.4 Sustainability.27 A3.5 Other Considerations.28 A4.0 Product-Specific CPC Planning Elements.30 A4.1 Supportability.30 A4.2 Product/System Qualification.32 A4.3 Life Extension Strategy.35 A5.0 Facilities-Specific CPC Planning Elements.35 A5.1 Planning and Programming.35 A5.2 Project Development.26 A5.3 Design Considerations for CPC.38 A5.4 Construction.39 A5.5 Sustainability.40 Appendix B Evaluation Methodology for Assessing CPC Planning (Nonmandatory)43 Section B6: CPC Planning Assessment.43 B6.1 CPC Planning Key Element Assessment.43 B6.2 Overall CPC Planning Effectiveness.45 Tables Table 1 Products Checklist.6 Table 2 Facilities Checklist.7 Table A1 Example of How to Accomplish CPC in a Facilities Project.42 Table B1 CPC Strategy Element Assessment.44 Table B2 Template for CPC Element Assessmen45t. General 1.1 Background Corrosion costs the United States an estimated $451B annually;1 and specifically for the Department of Defense (DoD), this cost exceeds $20B annually.2 For the purpose of this standard, the Congressional definition of corrosion cited in Title 10 United States Code (USC) 2228 will be used, which states that "Corrosion is the deterioration of a material or its properties due to a reaction of that material with its chemical environment.</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2461607670</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Standards &amp; Practice Guidelines</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Anonymous</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Society for Protective Coatings , NACE International-The Corrosion Society</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Copyright NACE International 2020</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> General Information</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2020</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1-46</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Houston</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>NACE Standards</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
         <v>2020</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Anonymous</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Foreword Corrosion costs the United States of America an estimated $451B annually.1 While guidance existed for corrosion prevention and control (CPC) planning, there wasn't a published standard that defined the key elements/composition of CPC planning for all public and private sector users as well as the suppliers of products (all equipment, systems, platforms, vehicles, support equipment and items necessary to perform a specific function or mission including all components of such items) and facilities (all buildings, structures, airfields, port facilities, surface and subterranean utility systems, heating and cooling systems, fuel tanks, pavements and bridges). The standard includes such items as: * Attributes that impact planning for CPC * Considerations for material selection and design to minimize corrosion * Items or topics that should be addressed in corrosion prevention and control planning which affect CPC in design, fabrication and construction, operation and use, and maintenance and sustainability * Characteristics of the key elements of CPC planning * Approaches to CPC assessment This standard was prepared in 2016 and revised in 2020 by Joint Task Group (JTG) 527, Corrosion Prevention and Control Planning Standard, a task group comprised of representatives from SSPC and NACE. Facility-Specific CPC Planning Elements.11 5.1 Planning and Programming.11 5.2 Project Development .11 5.3 Design Considerations for CPC .12 5.4 Construction.12 5.5 Sustainability.12 5.6 Facilities CPC Procedure Example.12 Section 6: CPC Planning Assessment.12 6.1 CPC Planning Key Element Assessment.12 6.2 Overall CPC Planning Effectiveness.13 References.13 Definitions.14 Acronyms.15 Appendix A Support Information for Elements of CPC Planning (Nonmandatory)16 A3.0 General Elements of CPC Planning.16 A3.1 Strategy.16 A3.2 Design.17 A3.3 Management.23 A3.4 Sustainability.27 A3.5 Other Considerations.28 A4.0 Product-Specific CPC Planning Elements.30 A4.1 Supportability.30 A4.2 Product/System Qualification.32 A4.3 Life Extension Strategy.35 A5.0 Facilities-Specific CPC Planning Elements.35 A5.1 Planning and Programming.35 A5.2 Project Development.26 A5.3 Design Considerations for CPC.38 A5.4 Construction.39 A5.5 Sustainability.40 Appendix B Evaluation Methodology for Assessing CPC Planning (Nonmandatory)43 Section B6: CPC Planning Assessment.43 B6.1 CPC Planning Key Element Assessment.43 B6.2 Overall CPC Planning Effectiveness.45 Tables Table 1 Products Checklist.6 Table 2 Facilities Checklist.7 Table A1 Example of How to Accomplish CPC in a Facilities Project.42 Table B1 CPC Strategy Element Assessment.44 Table B2 Template for CPC Element Assessmen45t. General 1.1 Background Corrosion costs the United States an estimated $451B annually;1 and specifically for the Department of Defense (DoD), this cost exceeds $20B annually.2 For the purpose of this standard, the Congressional definition of corrosion cited in Title 10 United States Code (USC) 2228 will be used, which states that "Corrosion is the deterioration of a material or its properties due to a reaction of that material with its chemical environment.</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/standards-practice-guidelines/corrosion-prevention-control-planning/docview/2461607670/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=article&amp;amp;sid=ProQ:ProQ%3Amaterialsscijournals&amp;amp;atitle=Corrosion+Prevention+and+Control+Planning&amp;amp;title=NACE+Standards&amp;amp;issn=&amp;amp;date=2020-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=1&amp;amp;au=Anonymous&amp;amp;isbn=&amp;amp;jtitle=NACE+Standards&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>foreword corrosion cost united state america estimated guidance existed corrosion prevention control cpc planning published standard defined key cpc planning public private sector user well supplier product equipment system platform vehicle support equipment item necessary perform specific function mission including component item facility building structure airfield port facility surface subterranean utility system heating cooling system fuel tank pavement bridge standard includes item attribute impact planning cpc consideration material selection design minimize corrosion item topic addressed corrosion prevention control planning affect cpc design fabrication construction operation use maintenance sustainability characteristic key element cpc planning approach cpc assessment standard prepared revised joint task group jtg corrosion prevention control planning standard task group comprised representative sspc nace cpc planning planning project development design consideration cpc facility cpc procedure section cpc planning cpc planning key element overall cpc planning appendix support information element cpc planning nonmandatory general element cpc cpc planning life extension cpc planning planning project design consideration appendix evaluation assessing cpc planning nonmandatory section cpc planning cpc planning key element overall cpc planning table table product table facility table example accomplish cpc facility table cpc strategy element table template cpc element general background corrosion cost united state estimated annually specifically cost exceeds purpose standard congressional definition corrosion cited title united state code usc used state corrosion deterioration material property due reaction material chemical environment</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>['foreword', 'corrosion', 'costs', 'united', 'states', 'america', 'estimated', 'guidance', 'existed', 'corrosion', 'prevention', 'control', 'cpc', 'planning', 'published', 'standard', 'defined', 'key', 'cpc', 'planning', 'public', 'private', 'sector', 'users', 'well', 'suppliers', 'products', 'equipment', 'systems', 'platforms', 'vehicles', 'support', 'equipment', 'items', 'necessary', 'perform', 'specific', 'function', 'mission', 'including', 'components', 'items', 'facilities', 'buildings', 'structures', 'airfields', 'port', 'facilities', 'surface', 'subterranean', 'utility', 'systems', 'heating', 'cooling', 'systems', 'fuel', 'tanks', 'pavements', 'bridges', 'standard', 'includes', 'items', 'attributes', 'impact', 'planning', 'cpc', 'considerations', 'material', 'selection', 'design', 'minimize', 'corrosion', 'items', 'topics', 'addressed', 'corrosion', 'prevention', 'control', 'planning', 'affect', 'cpc', 'design', 'fabrication', 'construction', 'operation', 'use', 'maintenance', 'sustainability', 'characteristics', 'key', 'elements', 'cpc', 'planning', 'approaches', 'cpc', 'assessment', 'standard', 'prepared', 'revised', 'joint', 'task', 'group', 'jtg', 'corrosion', 'prevention', 'control', 'planning', 'standard', 'task', 'group', 'comprised', 'representatives', 'sspc', 'nace', 'cpc', 'planning', 'planning', 'project', 'development', 'design', 'considerations', 'cpc', 'facilities', 'cpc', 'procedure', 'section', 'cpc', 'planning', 'cpc', 'planning', 'key', 'element', 'overall', 'cpc', 'planning', 'appendix', 'support', 'information', 'elements', 'cpc', 'planning', 'nonmandatory', 'general', 'elements', 'cpc', 'cpc', 'planning', 'life', 'extension', 'cpc', 'planning', 'planning', 'project', 'design', 'considerations', 'appendix', 'evaluation', 'assessing', 'cpc', 'planning', 'nonmandatory', 'section', 'cpc', 'planning', 'cpc', 'planning', 'key', 'element', 'overall', 'cpc', 'planning', 'tables', 'table', 'products', 'table', 'facilities', 'table', 'example', 'accomplish', 'cpc', 'facilities', 'table', 'cpc', 'strategy', 'element', 'table', 'template', 'cpc', 'element', 'general', 'background', 'corrosion', 'costs', 'united', 'states', 'estimated', 'annually', 'specifically', 'cost', 'exceeds', 'purpose', 'standard', 'congressional', 'definition', 'corrosion', 'cited', 'title', 'united', 'states', 'code', 'usc', 'used', 'states', 'corrosion', 'deterioration', 'material', 'properties', 'due', 'reaction', 'material', 'chemical', 'environment']</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>General Information</t>
+        </is>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -794,20 +2732,126 @@
           <t>Academic Resilience: Experiences of Latino United States Army Active-Duty Soldiers and Veterans</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>This critical ethnography evaluates Latino male active-duty soldiers' and veterans' experiences in higher education and the military setting through the lens of humanistic, psychosocial, and sociological perspectives with the purpose of finding out how these experiences contribute to their academic resilience. This study aims to answer questions about how internal and external resilience protective factors in the military and academic life contribute to the academic resilience of Latino military students, and evaluates if resilience can be taught in a military context. Through the lens of critical race theory (CRT) and the use of interviews with active-duty soldiers and veterans who attended 4-year institutions, the study looks for counter narratives emerging from their experiences to evaluate the patterns, practices, and policies of racial inequality that still exist in higher education and the U.S. Army that hinder the academic success of Latino military students. A total of 10 themes related to higher education, military life, and Latino culture emerged from the participants' experiences. Through the evaluation of these themes, the study found that being part of the U.S. Army may contribute to a higher level of academic resilience in military students, that resilience may be taught in a military context, and that racial inequality still exists in higher education and the U.S. Army that may hinder the academic success of Latino active-duty soldiers and veterans. In the future, higher education institutions and the U.S. military should collaborate to strengthen the soldiers' support system with the purpose of implementing best practices to help military students succeed academically.</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2423562127</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Irizarry, Lourdes I.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2020</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Academic resilience , Latino students , Military students , Racial inequality , Resilience</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9798662380851</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB17" t="n">
         <v>2020</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Irizarry, Lourdes I.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>This critical ethnography evaluates Latino male active-duty soldiers' and veterans' experiences in higher education and the military setting through the lens of humanistic, psychosocial, and sociological perspectives with the purpose of finding out how these experiences contribute to their academic resilience. This study aims to answer questions about how internal and external resilience protective factors in the military and academic life contribute to the academic resilience of Latino military students, and evaluates if resilience can be taught in a military context. Through the lens of critical race theory (CRT) and the use of interviews with active-duty soldiers and veterans who attended 4-year institutions, the study looks for counter narratives emerging from their experiences to evaluate the patterns, practices, and policies of racial inequality that still exist in higher education and the U.S. Army that hinder the academic success of Latino military students. A total of 10 themes related to higher education, military life, and Latino culture emerged from the participants' experiences. Through the evaluation of these themes, the study found that being part of the U.S. Army may contribute to a higher level of academic resilience in military students, that resilience may be taught in a military context, and that racial inequality still exists in higher education and the U.S. Army that may hinder the academic success of Latino active-duty soldiers and veterans. In the future, higher education institutions and the U.S. military should collaborate to strengthen the soldiers' support system with the purpose of implementing best practices to help military students succeed academically.</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/academic-resilience-experiences-latino-united/docview/2423562127/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Academic+Resilience%3A+Experiences+of+Latino+United+States+Army+Active-Duty+Soldiers+and+Veterans&amp;amp;issn=&amp;amp;date=2020-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Irizarry%2C+Lourdes+I.&amp;amp;isbn=9798662380851&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>critical ethnography evaluates latino male soldier veteran experience higher education setting lens humanistic psychosocial sociological perspective purpose finding experience contribute academic resilience aim answer question internal external resilience protective factor academic life contribute academic resilience latino student evaluates resilience taught context lens critical race theory crt use interview soldier veteran attended institution look counter narrative emerging experience evaluate pattern practice policy racial inequality still exist higher education army hinder academic success latino student total theme related higher education life latino culture emerged participant experience evaluation theme found part army may contribute higher level academic resilience student resilience may taught context racial inequality still exists higher education army may hinder academic success latino soldier veteran future higher education institution collaborate strengthen soldier support system purpose implementing best practice help student succeed academically</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>['critical', 'ethnography', 'evaluates', 'latino', 'male', 'soldiers', 'veterans', 'experiences', 'higher', 'education', 'setting', 'lens', 'humanistic', 'psychosocial', 'sociological', 'perspectives', 'purpose', 'finding', 'experiences', 'contribute', 'academic', 'resilience', 'aims', 'answer', 'questions', 'internal', 'external', 'resilience', 'protective', 'factors', 'academic', 'life', 'contribute', 'academic', 'resilience', 'latino', 'students', 'evaluates', 'resilience', 'taught', 'context', 'lens', 'critical', 'race', 'theory', 'crt', 'use', 'interviews', 'soldiers', 'veterans', 'attended', 'institutions', 'looks', 'counter', 'narratives', 'emerging', 'experiences', 'evaluate', 'patterns', 'practices', 'policies', 'racial', 'inequality', 'still', 'exist', 'higher', 'education', 'army', 'hinder', 'academic', 'success', 'latino', 'students', 'total', 'themes', 'related', 'higher', 'education', 'life', 'latino', 'culture', 'emerged', 'participants', 'experiences', 'evaluation', 'themes', 'found', 'part', 'army', 'may', 'contribute', 'higher', 'level', 'academic', 'resilience', 'students', 'resilience', 'may', 'taught', 'context', 'racial', 'inequality', 'still', 'exists', 'higher', 'education', 'army', 'may', 'hinder', 'academic', 'success', 'latino', 'soldiers', 'veterans', 'future', 'higher', 'education', 'institutions', 'collaborate', 'strengthen', 'soldiers', 'support', 'system', 'purpose', 'implementing', 'best', 'practices', 'help', 'students', 'succeed', 'academically']</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -815,20 +2859,122 @@
           <t>Information Systems Driven to Decision Support and Institutions’ Success in the Higher Education Context Exploring key antecedents through a technology acceptance perspective</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>The main aim of this Ph.D. thesis in Management is to provide better understanding of the role of Information Systems (ISs) in the decision-making process and successful performance of Higher Education Institutions (HEIs), exploring the antecedents of technology acceptance. To achieve the objectives defined, four articles were elaborated: a Systematic Literature Review (SLR) and three articles of an empirical nature. Therefore, the first article aimed to identify, explore and systematize the main topics regarding the role of web portals as tools to support information management in HEIs. Based on 126 articles published up to 5 November 2016 on the Web of Science and SCOPUS databases, four major topics were identified, namely, the software used in web portals, internal and external benefits of using web portals, technology acceptance and information storage and management. The main contribution of this research lies in identifying the main topics and trends in scientific production for each topic identified, and in identifying gaps and future lines of research in this field of study. The second article aimed to study the influence of web portals in supporting HEI management and performance, considering personality traits, perceived usefulness and perceived ease of use, through an empirical study. To achieve the aim proposed, Structural Equation Modelling (SEM) was used together with a structured questionnaire administered to teaching and non-teaching staff in Portuguese HEIs. The results obtained, through 338 valid responses, indicate a positive influence of personality traits on the use of web portals and that their use also has a positive influence on HEIs’ performance. The third chapter sought to identify the factors influencing the use of e-learning platforms in the Portuguese academic context through an empirical study. A structured questionnaire was used to collect information. Based on 631 valid responses, SEM was applied, leading to the conclusion that, in accordance with Innovation Diffusion Theory (IDT), the characteristics of e-learning platforms and Personal Innovativeness in Information Technology (PIIT) have a positive influence on the use of this tool. The fourth and final article aimed to identify and explain the factors of successful operation, implementation and use of e-libraries in the academic context of Portuguese higher education. To achieve this goal, a qualitative approach was adopted, through a case study of the e-library at the University of Beira Interior (UBI). Primary data were obtained from interviews with staff of the library, computer services and administration of this teaching institution holding leadership positions and directly involved in the implementation, maintenance or use of the e-library. The empirical evidence highlights the importance of minimizing costs, particularly by forming cooperation protocols, the use of open-source software and training of UBI library staff. Acceptance and use of the e-library depends on the platform’s characteristics, the ease of access to information, actions to publicise and make the whole academic community aware of the e-library and its functions, and implementation of appealing, intuitive User Interfaces (UIs). In addition, the training of students and library staff was revealed as a relevant factor for acceptance of this tool. For the future, the creation of a functional search aggregator is suggested, to allow a simultaneous search in all the databases and creating the least noise possible. This function could be implemented based on multi-disciplinary teams with skills acquired through specific training. This study was based on Resource-Based View (RBV) and Social Learning Theory (SLT). In this thesis, considering the four studies developed, it was possible to support the influence of IS acceptance on HEIs’ performance and determine the role of ISs in supporting these institutions’ management, in the Portuguese academic context. This research also presents contributions to theory and implications for practice, as well as future lines of study on the topic.</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2593564654</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Pinho, Cláudia Sofia Borges</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2019</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9798480612646</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>PQDT - Global</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
         <v>2019</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Pinho, Cláudia Sofia Borges</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>The main aim of this Ph.D. thesis in Management is to provide better understanding of the role of Information Systems (ISs) in the decision-making process and successful performance of Higher Education Institutions (HEIs), exploring the antecedents of technology acceptance. To achieve the objectives defined, four articles were elaborated: a Systematic Literature Review (SLR) and three articles of an empirical nature. Therefore, the first article aimed to identify, explore and systematize the main topics regarding the role of web portals as tools to support information management in HEIs. Based on 126 articles published up to 5 November 2016 on the Web of Science and SCOPUS databases, four major topics were identified, namely, the software used in web portals, internal and external benefits of using web portals, technology acceptance and information storage and management. The main contribution of this research lies in identifying the main topics and trends in scientific production for each topic identified, and in identifying gaps and future lines of research in this field of study. The second article aimed to study the influence of web portals in supporting HEI management and performance, considering personality traits, perceived usefulness and perceived ease of use, through an empirical study. To achieve the aim proposed, Structural Equation Modelling (SEM) was used together with a structured questionnaire administered to teaching and non-teaching staff in Portuguese HEIs. The results obtained, through 338 valid responses, indicate a positive influence of personality traits on the use of web portals and that their use also has a positive influence on HEIs’ performance. The third chapter sought to identify the factors influencing the use of e-learning platforms in the Portuguese academic context through an empirical study. A structured questionnaire was used to collect information. Based on 631 valid responses, SEM was applied, leading to the conclusion that, in accordance with Innovation Diffusion Theory (IDT), the characteristics of e-learning platforms and Personal Innovativeness in Information Technology (PIIT) have a positive influence on the use of this tool. The fourth and final article aimed to identify and explain the factors of successful operation, implementation and use of e-libraries in the academic context of Portuguese higher education. To achieve this goal, a qualitative approach was adopted, through a case study of the e-library at the University of Beira Interior (UBI). Primary data were obtained from interviews with staff of the library, computer services and administration of this teaching institution holding leadership positions and directly involved in the implementation, maintenance or use of the e-library. The empirical evidence highlights the importance of minimizing costs, particularly by forming cooperation protocols, the use of open-source software and training of UBI library staff. Acceptance and use of the e-library depends on the platform’s characteristics, the ease of access to information, actions to publicise and make the whole academic community aware of the e-library and its functions, and implementation of appealing, intuitive User Interfaces (UIs). In addition, the training of students and library staff was revealed as a relevant factor for acceptance of this tool. For the future, the creation of a functional search aggregator is suggested, to allow a simultaneous search in all the databases and creating the least noise possible. This function could be implemented based on multi-disciplinary teams with skills acquired through specific training. This study was based on Resource-Based View (RBV) and Social Learning Theory (SLT). In this thesis, considering the four studies developed, it was possible to support the influence of IS acceptance on HEIs’ performance and determine the role of ISs in supporting these institutions’ management, in the Portuguese academic context. This research also presents contributions to theory and implications for practice, as well as future lines of study on the topic.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/information-systems-driven-decision-support/docview/2593564654/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Information+Systems+Driven+to+Decision+Support+and+Institutions%E2%80%99+Success+in+the+Higher+Education+Context+Exploring+key+antecedents+through+a+technology+acceptance+perspective&amp;amp;issn=&amp;amp;date=2019-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Pinho%2C+Cl%C3%A1udia+Sofia+Borges&amp;amp;isbn=9798480612646&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>main aim management provide better understanding role information system iss process successful performance higher education institution heis exploring antecedent technology acceptance achieve objective defined four article elaborated systematic literature review slr three article empirical nature therefore first article aimed identify explore systematize main topic regarding role web portal tool support information management heis based article published november web science scopus database four major topic identified namely software used web portal internal external benefit using web portal technology acceptance information storage management main contribution lie identifying main topic trend scientific production topic identified identifying gap future line field second article aimed influence web portal supporting hei management performance considering personality trait perceived usefulness perceived ease use empirical achieve aim proposed structural equation modelling sem used together structured questionnaire administered teaching staff portuguese heis result obtained valid response indicate positive influence personality trait use web portal use also positive influence heis performance third chapter sought identify factor influencing use platform portuguese academic context empirical structured questionnaire used collect information based valid response sem applied leading conclusion accordance innovation diffusion theory idt characteristic platform personal innovativeness information technology piit positive influence use tool fourth final article aimed identify explain factor successful operation implementation use academic context portuguese higher education achieve goal qualitative adopted case beira interior ubi primary obtained interview staff library computer service administration teaching institution holding leadership position directly involved implementation maintenance use empirical evidence highlight importance minimizing cost particularly forming cooperation protocol use software training ubi library staff acceptance use depends platform characteristic ease access information action publicise make whole academic community aware function implementation appealing intuitive user interface uis addition training student library staff revealed relevant factor acceptance tool future creation functional search aggregator suggested allow simultaneous search database creating least noise possible function could implemented based team skill acquired specific training based view rbv social learning theory slt considering four study developed possible support influence acceptance heis performance determine role iss supporting institution management portuguese academic context also present contribution theory implication practice well future line topic</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>['main', 'aim', 'thesis', 'management', 'provide', 'better', 'understanding', 'role', 'information', 'systems', 'iss', 'process', 'successful', 'performance', 'higher', 'education', 'institutions', 'heis', 'exploring', 'antecedents', 'technology', 'acceptance', 'achieve', 'objectives', 'defined', 'four', 'articles', 'elaborated', 'systematic', 'literature', 'review', 'slr', 'three', 'articles', 'empirical', 'nature', 'therefore', 'first', 'article', 'aimed', 'identify', 'explore', 'systematize', 'main', 'topics', 'regarding', 'role', 'web', 'portals', 'tools', 'support', 'information', 'management', 'heis', 'based', 'articles', 'published', 'november', 'web', 'science', 'scopus', 'databases', 'four', 'major', 'topics', 'identified', 'namely', 'software', 'used', 'web', 'portals', 'internal', 'external', 'benefits', 'using', 'web', 'portals', 'technology', 'acceptance', 'information', 'storage', 'management', 'main', 'contribution', 'lies', 'identifying', 'main', 'topics', 'trends', 'scientific', 'production', 'topic', 'identified', 'identifying', 'gaps', 'future', 'lines', 'field', 'second', 'article', 'aimed', 'influence', 'web', 'portals', 'supporting', 'hei', 'management', 'performance', 'considering', 'personality', 'traits', 'perceived', 'usefulness', 'perceived', 'ease', 'use', 'empirical', 'achieve', 'aim', 'proposed', 'structural', 'equation', 'modelling', 'sem', 'used', 'together', 'structured', 'questionnaire', 'administered', 'teaching', 'staff', 'portuguese', 'heis', 'results', 'obtained', 'valid', 'responses', 'indicate', 'positive', 'influence', 'personality', 'traits', 'use', 'web', 'portals', 'use', 'also', 'positive', 'influence', 'heis', 'performance', 'third', 'chapter', 'sought', 'identify', 'factors', 'influencing', 'use', 'platforms', 'portuguese', 'academic', 'context', 'empirical', 'structured', 'questionnaire', 'used', 'collect', 'information', 'based', 'valid', 'responses', 'sem', 'applied', 'leading', 'conclusion', 'accordance', 'innovation', 'diffusion', 'theory', 'idt', 'characteristics', 'platforms', 'personal', 'innovativeness', 'information', 'technology', 'piit', 'positive', 'influence', 'use', 'tool', 'fourth', 'final', 'article', 'aimed', 'identify', 'explain', 'factors', 'successful', 'operation', 'implementation', 'use', 'academic', 'context', 'portuguese', 'higher', 'education', 'achieve', 'goal', 'qualitative', 'adopted', 'case', 'university', 'beira', 'interior', 'ubi', 'primary', 'data', 'obtained', 'interviews', 'staff', 'library', 'computer', 'services', 'administration', 'teaching', 'institution', 'holding', 'leadership', 'positions', 'directly', 'involved', 'implementation', 'maintenance', 'use', 'empirical', 'evidence', 'highlights', 'importance', 'minimizing', 'costs', 'particularly', 'forming', 'cooperation', 'protocols', 'use', 'software', 'training', 'ubi', 'library', 'staff', 'acceptance', 'use', 'depends', 'platform', 'characteristics', 'ease', 'access', 'information', 'actions', 'publicise', 'make', 'whole', 'academic', 'community', 'aware', 'functions', 'implementation', 'appealing', 'intuitive', 'user', 'interfaces', 'uis', 'addition', 'training', 'students', 'library', 'staff', 'revealed', 'relevant', 'factor', 'acceptance', 'tool', 'future', 'creation', 'functional', 'search', 'aggregator', 'suggested', 'allow', 'simultaneous', 'search', 'databases', 'creating', 'least', 'noise', 'possible', 'function', 'could', 'implemented', 'based', 'teams', 'skills', 'acquired', 'specific', 'training', 'based', 'view', 'rbv', 'social', 'learning', 'theory', 'slt', 'thesis', 'considering', 'four', 'studies', 'developed', 'possible', 'support', 'influence', 'acceptance', 'heis', 'performance', 'determine', 'role', 'iss', 'supporting', 'institutions', 'management', 'portuguese', 'academic', 'context', 'also', 'presents', 'contributions', 'theory', 'implications', 'practice', 'well', 'future', 'lines', 'topic']</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -836,20 +2982,126 @@
           <t>An Exploration of the Influence Afloat Maintenance has on the 21st Century Naval Sailor's Reenlistment Decision</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Although the U.S. Navy has schools that enable boot camp graduates to complete the Sailorization process and transforms them into active-duty service members, life skills training that focuses on developing resiliency and toughness in new accessions and preparing them for the rigors and demands of service in afloat naval commands does not exist. Similarly, during periods of lengthy maintenance for afloat naval commands sailors’ ability to perform their tasks in the scope of their trained occupational specialty is challenged. Maintenance availability periods are a vulnerable time for first-term enlisted sailors, and their mentorship and development must become a command's priority if the goal is to retain trained personnel. This mixed methods study analyzed first-term enlisted sailor retention for ashore and afloat commands and emphasized the effect periods of constant maintenance had on retention. The second phase of research included analysis of interview transcripts for sailors and ombudsman in Mayport and Norfolk, eliciting feedback that may stimulate recognition from military policymakers. Findings show that afloat command maintenance availabilities greater than 180 consecutive days negatively impact retention and surprisingly, retention for first-term enlisted sailors assigned to afloat commands yielded higher retention than ashore commands. A textual analysis of the challenges identified by sailors added depth to the quantitative findings and prompted the creation of a design model focused on restructuring educational systems supporting A-school as well as job training efforts to develop tough sailors who are resilient and prepared for service in a dynamic afloat command environment.</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2217169942</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Wijnaldum, Kathryn Sampson</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2019</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Education , A-school , Attrition , Maintenance , Reenlistment , Sailor , U.s. navy</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 978-1-392-07634-7</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB19" t="n">
         <v>2019</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Wijnaldum, Kathryn Sampson</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Although the U.S. Navy has schools that enable boot camp graduates to complete the Sailorization process and transforms them into active-duty service members, life skills training that focuses on developing resiliency and toughness in new accessions and preparing them for the rigors and demands of service in afloat naval commands does not exist. Similarly, during periods of lengthy maintenance for afloat naval commands sailors’ ability to perform their tasks in the scope of their trained occupational specialty is challenged. Maintenance availability periods are a vulnerable time for first-term enlisted sailors, and their mentorship and development must become a command's priority if the goal is to retain trained personnel. This mixed methods study analyzed first-term enlisted sailor retention for ashore and afloat commands and emphasized the effect periods of constant maintenance had on retention. The second phase of research included analysis of interview transcripts for sailors and ombudsman in Mayport and Norfolk, eliciting feedback that may stimulate recognition from military policymakers. Findings show that afloat command maintenance availabilities greater than 180 consecutive days negatively impact retention and surprisingly, retention for first-term enlisted sailors assigned to afloat commands yielded higher retention than ashore commands. A textual analysis of the challenges identified by sailors added depth to the quantitative findings and prompted the creation of a design model focused on restructuring educational systems supporting A-school as well as job training efforts to develop tough sailors who are resilient and prepared for service in a dynamic afloat command environment.</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/exploration-influence-afloat-maintenance-has-on/docview/2217169942/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=An+Exploration+of+the+Influence+Afloat+Maintenance+has+on+the+21st+Century+Naval+Sailor%27s+Reenlistment+Decision&amp;amp;issn=&amp;amp;date=2019-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Wijnaldum%2C+Kathryn+Sampson&amp;amp;isbn=978-1-392-07634-7&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>although navy school enable boot camp graduate complete sailorization process transforms service member life skill training focus developing resiliency toughness new accession preparing rigor demand service afloat naval command exist similarly period lengthy maintenance afloat naval command sailor ability perform task scope trained occupational specialty challenged maintenance availability period vulnerable time enlisted sailor mentorship development must become command priority goal retain trained personnel mixed method analyzed enlisted sailor retention ashore afloat command emphasized effect period constant maintenance retention second phase included interview transcript sailor ombudsman mayport norfolk eliciting feedback may stimulate recognition policymakers finding show afloat command maintenance availability greater consecutive day negatively impact retention surprisingly retention enlisted sailor assigned afloat command yielded higher retention ashore command textual challenge identified sailor added depth quantitative finding prompted creation design model focused restructuring educational system supporting well job training effort develop tough sailor resilient prepared service dynamic afloat command environment</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>['although', 'navy', 'schools', 'enable', 'boot', 'camp', 'graduates', 'complete', 'sailorization', 'process', 'transforms', 'service', 'members', 'life', 'skills', 'training', 'focuses', 'developing', 'resiliency', 'toughness', 'new', 'accessions', 'preparing', 'rigors', 'demands', 'service', 'afloat', 'naval', 'commands', 'exist', 'similarly', 'periods', 'lengthy', 'maintenance', 'afloat', 'naval', 'commands', 'sailors', 'ability', 'perform', 'tasks', 'scope', 'trained', 'occupational', 'specialty', 'challenged', 'maintenance', 'availability', 'periods', 'vulnerable', 'time', 'enlisted', 'sailors', 'mentorship', 'development', 'must', 'become', 'command', 'priority', 'goal', 'retain', 'trained', 'personnel', 'mixed', 'methods', 'analyzed', 'enlisted', 'sailor', 'retention', 'ashore', 'afloat', 'commands', 'emphasized', 'effect', 'periods', 'constant', 'maintenance', 'retention', 'second', 'phase', 'included', 'interview', 'transcripts', 'sailors', 'ombudsman', 'mayport', 'norfolk', 'eliciting', 'feedback', 'may', 'stimulate', 'recognition', 'policymakers', 'findings', 'show', 'afloat', 'command', 'maintenance', 'availabilities', 'greater', 'consecutive', 'days', 'negatively', 'impact', 'retention', 'surprisingly', 'retention', 'enlisted', 'sailors', 'assigned', 'afloat', 'commands', 'yielded', 'higher', 'retention', 'ashore', 'commands', 'textual', 'challenges', 'identified', 'sailors', 'added', 'depth', 'quantitative', 'findings', 'prompted', 'creation', 'design', 'model', 'focused', 'restructuring', 'educational', 'systems', 'supporting', 'well', 'job', 'training', 'efforts', 'develop', 'tough', 'sailors', 'resilient', 'prepared', 'service', 'dynamic', 'afloat', 'command', 'environment']</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -857,20 +3109,142 @@
           <t>Using Actual Results to Actually Improve Acquisition</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cost overruns are bad for the Department of Defense (DoD). They cause stress, uncertainty, lost opportunity cost, bad publicity, and reduced capability in the war-fighters' hands. Over the last decade, something new and good has happened in DoD acquisition, which needs to be noted and reinforced. This new development has led to measurable improvement in the control of cost and schedule of major acquisition programs across the DoD, and it is important we understand its role. Here, Shimel discusses the progress being made.</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2181689292</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Trade Journals</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Shimel, Brian</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Department of Defense</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Copyright American Society of Military Comptrollers Fall 2018</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Feature</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fall 2018</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dynamic programming , Cost overrun , Cost accounting , Acquisition , Cost-effectiveness analysis</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0004-2188</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>4</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 37-40</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alexandria</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Fall 2018</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>The Armed Forces Comptroller</t>
+        </is>
+      </c>
+      <c r="AB20" t="n">
         <v>2018</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Shimel, Brian</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Cost overruns are bad for the Department of Defense (DoD). They cause stress, uncertainty, lost opportunity cost, bad publicity, and reduced capability in the war-fighters' hands. Over the last decade, something new and good has happened in DoD acquisition, which needs to be noted and reinforced. This new development has led to measurable improvement in the control of cost and schedule of major acquisition programs across the DoD, and it is important we understand its role. Here, Shimel discusses the progress being made.</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="n">
+        <v>63</v>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/trade-journals/using-actual-results-actually-improve-acquisition/docview/2181689292/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=article&amp;amp;sid=ProQ:ProQ%3Aaccounting&amp;amp;atitle=Using+Actual+Results+to+Actually+Improve+Acquisition&amp;amp;title=The+Armed+Forces+Comptroller&amp;amp;issn=00042188&amp;amp;date=2018-10-01&amp;amp;volume=63&amp;amp;issue=4&amp;amp;spage=37&amp;amp;au=Shimel%2C+Brian&amp;amp;isbn=&amp;amp;jtitle=The+Armed+Forces+Comptroller&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Military Database, ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>cost overrun bad cause stress uncertainty lost opportunity cost bad publicity reduced capability hand last decade something new good happened acquisition need noted reinforced new development led measurable improvement control cost schedule major acquisition program across important understand role shimel discusses progress made</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>['cost', 'overruns', 'bad', 'cause', 'stress', 'uncertainty', 'lost', 'opportunity', 'cost', 'bad', 'publicity', 'reduced', 'capability', 'hands', 'last', 'decade', 'something', 'new', 'good', 'happened', 'acquisition', 'needs', 'noted', 'reinforced', 'new', 'development', 'led', 'measurable', 'improvement', 'control', 'cost', 'schedule', 'major', 'acquisition', 'programs', 'across', 'important', 'understand', 'role', 'shimel', 'discusses', 'progress', 'made']</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="AL20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -878,20 +3252,130 @@
           <t>Analysis of Fashion E-Commerce Data to Promote Process Strategical Improvements</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Digital commerce is one of the most addressed topics in luxury businesses. The innovation of this sector can and must be a path to obtain high profits. Farfetch, which is currently a worldwide success, was created upon the realization of the rising interest and fascination regarding electronic commerce. Nowadays, with an increasing competitive market in this sector, it becomes essential to adopt strategies to value companies in relation to their competitors. In the case of large companies, which are responsible for a huge amount of data, it is interesting to convert these in useful knowledge to the business and adopt strategies to improve processes.The present dissertation was developed in the centre of digital production of an online luxury sale company. After data analysis referring to previous years, it was observed that stock times between the different phases of the process were too expensive, that the computer systems had defects with impact on cycle times and that there was a high variability regarding the productivity of collaborators. The focus of this dissertation was thus to perform a more detailed analysis of all the processes and to suggest strategical improvements of the latter. Two different studies were performed to achieve such. One focused on understanding how the cycle time of the station with higher impact on the process fluctuated, and how it could be reduced. The second aimed to reuse the high stock time to perform activities in parallel, that although obligatory, can be executed at any stage of the process. Using a multivariate linear regression in the first study, it was understood that adding a new item with a different category to a same slot increases the cycle time of the station in 2.960 minutes, while adding an extra item increases it in 2.899 minutes. It was suggested that the items started to be organized by categories and not by lot, so that each work post would produce two different categories at most. This would necessarily create the need for a triage station to reorganize the items by slot again, and allow them to proceed to the boutiques. The second study allowed to realise that the stations’ stock times can be used to enter the information of the items at the company’s software, therefore reducing the process time of the items up until 13%. One of the already existing stations would then have to be divided in two new ones: one that could be executed at any time of the process and another that would necessarily have to be performed after the items’ shooting.</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3086163420</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;html&gt;&lt;head&gt;&lt;meta name='ValidationSchema' content='http://www.w3.org/2002/08/xhtml/xhtml1-strict.xsd'/&gt;&lt;title&gt;&lt;/title&gt;&lt;/head&gt;&lt;body&gt;Análise de Dados de uma Empresa de Comércio Eletrónico de Moda para Promover Melhorias Estratégicas Nos Processos&lt;/body&gt;&lt;/html&gt;</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Ferreira, Marta Melo Coelho</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2018</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9798383446881</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;html&gt;&lt;head&gt;&lt;meta name='ValidationSchema' content='http://www.w3.org/2002/08/xhtml/xhtml1-strict.xsd'/&gt;&lt;title&gt;&lt;/title&gt;&lt;/head&gt;&lt;body&gt;Análise de Dados de uma Empresa de Comércio Eletrónico de Moda para Promover Melhorias Estratégicas Nos Processos&lt;/body&gt;&lt;/html&gt;</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>PQDT - Global</t>
+        </is>
+      </c>
+      <c r="AB21" t="n">
         <v>2018</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Ferreira, Marta Melo Coelho</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Digital commerce is one of the most addressed topics in luxury businesses. The innovation of this sector can and must be a path to obtain high profits. Farfetch, which is currently a worldwide success, was created upon the realization of the rising interest and fascination regarding electronic commerce. Nowadays, with an increasing competitive market in this sector, it becomes essential to adopt strategies to value companies in relation to their competitors. In the case of large companies, which are responsible for a huge amount of data, it is interesting to convert these in useful knowledge to the business and adopt strategies to improve processes.The present dissertation was developed in the centre of digital production of an online luxury sale company. After data analysis referring to previous years, it was observed that stock times between the different phases of the process were too expensive, that the computer systems had defects with impact on cycle times and that there was a high variability regarding the productivity of collaborators. The focus of this dissertation was thus to perform a more detailed analysis of all the processes and to suggest strategical improvements of the latter. Two different studies were performed to achieve such. One focused on understanding how the cycle time of the station with higher impact on the process fluctuated, and how it could be reduced. The second aimed to reuse the high stock time to perform activities in parallel, that although obligatory, can be executed at any stage of the process. Using a multivariate linear regression in the first study, it was understood that adding a new item with a different category to a same slot increases the cycle time of the station in 2.960 minutes, while adding an extra item increases it in 2.899 minutes. It was suggested that the items started to be organized by categories and not by lot, so that each work post would produce two different categories at most. This would necessarily create the need for a triage station to reorganize the items by slot again, and allow them to proceed to the boutiques. The second study allowed to realise that the stations’ stock times can be used to enter the information of the items at the company’s software, therefore reducing the process time of the items up until 13%. One of the already existing stations would then have to be divided in two new ones: one that could be executed at any time of the process and another that would necessarily have to be performed after the items’ shooting.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/analysis-fashion-e-commerce-data-promote-process/docview/3086163420/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Analysis+of+Fashion+E-Commerce+Data+to+Promote+Process+Strategical+Improvements&amp;amp;issn=&amp;amp;date=2018-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Ferreira%2C+Marta+Melo+Coelho&amp;amp;isbn=9798383446881&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>digital commerce one addressed topic luxury business innovation sector must path obtain high profit farfetch currently worldwide success created upon realization rising interest fascination regarding electronic commerce nowadays increasing competitive market sector becomes essential adopt strategy value company relation competitor case large company responsible huge amount interesting convert useful knowledge business adopt strategy improve present developed centre digital production online luxury sale company referring previous year observed stock time different phase process expensive computer system defect impact cycle time high variability regarding productivity collaborator focus thus perform detailed process suggest strategical improvement latter two different study performed achieve one focused understanding cycle time station higher impact process fluctuated could reduced second aimed reuse high stock time perform activity parallel although obligatory executed stage process using multivariate linear regression first understood adding new item different category slot increase cycle time station minute adding extra item increase minute suggested item started organized category lot work post would produce two different category would necessarily create need triage station reorganize item slot allow proceed boutique second allowed realise station stock time used enter information item company software therefore reducing process time item one already existing station would divided two new one one could executed time process another would necessarily performed item shooting</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>['digital', 'commerce', 'one', 'addressed', 'topics', 'luxury', 'businesses', 'innovation', 'sector', 'must', 'path', 'obtain', 'high', 'profits', 'farfetch', 'currently', 'worldwide', 'success', 'created', 'upon', 'realization', 'rising', 'interest', 'fascination', 'regarding', 'electronic', 'commerce', 'nowadays', 'increasing', 'competitive', 'market', 'sector', 'becomes', 'essential', 'adopt', 'strategies', 'value', 'companies', 'relation', 'competitors', 'case', 'large', 'companies', 'responsible', 'huge', 'amount', 'data', 'interesting', 'convert', 'useful', 'knowledge', 'business', 'adopt', 'strategies', 'improve', 'present', 'dissertation', 'developed', 'centre', 'digital', 'production', 'online', 'luxury', 'sale', 'company', 'data', 'referring', 'previous', 'years', 'observed', 'stock', 'times', 'different', 'phases', 'process', 'expensive', 'computer', 'systems', 'defects', 'impact', 'cycle', 'times', 'high', 'variability', 'regarding', 'productivity', 'collaborators', 'focus', 'dissertation', 'thus', 'perform', 'detailed', 'processes', 'suggest', 'strategical', 'improvements', 'latter', 'two', 'different', 'studies', 'performed', 'achieve', 'one', 'focused', 'understanding', 'cycle', 'time', 'station', 'higher', 'impact', 'process', 'fluctuated', 'could', 'reduced', 'second', 'aimed', 'reuse', 'high', 'stock', 'time', 'perform', 'activities', 'parallel', 'although', 'obligatory', 'executed', 'stage', 'process', 'using', 'multivariate', 'linear', 'regression', 'first', 'understood', 'adding', 'new', 'item', 'different', 'category', 'slot', 'increases', 'cycle', 'time', 'station', 'minutes', 'adding', 'extra', 'item', 'increases', 'minutes', 'suggested', 'items', 'started', 'organized', 'categories', 'lot', 'work', 'post', 'would', 'produce', 'two', 'different', 'categories', 'would', 'necessarily', 'create', 'need', 'triage', 'station', 'reorganize', 'items', 'slot', 'allow', 'proceed', 'boutiques', 'second', 'allowed', 'realise', 'stations', 'stock', 'times', 'used', 'enter', 'information', 'items', 'company', 'software', 'therefore', 'reducing', 'process', 'time', 'items', 'one', 'already', 'existing', 'stations', 'would', 'divided', 'two', 'new', 'ones', 'one', 'could', 'executed', 'time', 'process', 'another', 'would', 'necessarily', 'performed', 'items', 'shooting']</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -899,20 +3383,122 @@
           <t>Process Modeling for Sales Management: Critical Analysis and Improvement Through Information Management Technologies</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nowadays with the emergence of new technologies, the evolution of the environments and the empowerment of the customers, it is crucial to find new strategies, structures and ways to improve the performance, reduce costs, increase profit and improve customer satisfaction and experience. The solution passes by the adoption of Business Process Management by sales organizations that desire to be efficient and competitive in their marketplaces. It is known that it is vital to understand, implement, document, update and improve processes, more specifically, the sales processes. The main goal of this dissertation is to perform a critical analysis of the current sales management processes through the identification of their limitations and propose an improvement by modeling new sales processes and sub-processes as well to present the benefits that will arise from this change. To achieve this goal, it will be proposed new technologies and approaches like artificial intelligence, robotic process automation, Internet of Things, among others, that allows companies to generate what they want in terms of return on investment and drive up their efficiency levels. At the end of this dissertation is intended to provide a holistic view of the sales management process and help companies to use a new mechanism to plan and allocate resources and to have a clear governance structure based on continuous learning and improvement.</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3059337204</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Bastos, Carla Sofia Silva</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2018</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9798382352589</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>PQDT - Global</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
         <v>2018</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Bastos, Carla Sofia Silva</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Nowadays with the emergence of new technologies, the evolution of the environments and the empowerment of the customers, it is crucial to find new strategies, structures and ways to improve the performance, reduce costs, increase profit and improve customer satisfaction and experience. The solution passes by the adoption of Business Process Management by sales organizations that desire to be efficient and competitive in their marketplaces. It is known that it is vital to understand, implement, document, update and improve processes, more specifically, the sales processes. The main goal of this dissertation is to perform a critical analysis of the current sales management processes through the identification of their limitations and propose an improvement by modeling new sales processes and sub-processes as well to present the benefits that will arise from this change. To achieve this goal, it will be proposed new technologies and approaches like artificial intelligence, robotic process automation, Internet of Things, among others, that allows companies to generate what they want in terms of return on investment and drive up their efficiency levels. At the end of this dissertation is intended to provide a holistic view of the sales management process and help companies to use a new mechanism to plan and allocate resources and to have a clear governance structure based on continuous learning and improvement.</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/process-modeling-sales-management-critical/docview/3059337204/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Process+Modeling+for+Sales+Management%3A+Critical+Analysis+and+Improvement+Through+Information+Management+Technologies&amp;amp;issn=&amp;amp;date=2018-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Bastos%2C+Carla+Sofia+Silva&amp;amp;isbn=9798382352589&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>nowadays emergence new technology evolution environment empowerment customer crucial find new strategy structure way improve performance reduce cost increase profit improve customer satisfaction experience solution pass adoption business process management sale organization desire efficient competitive marketplace known vital understand implement document update improve process specifically sale process main goal perform critical current sale management process identification limitation propose improvement modeling new sale process well present benefit arise change achieve goal proposed new technology approach like artificial intelligence robotic process automation internet thing among others allows company generate want term return investment drive efficiency level end intended provide holistic view sale management process help company use new mechanism plan allocate resource clear governance structure based continuous learning improvement</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>['nowadays', 'emergence', 'new', 'technologies', 'evolution', 'environments', 'empowerment', 'customers', 'crucial', 'find', 'new', 'strategies', 'structures', 'ways', 'improve', 'performance', 'reduce', 'costs', 'increase', 'profit', 'improve', 'customer', 'satisfaction', 'experience', 'solution', 'passes', 'adoption', 'business', 'process', 'management', 'sales', 'organizations', 'desire', 'efficient', 'competitive', 'marketplaces', 'known', 'vital', 'understand', 'implement', 'document', 'update', 'improve', 'processes', 'specifically', 'sales', 'processes', 'main', 'goal', 'dissertation', 'perform', 'critical', 'current', 'sales', 'management', 'processes', 'identification', 'limitations', 'propose', 'improvement', 'modeling', 'new', 'sales', 'processes', 'well', 'present', 'benefits', 'arise', 'change', 'achieve', 'goal', 'proposed', 'new', 'technologies', 'approaches', 'like', 'artificial', 'intelligence', 'robotic', 'process', 'automation', 'internet', 'things', 'among', 'others', 'allows', 'companies', 'generate', 'want', 'terms', 'return', 'investment', 'drive', 'efficiency', 'levels', 'end', 'dissertation', 'intended', 'provide', 'holistic', 'view', 'sales', 'management', 'process', 'help', 'companies', 'use', 'new', 'mechanism', 'plan', 'allocate', 'resources', 'clear', 'governance', 'structure', 'based', 'continuous', 'learning', 'improvement']</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -920,20 +3506,126 @@
           <t>The Role of Professional Development and Certification in Technology Worker Turnover: An Evaluation Study</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Companies invest resources on employee training with the hope that it adds value, sustainability, and profitability to the organization. There is risk in losing skilled workers when individual or organizational influences are undiagnosed, which makes talent management a critical part of a company’s strategy to increase an employee's organizational commitment. Currently, there is a lack of assessment data on turnover intention and organizational commitment of Technology Workers after receiving advanced training and this study examined the Knowledge, Motivation, and Organizational (KMO) influences affecting retention rates. A quantitative research study was conducted with 169 Technology Workers employed by a Department of Defense contracting company and used regression analysis to evaluate the interaction of 13 KMO based independent variables with an increased desire to turnover. The findings confirmed an assumption that completing professional development training or industry specific certification within the last year does influence a Technology Worker's desire to voluntarily turnover. Additionally, organizational commitment was heavily influenced by employee perceptions that they can pursue internal career advancement opportunities, the loyalty they have to the company for how it treats them, and the promises kept by an organization regarding pay raises, assignments, and promotions. Recommendations for improving practices and an implementation plan were provided to assist with organizational change efforts and addresses specific knowledge, motivation, and organizational influences that may be affecting retention efforts.</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2182812164</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Puckett, Stephen P.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2018</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (UMI)AAI11017087 , Social sciences</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9798662413320</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB23" t="n">
         <v>2018</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Puckett, Stephen P.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Companies invest resources on employee training with the hope that it adds value, sustainability, and profitability to the organization. There is risk in losing skilled workers when individual or organizational influences are undiagnosed, which makes talent management a critical part of a company’s strategy to increase an employee's organizational commitment. Currently, there is a lack of assessment data on turnover intention and organizational commitment of Technology Workers after receiving advanced training and this study examined the Knowledge, Motivation, and Organizational (KMO) influences affecting retention rates. A quantitative research study was conducted with 169 Technology Workers employed by a Department of Defense contracting company and used regression analysis to evaluate the interaction of 13 KMO based independent variables with an increased desire to turnover. The findings confirmed an assumption that completing professional development training or industry specific certification within the last year does influence a Technology Worker's desire to voluntarily turnover. Additionally, organizational commitment was heavily influenced by employee perceptions that they can pursue internal career advancement opportunities, the loyalty they have to the company for how it treats them, and the promises kept by an organization regarding pay raises, assignments, and promotions. Recommendations for improving practices and an implementation plan were provided to assist with organizational change efforts and addresses specific knowledge, motivation, and organizational influences that may be affecting retention efforts.</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/role-professional-development-certification/docview/2182812164/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=The+Role+of+Professional+Development+and+Certification+in+Technology+Worker+Turnover%3A+An+Evaluation+Study&amp;amp;issn=&amp;amp;date=2018-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Puckett%2C+Stephen+P.&amp;amp;isbn=9798662413320&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>company invest resource employee training hope add value sustainability profitability organization risk losing skilled worker individual organizational influence undiagnosed make talent management critical part company strategy increase employee organizational commitment currently lack assessment turnover intention organizational commitment technology worker receiving advanced training examined knowledge motivation organizational kmo influence affecting retention rate quantitative conducted technology worker employed contracting company used regression evaluate interaction kmo based independent variable increased desire turnover finding confirmed assumption completing professional development training industry specific certification within last year influence technology worker desire voluntarily turnover additionally organizational commitment heavily influenced employee perception pursue internal career advancement opportunity loyalty company treat promise kept organization regarding pay raise assignment promotion recommendation improving practice implementation plan provided assist organizational change effort address specific knowledge motivation organizational influence may affecting retention effort</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>['companies', 'invest', 'resources', 'employee', 'training', 'hope', 'adds', 'value', 'sustainability', 'profitability', 'organization', 'risk', 'losing', 'skilled', 'workers', 'individual', 'organizational', 'influences', 'undiagnosed', 'makes', 'talent', 'management', 'critical', 'part', 'company', 'strategy', 'increase', 'employee', 'organizational', 'commitment', 'currently', 'lack', 'assessment', 'data', 'turnover', 'intention', 'organizational', 'commitment', 'technology', 'workers', 'receiving', 'advanced', 'training', 'examined', 'knowledge', 'motivation', 'organizational', 'kmo', 'influences', 'affecting', 'retention', 'rates', 'quantitative', 'conducted', 'technology', 'workers', 'employed', 'contracting', 'company', 'used', 'regression', 'evaluate', 'interaction', 'kmo', 'based', 'independent', 'variables', 'increased', 'desire', 'turnover', 'findings', 'confirmed', 'assumption', 'completing', 'professional', 'development', 'training', 'industry', 'specific', 'certification', 'within', 'last', 'year', 'influence', 'technology', 'worker', 'desire', 'voluntarily', 'turnover', 'additionally', 'organizational', 'commitment', 'heavily', 'influenced', 'employee', 'perceptions', 'pursue', 'internal', 'career', 'advancement', 'opportunities', 'loyalty', 'company', 'treats', 'promises', 'kept', 'organization', 'regarding', 'pay', 'raises', 'assignments', 'promotions', 'recommendations', 'improving', 'practices', 'implementation', 'plan', 'provided', 'assist', 'organizational', 'change', 'efforts', 'addresses', 'specific', 'knowledge', 'motivation', 'organizational', 'influences', 'may', 'affecting', 'retention', 'efforts']</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -941,20 +3633,126 @@
           <t>A Qualitative Case Study in Professional Information Assurance Workforce Practices Demonstrated Through the Department of Defense</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>The Department of Defense (DoD), like most very large organizations rightly have concerns over the functionality of their Cybersecurity employees and their ability to perform core duties in a professional manner. To validate this ability, the DoD imposed a mandatory certifications policy based upon positions within the organization. The DoD concept demonstrated one possible path in an effort to reduce cybersecurity incidents over the past 13 years, but the outcome has yet to quantitatively demonstrate an increase in workforce capabilities, a reduction in risk, or a return on investment for all of the mandatory training, certifications, recertifications, continuing professional education (CPE) hours, maintenance costs, temporary duty costs, or the loss of productivity during the process. This qualitative case study, explores eleven senior individuals to provide a single voice of workforce and first-line manager perceptions of the DoD mandate over a decade after the initial inception. The purpose of the study was not to generate theory based upon data and provide phenomenon, but to provide understanding to social environments within a large organization. The use of a single business case and open coding format allowed the research to gain granularity and lead to a better understanding in an original setting. The participants were all specifically chosen, because of their affiliation with the DoD as military members, DoD civilians, or DoD contractors. Each person was vetted to validate their legitimacy and availability for participation. The individuals answered a series questions in relationship to the three primary questions on validity of certifications, the risk rating of the organization, and the return on investment perceived by the individual. The workforce demonstrated a belief that gained knowledge through experience was greater than the other areas, but closely followed by certifications. None of the participants showed knowledge of a discernible change in the risk rating for the organization. No one provided specific insight into the return on investment for the DoD or individual organizations that make up the DoD. This study should be expanded to include a greater number and variety of participants and should be conducted by the DoD internally as a component of FISMA reporting.</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2050026795</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Hodge, Timothy D.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2018</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Applied sciences , Education , Cybersecurity education , Cybersecurity leadership , Dodd 8140 , Dodd 8570.01m , IA certifications , IT certifications</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 978-0-355-98960-1</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB24" t="n">
         <v>2018</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Hodge, Timothy D.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>The Department of Defense (DoD), like most very large organizations rightly have concerns over the functionality of their Cybersecurity employees and their ability to perform core duties in a professional manner. To validate this ability, the DoD imposed a mandatory certifications policy based upon positions within the organization. The DoD concept demonstrated one possible path in an effort to reduce cybersecurity incidents over the past 13 years, but the outcome has yet to quantitatively demonstrate an increase in workforce capabilities, a reduction in risk, or a return on investment for all of the mandatory training, certifications, recertifications, continuing professional education (CPE) hours, maintenance costs, temporary duty costs, or the loss of productivity during the process. This qualitative case study, explores eleven senior individuals to provide a single voice of workforce and first-line manager perceptions of the DoD mandate over a decade after the initial inception. The purpose of the study was not to generate theory based upon data and provide phenomenon, but to provide understanding to social environments within a large organization. The use of a single business case and open coding format allowed the research to gain granularity and lead to a better understanding in an original setting. The participants were all specifically chosen, because of their affiliation with the DoD as military members, DoD civilians, or DoD contractors. Each person was vetted to validate their legitimacy and availability for participation. The individuals answered a series questions in relationship to the three primary questions on validity of certifications, the risk rating of the organization, and the return on investment perceived by the individual. The workforce demonstrated a belief that gained knowledge through experience was greater than the other areas, but closely followed by certifications. None of the participants showed knowledge of a discernible change in the risk rating for the organization. No one provided specific insight into the return on investment for the DoD or individual organizations that make up the DoD. This study should be expanded to include a greater number and variety of participants and should be conducted by the DoD internally as a component of FISMA reporting.</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/qualitative-case-study-professional-information/docview/2050026795/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=A+Qualitative+Case+Study+in+Professional+Information+Assurance+Workforce+Practices+Demonstrated+Through+the+Department+of+Defense&amp;amp;issn=&amp;amp;date=2018-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Hodge%2C+Timothy+D.&amp;amp;isbn=978-0-355-98960-1&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>like large organization rightly concern functionality cybersecurity employee ability perform core duty professional manner validate ability imposed mandatory certification policy based upon position within organization concept demonstrated one possible path effort reduce cybersecurity incident past year outcome yet quantitatively demonstrate increase workforce capability reduction risk return investment mandatory training certification recertifications continuing professional education cpe hour maintenance cost temporary duty cost loss productivity process qualitative case explores eleven senior individual provide single voice workforce manager perception mandate decade initial inception purpose generate theory based upon provide phenomenon provide understanding social environment within large organization use single business case open coding format allowed gain granularity lead better understanding original setting participant specifically chosen affiliation member civilian contractor person vetted validate legitimacy availability participation individual answered series question relationship three primary question validity certification risk rating organization return investment perceived individual workforce demonstrated belief gained knowledge experience greater area closely followed certification none participant showed knowledge discernible change risk rating organization one provided specific insight return investment individual organization make expanded include greater number variety participant conducted internally component fisma reporting</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>['like', 'large', 'organizations', 'rightly', 'concerns', 'functionality', 'cybersecurity', 'employees', 'ability', 'perform', 'core', 'duties', 'professional', 'manner', 'validate', 'ability', 'imposed', 'mandatory', 'certifications', 'policy', 'based', 'upon', 'positions', 'within', 'organization', 'concept', 'demonstrated', 'one', 'possible', 'path', 'effort', 'reduce', 'cybersecurity', 'incidents', 'past', 'years', 'outcome', 'yet', 'quantitatively', 'demonstrate', 'increase', 'workforce', 'capabilities', 'reduction', 'risk', 'return', 'investment', 'mandatory', 'training', 'certifications', 'recertifications', 'continuing', 'professional', 'education', 'cpe', 'hours', 'maintenance', 'costs', 'temporary', 'duty', 'costs', 'loss', 'productivity', 'process', 'qualitative', 'case', 'explores', 'eleven', 'senior', 'individuals', 'provide', 'single', 'voice', 'workforce', 'manager', 'perceptions', 'mandate', 'decade', 'initial', 'inception', 'purpose', 'generate', 'theory', 'based', 'upon', 'data', 'provide', 'phenomenon', 'provide', 'understanding', 'social', 'environments', 'within', 'large', 'organization', 'use', 'single', 'business', 'case', 'open', 'coding', 'format', 'allowed', 'gain', 'granularity', 'lead', 'better', 'understanding', 'original', 'setting', 'participants', 'specifically', 'chosen', 'affiliation', 'members', 'civilians', 'contractors', 'person', 'vetted', 'validate', 'legitimacy', 'availability', 'participation', 'individuals', 'answered', 'series', 'questions', 'relationship', 'three', 'primary', 'questions', 'validity', 'certifications', 'risk', 'rating', 'organization', 'return', 'investment', 'perceived', 'individual', 'workforce', 'demonstrated', 'belief', 'gained', 'knowledge', 'experience', 'greater', 'areas', 'closely', 'followed', 'certifications', 'none', 'participants', 'showed', 'knowledge', 'discernible', 'change', 'risk', 'rating', 'organization', 'one', 'provided', 'specific', 'insight', 'return', 'investment', 'individual', 'organizations', 'make', 'expanded', 'include', 'greater', 'number', 'variety', 'participants', 'conducted', 'internally', 'component', 'fisma', 'reporting']</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -962,20 +3760,126 @@
           <t>Exploring the Influence of Design Thinking on the Decision Making of Army Leaders</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Military operations conducted in an asymmetric environment challenges the creative and critical thinking skills of Army leaders. An objective exploration of the influence of design thinking within Army doctrine was clearly appropriate to assess the level of influence experienced by Army leaders as they employed design thinking doctrine during problem solving and decision making activities. The United States Army introduced the concept of design thinking into their doctrine at the Command and General Staff College (CGSC) as a means of educating officers in how to apply critical and creative thinking techniques to solve complex ill-structured problems. The nature of conflict around the world has shifted toward an asymmetric environment as the enemy employs terrorist tactics as a means to further their political or ideological agenda. The U.S. Army responded to this shift in environments by adapting the design thinking concept within their doctrine entitled Army Design Methodology. The fundamental pretext of design thinking better prepares Army leaders by improving their abilities to apply creative and critical thinking skills as they conduct military operations in the ever-changing environment. The purpose of this generic qualitative research was to explore perceptions of how design thinking influenced Army commanders or their staff during problem solving and decision-making efforts in support of military operations. A selection of graduates from the Army School of Advanced Military Studies served as the target population for this survey. This qualitative research study evaluated their perceptions of how Army Design Methodology influenced their abilities to engage in problem solving and decision-making. The finding in this research study indicate Army Design Methodology enjoys a significant level of influence, and was applied to solve large problems and was employed predominantly at the division level and above. Challenges occurred as confusion existed when applying Army Design Methodology on simple problems or applied incorrectly. Resistance to the use of Army Design Methodology appeared to have been influenced in some measure by existing Army culture. Conclusions of this research indicate the implementation of an information campaign, which consists of both training and education is appropriate to institutionalize a better understanding of Army Design Methodology.</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1868501434</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Kitzhaber, Gerry L.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2016</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Social sciences , Army design methodology , Decision making , Design thinking</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 978-1-369-50951-9</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB25" t="n">
         <v>2016</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Kitzhaber, Gerry L.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Military operations conducted in an asymmetric environment challenges the creative and critical thinking skills of Army leaders. An objective exploration of the influence of design thinking within Army doctrine was clearly appropriate to assess the level of influence experienced by Army leaders as they employed design thinking doctrine during problem solving and decision making activities. The United States Army introduced the concept of design thinking into their doctrine at the Command and General Staff College (CGSC) as a means of educating officers in how to apply critical and creative thinking techniques to solve complex ill-structured problems. The nature of conflict around the world has shifted toward an asymmetric environment as the enemy employs terrorist tactics as a means to further their political or ideological agenda. The U.S. Army responded to this shift in environments by adapting the design thinking concept within their doctrine entitled Army Design Methodology. The fundamental pretext of design thinking better prepares Army leaders by improving their abilities to apply creative and critical thinking skills as they conduct military operations in the ever-changing environment. The purpose of this generic qualitative research was to explore perceptions of how design thinking influenced Army commanders or their staff during problem solving and decision-making efforts in support of military operations. A selection of graduates from the Army School of Advanced Military Studies served as the target population for this survey. This qualitative research study evaluated their perceptions of how Army Design Methodology influenced their abilities to engage in problem solving and decision-making. The finding in this research study indicate Army Design Methodology enjoys a significant level of influence, and was applied to solve large problems and was employed predominantly at the division level and above. Challenges occurred as confusion existed when applying Army Design Methodology on simple problems or applied incorrectly. Resistance to the use of Army Design Methodology appeared to have been influenced in some measure by existing Army culture. Conclusions of this research indicate the implementation of an information campaign, which consists of both training and education is appropriate to institutionalize a better understanding of Army Design Methodology.</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/exploring-influence-design-thinking-on-decision/docview/1868501434/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Exploring+the+Influence+of+Design+Thinking+on+the+Decision+Making+of+Army+Leaders&amp;amp;issn=&amp;amp;date=2016-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Kitzhaber%2C+Gerry+L.&amp;amp;isbn=978-1-369-50951-9&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Military Database, ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>operation conducted asymmetric environment challenge creative critical thinking skill army leader objective exploration influence design thinking within army doctrine clearly appropriate assess level influence experienced army leader employed design thinking doctrine problem solving decision making activity united state army introduced concept design thinking doctrine command general staff college cgsc mean educating officer apply critical creative thinking technique solve complex problem nature conflict around world shifted toward asymmetric environment enemy employ terrorist tactic mean political ideological agenda army responded shift environment adapting design thinking concept within doctrine entitled army design fundamental pretext design thinking better prepares army leader improving ability apply creative critical thinking skill conduct operation environment purpose generic qualitative explore perception design thinking influenced army commander staff problem solving effort support operation selection graduate army school advanced study served target population survey qualitative evaluated perception army design influenced ability engage problem solving finding indicate army design enjoys significant level influence applied solve large problem employed predominantly division level challenge occurred confusion existed applying army design simple problem applied incorrectly resistance use army design appeared influenced measure existing army culture conclusion indicate implementation information campaign consists training education appropriate institutionalize better understanding army design</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>['operations', 'conducted', 'asymmetric', 'environment', 'challenges', 'creative', 'critical', 'thinking', 'skills', 'army', 'leaders', 'objective', 'exploration', 'influence', 'design', 'thinking', 'within', 'army', 'doctrine', 'clearly', 'appropriate', 'assess', 'level', 'influence', 'experienced', 'army', 'leaders', 'employed', 'design', 'thinking', 'doctrine', 'problem', 'solving', 'decision', 'making', 'activities', 'united', 'states', 'army', 'introduced', 'concept', 'design', 'thinking', 'doctrine', 'command', 'general', 'staff', 'college', 'cgsc', 'means', 'educating', 'officers', 'apply', 'critical', 'creative', 'thinking', 'techniques', 'solve', 'complex', 'problems', 'nature', 'conflict', 'around', 'world', 'shifted', 'toward', 'asymmetric', 'environment', 'enemy', 'employs', 'terrorist', 'tactics', 'means', 'political', 'ideological', 'agenda', 'army', 'responded', 'shift', 'environments', 'adapting', 'design', 'thinking', 'concept', 'within', 'doctrine', 'entitled', 'army', 'design', 'fundamental', 'pretext', 'design', 'thinking', 'better', 'prepares', 'army', 'leaders', 'improving', 'abilities', 'apply', 'creative', 'critical', 'thinking', 'skills', 'conduct', 'operations', 'environment', 'purpose', 'generic', 'qualitative', 'explore', 'perceptions', 'design', 'thinking', 'influenced', 'army', 'commanders', 'staff', 'problem', 'solving', 'efforts', 'support', 'operations', 'selection', 'graduates', 'army', 'school', 'advanced', 'studies', 'served', 'target', 'population', 'survey', 'qualitative', 'evaluated', 'perceptions', 'army', 'design', 'influenced', 'abilities', 'engage', 'problem', 'solving', 'finding', 'indicate', 'army', 'design', 'enjoys', 'significant', 'level', 'influence', 'applied', 'solve', 'large', 'problems', 'employed', 'predominantly', 'division', 'level', 'challenges', 'occurred', 'confusion', 'existed', 'applying', 'army', 'design', 'simple', 'problems', 'applied', 'incorrectly', 'resistance', 'use', 'army', 'design', 'appeared', 'influenced', 'measure', 'existing', 'army', 'culture', 'conclusions', 'indicate', 'implementation', 'information', 'campaign', 'consists', 'training', 'education', 'appropriate', 'institutionalize', 'better', 'understanding', 'army', 'design']</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -983,20 +3887,142 @@
           <t>ACHIEVEMENTS</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Lockheed Martin's Dual Mode Laser Guided Bomb (DMLGB) was successfully employed during recent U.S. Marine Corps weapons and tactics instructor training. During the training exercises at Marine Corps Air Station Yuma in Ariz., AV-8B Harrier aircrews released 19 GBU12F/B DMLGB weapons. The weapons were released in tactically representative engagements and used various targeting modes against fixed targets. All weapons performed successfully and met Marine Corps mission objectives.</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1614633101</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Trade Journals</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Walsh, Barbara</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MJIEEF</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Copyright Horizon House Publications, Inc. Oct 2014</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> General Information</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oct 2014</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Marines , Achievement</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0192-6225</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>10</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 54,56</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dedham</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Oct 2014</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>Microwave Journal</t>
+        </is>
+      </c>
+      <c r="AB26" t="n">
         <v>2014</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Walsh, Barbara</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Lockheed Martin's Dual Mode Laser Guided Bomb (DMLGB) was successfully employed during recent U.S. Marine Corps weapons and tactics instructor training. During the training exercises at Marine Corps Air Station Yuma in Ariz., AV-8B Harrier aircrews released 19 GBU12F/B DMLGB weapons. The weapons were released in tactically representative engagements and used various targeting modes against fixed targets. All weapons performed successfully and met Marine Corps mission objectives.</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="n">
+        <v>57</v>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/trade-journals/achievements/docview/1614633101/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=article&amp;amp;sid=ProQ:ProQ%3Atelecomms&amp;amp;atitle=ACHIEVEMENTS&amp;amp;title=Microwave+Journal&amp;amp;issn=01926225&amp;amp;date=2014-10-01&amp;amp;volume=57&amp;amp;issue=10&amp;amp;spage=54&amp;amp;au=Walsh%2C+Barbara&amp;amp;isbn=&amp;amp;jtitle=Microwave+Journal&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>lockheed martin dual mode laser guided bomb dmlgb successfully employed recent marine corp weapon tactic instructor training training exercise marine corp air station yuma harrier aircrew released dmlgb weapon weapon released tactically representative engagement used various targeting mode fixed target weapon performed successfully met marine corp mission objective</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>['lockheed', 'martin', 'dual', 'mode', 'laser', 'guided', 'bomb', 'dmlgb', 'successfully', 'employed', 'recent', 'marine', 'corps', 'weapons', 'tactics', 'instructor', 'training', 'training', 'exercises', 'marine', 'corps', 'air', 'station', 'yuma', 'harrier', 'aircrews', 'released', 'dmlgb', 'weapons', 'weapons', 'released', 'tactically', 'representative', 'engagements', 'used', 'various', 'targeting', 'modes', 'fixed', 'targets', 'weapons', 'performed', 'successfully', 'met', 'marine', 'corps', 'mission', 'objectives']</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>General Information</t>
+        </is>
+      </c>
+      <c r="AL26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1004,20 +4030,126 @@
           <t>Triazine-mediated disruption of BLTK1 Leydig cell steroidogenesis</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Triazines are broad spectrum herbicides implicated in the etiology of testicular dysgenesis eliciting perturbations of gonad development and reproductive function. In rodents triazines alter the onset of puberty, cause reproductive senescence, and disrupt reproductive tract development including dysregulation of androgen-dependent tissue development. Disruption of testosterone biosynthesis is thought to underlie the effects of triazines in males across vertebrate species. However, the current approaches used to identify developmental and reproductive toxicants involve in vivo studies evaluating apical endpoints that are generally descriptive and do not contribute to the elucidation of mechanism of action. As such, the mechanism by which triazines disrupt steroidogenesis remains unknown. The objectives of this study were to establish a model for the evaluation of triazines effects on steroidogenesis that is amenable to mechanism determination and to identify a possible mode of action for triazine-elicited disruption of steroidogenesis. BLTK1 Leydig cells were characterized and demonstrated to be a viable in vitro model for the evaluation of endocrine disruptor-mediated effects on steroidogenesis. BLTK1 cells express all necessary steroidogenic enzymes essential for hormone biosynthesis and maintain low basal levels of testosterone (T) production, inducible by recombinant human chorionic gonadotropin (rhCG) and forskolin (FSK). The time- and concentration-dependent effects of triazine herbicides, atrazine (ATR), propazine (PRO), simazine (SIM) and terbuthylazine (TBA), and their chlorometabolites, desethylatrazine (DEA), desisopropylatrazine (DIA) and diamino- s -chlorotriazine (DACT), were evaluated in BLTK1 Leydig cells. Triazines and their chlorometabolites induced concentration-dependent increases in basal progesterone (P) and T levels. Triazines also elicited the differential gene expression of several steroidogenic enzymes required for steroidogenesis. These results were consistent with the cumulative risk assessment "Common Mechanism Group" designation that PRO, SIM, DEA, DIA and DACT have ATR-like effects. Using ATR as the representative triazine, whole-genome microarrays identified differential gene expression at later time points (&amp;gt; 12 hr) with affected genes associated with steroidogenesis and cholesterol metabolism. Finally, the effects of ATR on rhCG-mediated induction of steroidogenesis revealed antagonism of P and T levels, despite potentiation of intracellular cAMP levels. The inhibition of cAMP-specific phosphodiesterases was identified as underlying increases in cAMP levels. However, the ATR-mediated super-induction of cAMP levels was not causative of T antagonism in the presence of rhCG. Disruption of phosphorylation cascades likely contribute to ATR-mediated effects on steroidogenesis, with observed effects on protein kinase A (PKA) target proteins. This study has established BLTK1 cells as a novel in vitro steroidogenic model for the evaluation of endocrine disrupting chemicals and the evaluation of triazines in BLTK1 cells has expanded our knowledge of triazine-mediated disruption of steroidogenesis.</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1431534062</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Forgacs, Agnes</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2013</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pure sciences , Biological sciences , Health and environmental sciences , Atrazine , Leydig , Steroidogenesis , Testosterone , Triazine</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 978-1-303-29800-4</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB27" t="n">
         <v>2013</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Forgacs, Agnes</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Triazines are broad spectrum herbicides implicated in the etiology of testicular dysgenesis eliciting perturbations of gonad development and reproductive function. In rodents triazines alter the onset of puberty, cause reproductive senescence, and disrupt reproductive tract development including dysregulation of androgen-dependent tissue development. Disruption of testosterone biosynthesis is thought to underlie the effects of triazines in males across vertebrate species. However, the current approaches used to identify developmental and reproductive toxicants involve in vivo studies evaluating apical endpoints that are generally descriptive and do not contribute to the elucidation of mechanism of action. As such, the mechanism by which triazines disrupt steroidogenesis remains unknown. The objectives of this study were to establish a model for the evaluation of triazines effects on steroidogenesis that is amenable to mechanism determination and to identify a possible mode of action for triazine-elicited disruption of steroidogenesis. BLTK1 Leydig cells were characterized and demonstrated to be a viable in vitro model for the evaluation of endocrine disruptor-mediated effects on steroidogenesis. BLTK1 cells express all necessary steroidogenic enzymes essential for hormone biosynthesis and maintain low basal levels of testosterone (T) production, inducible by recombinant human chorionic gonadotropin (rhCG) and forskolin (FSK). The time- and concentration-dependent effects of triazine herbicides, atrazine (ATR), propazine (PRO), simazine (SIM) and terbuthylazine (TBA), and their chlorometabolites, desethylatrazine (DEA), desisopropylatrazine (DIA) and diamino- s -chlorotriazine (DACT), were evaluated in BLTK1 Leydig cells. Triazines and their chlorometabolites induced concentration-dependent increases in basal progesterone (P) and T levels. Triazines also elicited the differential gene expression of several steroidogenic enzymes required for steroidogenesis. These results were consistent with the cumulative risk assessment "Common Mechanism Group" designation that PRO, SIM, DEA, DIA and DACT have ATR-like effects. Using ATR as the representative triazine, whole-genome microarrays identified differential gene expression at later time points (&amp;gt; 12 hr) with affected genes associated with steroidogenesis and cholesterol metabolism. Finally, the effects of ATR on rhCG-mediated induction of steroidogenesis revealed antagonism of P and T levels, despite potentiation of intracellular cAMP levels. The inhibition of cAMP-specific phosphodiesterases was identified as underlying increases in cAMP levels. However, the ATR-mediated super-induction of cAMP levels was not causative of T antagonism in the presence of rhCG. Disruption of phosphorylation cascades likely contribute to ATR-mediated effects on steroidogenesis, with observed effects on protein kinase A (PKA) target proteins. This study has established BLTK1 cells as a novel in vitro steroidogenic model for the evaluation of endocrine disrupting chemicals and the evaluation of triazines in BLTK1 cells has expanded our knowledge of triazine-mediated disruption of steroidogenesis.</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/triazine-mediated-disruption-bltk1-leydig-cell/docview/1431534062/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Triazine-mediated+disruption+of+BLTK1+Leydig+cell+steroidogenesis&amp;amp;issn=&amp;amp;date=2013-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Forgacs%2C+Agnes&amp;amp;isbn=978-1-303-29800-4&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>triazine broad spectrum herbicide implicated etiology testicular dysgenesis eliciting perturbation gonad development reproductive function rodent triazine alter onset puberty cause reproductive senescence disrupt reproductive tract development including dysregulation tissue development disruption testosterone biosynthesis thought underlie effect triazine male across vertebrate specie however current approach used identify developmental reproductive toxicant involve vivo study evaluating apical endpoint generally descriptive contribute elucidation mechanism action mechanism triazine disrupt steroidogenesis remains unknown objective establish model evaluation triazine effect steroidogenesis amenable mechanism determination identify possible mode action disruption steroidogenesis leydig cell characterized demonstrated viable vitro model evaluation endocrine effect steroidogenesis cell express necessary steroidogenic enzyme essential hormone biosynthesis maintain low basal level testosterone production inducible recombinant human chorionic gonadotropin rhcg forskolin fsk effect triazine herbicide atrazine atr propazine pro simazine sim terbuthylazine tba chlorometabolites desethylatrazine dea desisopropylatrazine dia dact evaluated leydig cell triazine chlorometabolites induced increase basal progesterone level triazine also elicited differential gene expression several steroidogenic enzyme required steroidogenesis result consistent cumulative risk assessment common mechanism group designation pro sim dea dia dact effect using atr representative triazine microarrays identified differential gene expression later time point affected gene associated steroidogenesis cholesterol metabolism finally effect atr induction steroidogenesis revealed antagonism level despite potentiation intracellular camp level inhibition phosphodiesterases identified underlying increase camp level however camp level causative antagonism presence rhcg disruption phosphorylation cascade likely contribute effect steroidogenesis observed effect protein kinase pka target protein established cell novel vitro steroidogenic model evaluation endocrine disrupting chemical evaluation triazine cell expanded knowledge disruption steroidogenesis</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>['triazines', 'broad', 'spectrum', 'herbicides', 'implicated', 'etiology', 'testicular', 'dysgenesis', 'eliciting', 'perturbations', 'gonad', 'development', 'reproductive', 'function', 'rodents', 'triazines', 'alter', 'onset', 'puberty', 'cause', 'reproductive', 'senescence', 'disrupt', 'reproductive', 'tract', 'development', 'including', 'dysregulation', 'tissue', 'development', 'disruption', 'testosterone', 'biosynthesis', 'thought', 'underlie', 'effects', 'triazines', 'males', 'across', 'vertebrate', 'species', 'however', 'current', 'approaches', 'used', 'identify', 'developmental', 'reproductive', 'toxicants', 'involve', 'vivo', 'studies', 'evaluating', 'apical', 'endpoints', 'generally', 'descriptive', 'contribute', 'elucidation', 'mechanism', 'action', 'mechanism', 'triazines', 'disrupt', 'steroidogenesis', 'remains', 'unknown', 'objectives', 'establish', 'model', 'evaluation', 'triazines', 'effects', 'steroidogenesis', 'amenable', 'mechanism', 'determination', 'identify', 'possible', 'mode', 'action', 'disruption', 'steroidogenesis', 'leydig', 'cells', 'characterized', 'demonstrated', 'viable', 'vitro', 'model', 'evaluation', 'endocrine', 'effects', 'steroidogenesis', 'cells', 'express', 'necessary', 'steroidogenic', 'enzymes', 'essential', 'hormone', 'biosynthesis', 'maintain', 'low', 'basal', 'levels', 'testosterone', 'production', 'inducible', 'recombinant', 'human', 'chorionic', 'gonadotropin', 'rhcg', 'forskolin', 'fsk', 'effects', 'triazine', 'herbicides', 'atrazine', 'atr', 'propazine', 'pro', 'simazine', 'sim', 'terbuthylazine', 'tba', 'chlorometabolites', 'desethylatrazine', 'dea', 'desisopropylatrazine', 'dia', 'dact', 'evaluated', 'leydig', 'cells', 'triazines', 'chlorometabolites', 'induced', 'increases', 'basal', 'progesterone', 'levels', 'triazines', 'also', 'elicited', 'differential', 'gene', 'expression', 'several', 'steroidogenic', 'enzymes', 'required', 'steroidogenesis', 'results', 'consistent', 'cumulative', 'risk', 'assessment', 'common', 'mechanism', 'group', 'designation', 'pro', 'sim', 'dea', 'dia', 'dact', 'effects', 'using', 'atr', 'representative', 'triazine', 'microarrays', 'identified', 'differential', 'gene', 'expression', 'later', 'time', 'points', 'affected', 'genes', 'associated', 'steroidogenesis', 'cholesterol', 'metabolism', 'finally', 'effects', 'atr', 'induction', 'steroidogenesis', 'revealed', 'antagonism', 'levels', 'despite', 'potentiation', 'intracellular', 'camp', 'levels', 'inhibition', 'phosphodiesterases', 'identified', 'underlying', 'increases', 'camp', 'levels', 'however', 'camp', 'levels', 'causative', 'antagonism', 'presence', 'rhcg', 'disruption', 'phosphorylation', 'cascades', 'likely', 'contribute', 'effects', 'steroidogenesis', 'observed', 'effects', 'protein', 'kinase', 'pka', 'target', 'proteins', 'established', 'cells', 'novel', 'vitro', 'steroidogenic', 'model', 'evaluation', 'endocrine', 'disrupting', 'chemicals', 'evaluation', 'triazines', 'cells', 'expanded', 'knowledge', 'disruption', 'steroidogenesis']</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1025,20 +4157,126 @@
           <t>Lean principles and defense information technology acquisition: An investigation of the determinants of successful application</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>The purpose of this study was to investigate whether or not there have been successful applications of lean manufacturing principles in highly variable defense IT environments. Specifically, the study assessed if implementation of the lean philosophies by a defense organization yielded repeatable, predictable results in software release schedules reductions. Additionally, the study set out to determine what potential critical success factors (CSF's) were documented in the secondary data captured for each release, and extracted the variables used in the decision making for acceptability of fielding. In evaluating lean applicability to the high variability environment of USAF IT acquisitions, the research was conducted using non-experimental quantitative methods of archival secondary data. The sample for this case study was compiled from a USAF office that had implemented these techniques in pre-development, development and testing, and fielding phases. Based on the research data, acquisitionists and lean practitioners are inherently interconnected. Therefore, an understanding that critical success factors (CSFs) are integral to successful lean application in DoD IT acquisitions is crucial. Through a combination of synergistic alignments, plyometric CSFs were discovered to maximize the effects of each single CSF to produce rapid results in defense IT acquisitions. These include: (1) Enterprise Incorporation, (2) Team Trust, (3) Transformational Leadership, (4) Recursive Improvement, (5) Integrated Synergy, (6) Customer-Centric Culture and (7) Heuristic Communication.</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1367178418</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Haley, M.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2013</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Social sciences , Applied sciences , Acquisitions , Critical success factors , Defense , Information technology , Lean , Process improvement</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 978-1-303-08558-1</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB28" t="n">
         <v>2013</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Haley, M.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>The purpose of this study was to investigate whether or not there have been successful applications of lean manufacturing principles in highly variable defense IT environments. Specifically, the study assessed if implementation of the lean philosophies by a defense organization yielded repeatable, predictable results in software release schedules reductions. Additionally, the study set out to determine what potential critical success factors (CSF's) were documented in the secondary data captured for each release, and extracted the variables used in the decision making for acceptability of fielding. In evaluating lean applicability to the high variability environment of USAF IT acquisitions, the research was conducted using non-experimental quantitative methods of archival secondary data. The sample for this case study was compiled from a USAF office that had implemented these techniques in pre-development, development and testing, and fielding phases. Based on the research data, acquisitionists and lean practitioners are inherently interconnected. Therefore, an understanding that critical success factors (CSFs) are integral to successful lean application in DoD IT acquisitions is crucial. Through a combination of synergistic alignments, plyometric CSFs were discovered to maximize the effects of each single CSF to produce rapid results in defense IT acquisitions. These include: (1) Enterprise Incorporation, (2) Team Trust, (3) Transformational Leadership, (4) Recursive Improvement, (5) Integrated Synergy, (6) Customer-Centric Culture and (7) Heuristic Communication.</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/lean-principles-defense-information-technology/docview/1367178418/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Lean+principles+and+defense+information+technology+acquisition%3A+An+investigation+of+the+determinants+of+successful+application&amp;amp;issn=&amp;amp;date=2013-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Haley%2C+M.&amp;amp;isbn=978-1-303-08558-1&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>purpose investigate whether successful application lean manufacturing principle highly variable environment specifically assessed implementation lean philosophy organization yielded repeatable predictable result software release schedule reduction additionally set determine potential critical success factor csf documented secondary captured release extracted variable used decision making acceptability fielding evaluating lean applicability high variability environment usaf acquisition conducted using quantitative method archival secondary sample case compiled usaf office implemented technique development testing fielding phase based acquisitionists lean practitioner inherently interconnected therefore understanding critical success factor csfs integral successful lean application acquisition crucial combination synergistic alignment plyometric csfs discovered maximize effect single csf produce rapid result acquisition include enterprise incorporation team trust transformational leadership recursive improvement integrated synergy culture heuristic communication</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>['purpose', 'investigate', 'whether', 'successful', 'applications', 'lean', 'manufacturing', 'principles', 'highly', 'variable', 'environments', 'specifically', 'assessed', 'implementation', 'lean', 'philosophies', 'organization', 'yielded', 'repeatable', 'predictable', 'results', 'software', 'release', 'schedules', 'reductions', 'additionally', 'set', 'determine', 'potential', 'critical', 'success', 'factors', 'csf', 'documented', 'secondary', 'data', 'captured', 'release', 'extracted', 'variables', 'used', 'decision', 'making', 'acceptability', 'fielding', 'evaluating', 'lean', 'applicability', 'high', 'variability', 'environment', 'usaf', 'acquisitions', 'conducted', 'using', 'quantitative', 'methods', 'archival', 'secondary', 'data', 'sample', 'case', 'compiled', 'usaf', 'office', 'implemented', 'techniques', 'development', 'testing', 'fielding', 'phases', 'based', 'data', 'acquisitionists', 'lean', 'practitioners', 'inherently', 'interconnected', 'therefore', 'understanding', 'critical', 'success', 'factors', 'csfs', 'integral', 'successful', 'lean', 'application', 'acquisitions', 'crucial', 'combination', 'synergistic', 'alignments', 'plyometric', 'csfs', 'discovered', 'maximize', 'effects', 'single', 'csf', 'produce', 'rapid', 'results', 'acquisitions', 'include', 'enterprise', 'incorporation', 'team', 'trust', 'transformational', 'leadership', 'recursive', 'improvement', 'integrated', 'synergy', 'culture', 'heuristic', 'communication']</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1046,16 +4284,142 @@
           <t>Abstracts from the Society for Clinical Trials Annual Meeting, Miami, May 21-23, 2012</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>A decision of the Federal Joint Committee Germany states that negative pressure wound therapy is not accepted as a standard therapy with full reimbursement by the health insurance companies in Germany. This decision is based on the rapid report and the final report of the Institute for Quality and Efficiency in Health Care, which demonstrated through systematic reviews and meta-analysis of previous studies projects that an insufficient state of evidence regarding the use of negative pressure wound therapy (NPWT) for treatment of acute and chronic wounds exists. The Institute for Research in Operative Medicine (IFOM) as part of the University of Witten / Herdecke gGmbH is an independent scientific institute that is responsible for the planning, implementation, analysis and publication of trial projects regarding the efficacy and effectiveness of negative pressure wound therapy for acute and chronic wounds in both medical sectors (in- and outpatient care) in Germany. The study projects are designed and conducted with the aim to provide solid evidence regarding the efficacy of NPWT. The trials evaluate the treatment outcome of the application of a technical medical device which is based on the principle of negative pressure wound therapy (Intervention Group) in comparison to standard wound therapy (Control group) in the treatment of chronic foot wounds and acute subcutaneous abdominal wounds after surgery. All used treatment systems bear the CE mark and will be used within normal conditions of clinical routine and according to manufacturer's instructions. The aim of the trial projects is to compare the clinical, safety and economic results of both treatment arms. Study results will be provided until the end of 2014 to contribute to the final decision of the Federal Joint Committee Germany regarding the general admission of negative pressure wound therapy as a standard of performance within both medical sectors. Introduction: Adequate patient recruitment is a key condition determining the validity, duration and costs of RCTs, yet remains challenging. The expanding interface between therapeutic endoscopy and minimally invasive surgery for the treatment of benign gastrointestinal diseases demands RCTs to compare safety and cost-effectiveness of comparable interventions. We aimed to identify patient motives and barriers for (non)participation in the TREND study. Methods: Patients with large rectal adenomas counseled between January and July 2011 for participation in an RCT comparing endoscopic mucosal resection (EMR) with transanal endoscopic microsurgery (TEM) were invited for a semi-structured interview (14 participants, 12 non- participants). Interviewees were asked to discuss their main motive for (non-) participation in an open fashion. Subsequently, potential other barriers and motivations as previously described in the literature were presented by the interviewer. Interviews were coded and analyzed by 2 independent researchers. Results: We interviewed 10 participants and 7 non-participants, aged 54-84. Key motive for trial participation was contribution to medical science and future clinical practice (all participants). Other motives included satisfactory counseling, sufficient time to reflect and the sense that participation was completely voluntary. The vast majority of non-participants had previous in-hospital experience, however more than half had not been introduced to research prior. Although most non-participants felt contributing to research was important, key barriers to participation included a distinct preference for either EMR (n=4) or TEM (n=3) or intervention-specific characteristics like type of sedation (all non-participants). Consultation of family members affected half of all decisions. Study characteristics such as randomization, blinding, insurance and ethical approval hardly influenced the decision making. Conclusion: In RCTs comparing similar endoscopic and surgical strategies, thorough, tailored and timely counseling is crucial to clarify the study purpose and to emphasize the presumed equality of allocation arms. Avoidance of common barriers to participation will improve trial inclusion. The establishment of clinical trial centers creates a demand for both infrastructure and skilled staff. While establishment and operation of clinical trial centers in surgical specialties have in recent years often been conducted by medical staff in addition to clinical practice, the intensification of legal regulations and the increased number of clinical trials in surgery requires rethinking. The ability to fulfill these more specialized demands can only be given by allocating sufficient funds. These funds can be used to employ trained paramedical staff and furthermore to release medical staff from clinical work and thereby enable full-time scientific work. On the other hand, a demand for funding is risen to implement infrastructural requirements such as IT hardware and premises. Once a clinical trial center has been established, further operation has to be ensured by generating additional funds. While the demand for start-up financing of a clinical trial unit is most meaningful arranged by governmental or institutional fundraising, the operation relies on generating sufficient funds through the conduction of industry-initiated trials. Own experience and further possibilities are demonstrated by reporting on different strategies for funding of clinical trial centers and the general demand of funds during establishment and operation of clinical trial centers. Therefore, different governmental, industrial as well as institutional supports are relevant factors. In Europe safety management requirements in clinical trials with medical devices were changed fundamentally by the council directive 2007/47/EC in 2007 and internationally with the ISO 14155:2011 in 2011. Previously adverse incidents had to be reported to the competent authority. Since implementation of the directive in Germany each serious adverse event (SAE) which happened or might have happened to a patient, user, or third party, must be reported immediately. Sponsor and investigators must report SAEs via an electronic form centrally provided by the Federal Institute for Drugs and Medical Devices (BfArM). Besides profound knowledge adequate IT equipment at all investigator trial sites are needed. The latter being a challenge for academic trials with their low budgets. To develop operational competence the quality management (QM) working group of the Clinical Trials Centers (CTC)-network developed a harmonized SOP describing thecomplex procedures of safety management for sponsor and investigator trial sites. It includes appendices providing among others definitions, a template for an SAE-manual, and instructions for completing the electronic form. This document particularly suggests solutions regarding more general regulatory requirements,e.g. follow-up information for the sponsor or for the competent authority. The implemented safety management procedures consider experiences derived from clinical trials with medicinal products and the special characteristics of academic trials. As increased numbers of clinical trials with medical devices are to be expected according to changed regulations CTCs will become more experienced with these complex procedures. Thus they will be competent partners to industry in conducting national and international clinical trials with medical devices. Our report will show the challenges of coping with this novel electronic reporting process, and provide our experiences in fulfilling the updated changed German national regulations. Due to the ever increasing global activity in clinical research, knowledge transfer between researchers and all stakeholders in clinical health care (including patients) worldwide is an indispensable requirement. A prerequisite for knowledge transfer in clinical research is an unbiased and complete view on clinical trial results. How is the arising number of clinical trials registries and results databases being utilized by different user groups including ethics committees, clinicians, patients, researchers, reimbursement and funding institutions? What are the different requirements defined by the parties involved? How can variable needs be met? What seem to be the arising issues concerning database content, language barriers, retrieval problems, implementation of knowledge into daily work, evaluation of existing evidence? What efforts are made to overcome the obstacles? Meanwhile it is daily experience that conduct of a clinical quality assurance audit involves some kind of computer system to be considered and assessed. The following fundamental question comes immediately to mind: how valid are data and information kept and handled by the systems employed? This question will be subdivided in five parts for the purpose of this session: Where does the basic computer system used come from, how has it been implemented and validated and how is it maintained? How has the computer system application used in a specific trial been developed, validated and deployed and how is it operated and maintained? Which regulations, guidelines and state of the art standards are to be expected to be observed for development, validation and operation? How big are the risks on data quality and acceptability of the study outcome in case of malfunction of the computer system application? How high are chances that system weaknesses can be detected in a standard audit setting and how can auditors optimise the preparation and conduct of their review to detect hidden system bugs? The session presents an overview over the current situation, naming specific risks and gives some answers to the questions posed afore, mainly by giving practical examples how to proceed in the most frequent audit situations, namely investigator site audits (eClinical and electronic source documents), CRO system audits and vendor audits. A flexible and simple Bayesian decision- theoretic design for dose finding trials is proposed in this paper. In order to reduce the computational complexity, we adopt a working model which produces analytic posterior distributions. In addition, this working model is sufficiently flexible to fit all monotonic dose-toxicity curves. We also discuss how to use a proper utility function to reflect the interest of the trial. Patients are allocated based on not only the utility function but also the chosen dose selection rule. The most popular dose selection rule is the one-step-look-ahead (OSLA), which selects the best so far dose. More complicated rules such as two-step-look- ahead (TSLA) are surely more efficient than OSLA only when the required distributional assumptions are met which is however often not the case in practice. We carry out extensive simulation studies to evaluate a variety of dose selection rules and have found that OSLA is often more efficient than TSLA under our proposed method. Moreover, our simulation results show that the proposed method performs superior to several popular Bayesian methods and the negative impact of prior mis-specification could be considered in the design stage. Isotonic Design using Normalized Equivalent Toxicity Score (ID-NETS) is a novel Phase I design originally proposed by Chen et al. by integrating the novel toxicity scoring system proposed by Chen et al. and the original Isotonic Design proposed by Leung et al. ID-NETS has substantially improved the accuracy of maximum tolerated dose (MTD) estimation and efficiency of trial by fully utilizing all toxicities of each patient and treating toxicity response as a quasi-continuous variable instead of a binary indicator of dose limiting toxicity (DLT) in a Phase I clinical trial. To facilitate designing and conducting a Phase I clinical trial with ID-NETS, we have developed a user-friendly software ID-NETS©TM, which has two functions: 1) Calculating the recommended next dose level from completed data; and 2) Performing simulation to obtain the operating characteristics of a trial. Currently, ID-NETS©TM v1.0 is available for download at http://winshipbbisr.emory.edu/IDNETS.html. Building on the toxicity probability interval (TPI) design in Ji et al. (2007), we present a modified TPI design (mTPI) that is calibration-free for phase I trials. Our goal is to further simplify the design and improve the trial conduct, and provide more effective and safer methods while maintaining the simplicity of the original TPI design. Like the TPI method, mTPI consists of a practical dose-finding scheme guided by the posterior inference using a simple Bayesian model. However, the new method benefits from improved dose-finding decision rules based on a new statistic, the unit probability mass (UPM). The improvement through the use of the UPM for dose finding is significant. We will present extensive simulation results comparing the mTPI design to the 3+3 and CRM methods, and provide convincing evidence why the mTPI is a practically superior method. Among the most recent advances in escalation with overdose control (EWOC) based Bayesian adaptive phase I clinical trial designs, Tighiouart et al (2011) developed EWOC based on the proportional hazards model (EWOC-PH) using time to toxicity to estimate the MTD. The method has been shown to be more efficient to estimate MTD comparing to the original EWOC and a version of time to event EWOC (TITE-EWOC) proposed by Mauguen et al (2010). In this study, we will further extent EWOC-PH to take into account patients' baseline covariates. The extension of EWOC to accommodate baseline covariates has been developed by Babb and Rogatko (2001) and Tighiouart and Rogatko (2010). We expect that the new design will provide better safety protection by assigning a personalized dose to the next available patient based on his/her own baseline characteristics and lead to an estimation for covariate specific phase II dose. We assess the operating characteristics for the design via extensive simulations including three scenarios: (1) design using a covariate; (2) Design ignoring the covariate; (3) Design using separate trials. The efficiency of estimating the conditional MTD and safety of the trial are compared with original EWOC with covariate using DLT as a binary indicator of toxicity. Escalation with overdose control (EWOC) is a successful Phase I design and has been widely used. Chen et al. further extended EWOC to utilize fully all toxicities of patients instead of a binary indicator of dose limiting toxicity (DLT) by incorporating the normalized toxicity scoring system (NETS) proposed by Chen et al. into EWOC with a quasi-Bernoulli likelihood approach. The new design is called EWOC-NETS which has been demonstrated by simulation studies to have good operating characteristics and improve the accuracy and efficiency of the maximum tolerated dose (MTD) estimation relative to common Phase I designs. In this study, we have developed an interactive software called EWOC-NETS©TM which is very user friendly to facilitate designing and conducting a Phase I clinical trial with EWOC-NETS and available for free download at the website of Emory University http://winshipbbisr.emory.edu/Software.html. We would like to introduce this novel statistical software and translate EWOC-NETS into Phase I cancer clinical trials in the future. Some clinical predictors may or may not have monotonic properties. They may have increasing or decreasing pattern or they may remain steady during a period of observation time. A clinical question is raised on how such increasing or decreasing or constant pattern of variations may have effect on survival or on clinical outcomes independently during a period of time. Generally we ignore such point of transitions and independent pattern of variations while investigating their overall effect. Isotonicity is called the simple or partial ordered monotonicity mathematically. Isotonic regression is performed under ordered monotonic restrictions criteria. Either increasing or decreasing or constant variation of a clinical predicator or of a prognostic variable generates a change-point problem at the transition from increasing order to decreasing order or vice versa or from the steady condition to either increasing or decreasing pattern of clinical predictors. The primary thrust of this paper is to address such clinical questions using a Cox Regression Model with isotonic regressors with such change-point problems. In a case study with multiple myeloma the impact of such change- point patterns of clinically significant predictors such as hemoglobin, blood urea nitrogen, white blood corpuscles, platelets on patients median survival time have been explored. Policy makers in Denmark are starting to realize that RCT designs are needed if they want to know the impact of social interventions. Therefore the Ministry of Social Affair granted funding to do three RCTs of family programs (Multidimension Treatment Foster Care-MTFC, Parent Management Training Oregon -PMTO and Multisystemic Therapy-MST). During the last year SFI has been planning the studies including all relevant parts in the process. The process has been long and challenging. Problems faced include: 1: A pronounced resistance to randomization within all levels of social services. 2: An economic crisis in the municipalities causing both unwillingness to participate in the research study and a significant lower caseload in the MST and MTFC teams. 3: Fear of the study going to steal half of the families from the programs. 4: Underfunding of the studies. 5: Resistance against using standardized tests because this is not common in social work, and 6: Difficulties in getting data for power calculations. Recurring issues that we have had to deal with are: "do we really have to randomize? Can't we just do some kind of matching?" and "it would be much better to spend the money on a wider implementation of the program and practice oriented qualitative research." Recently the MST study was cancelled since all five MST teams declined to participate. Funding was transferred to the other two studies making them look more promising. A lot of resources have been used to prepare the studies and expectations are high. Hopefully by May 2012 the MTFC study will be recruiting families and the PMTO study will be ready to start recruiting in September 2012. If all goes well the two studies will be among the first RCTs carried out on social interventions in Denmark. Regulatory goals for a clinical study can be different from research and exploratory goals. For the Food and Drug Administration (FDA), Phase 3 Investigational New Drug (IND) studies (i.e., adequate and well- controlled studies) will provide the primary clinical evidence to support a marketing application such as a Biologic License Application (BLA). To support approval and initiation of these studies, the protocol should cover all the statistical issues considered by the reviewers when assessing the study design and its ability to adequately address the study objectives. As an aid to statistical reviewers, as well as to improve efficiency and consistency in our reviews of these protocols, the Division of Biostatistics in the Center for Biologics Evaluation and Research (CBER) has developed a checklist outlining the important elements of a Phase 3 protocol. Some elements included in this checklist are consistency between the study objectives and endpoints; number and regions of study sites; statistical hypotheses; planned interim analyses; sample size assumptions and calculations; randomization description; blinding techniques; analysis populations; multiplicity considerations; missing data considerations; study success criterion; and study conduct. Original IND submissions with protocols with such elements may also lead to less correspondence with the sponsor to clarify items in the protocol. We note that the elements identified in this checklist may also be helpful in designing earlier phase studies as well as non-IND studies. This presentation will focus on the motivation, contents, and use of the checklist. In non-inferiority trials, a pre-specified margin of non-inferiority must be defined a priori. However, what happens when an acceptable risk varies according to physician risk tolerance or patient circumstances, so a pre-specified margin of non-inferiority cannot be easily defined? We will discuss a double-blind clinical trial in which SLE patients on long-term MMF therapy with stable disease are randomized to continue therapy or withdraw. It is expected that withdrawal from MMF will result in increased risk of disease reactivation; however, long- term MMF treatment is not without risk of side effects. The goal of the trial is to determine if the increase in risk of disease reactivation outweighs the benefits of withdrawal. One could frame this goal as a test of the non-inferiority hypothesis that the increased risk of disease reactivation is greater than a pre-specified margin, determined by potential benefit. However, how the risks and benefits should be weighed is highly individual, even for experienced rheumatologists. Rather than design the study to test a hypothesis of non- inferiority using an arbitrary risk margin that may or may not be relevant for any particular patient, the results of this trial will be reported as effect estimates for change in risk of disease reactivation in addition to other disease activity, safety, quality of life and medication use endpoints. These effect estimates and confidence intervals will describe the risks and benefits of withdrawal from study therapy and may be used to guide physicians and patients in making decisions based on individualized assessments of acceptable risk. As clinicians are likely to find interpretation of results difficult in the absence of hypothesis testing (and p-values), we will discuss the approach planned for disseminating clinical trial results. Cluster randomised trials (CRTs), compared to individually randomised trials, require specific analysis; statistical models need to take account of between-cluster variability. This abstract focuses on two main approaches to analysis, cluster-level (CL) and individual-level (IL), and examines their efficiency for the Training Caregivers After Stroke trial (TRACS). TRACS is a CRT evaluating a complex intervention in stroke rehabilitation with 928 dyads of patients and caregivers within 36 stoke rehabilitation units. The primary outcome is NEADL score at 6 months. CL analysis is attractive due to its simplicity. We compare performance of three techniques; simple summaries (using appropriate two- sample weighted t-tests), CL analysis adjusted for covariates and nonparametric methods. The CL approach is a two-stage method; in unadjusted analysis, a summary measure for each cluster is calculated and two sets of cluster-specific measures are compared using the weighted t-test. When performing CL analysis adjusted for covariates; we carried out an IL regression with all but intervention effect covariates ignoring the clustering effect. Secondly, we compared the residuals for each cluster between treatment arms using the weighted two-sample t-test. Wilcoxon's rank sum test was used as a nonparametric substitute to the two-sample t- test. IL analysis, using a random effects linear mixed model with stroke rehabilitation units as level 2, was the preferred method, because of its greater computational convenience and it is possible to analyse the intervention effect and other covariates simultaneously. The CL approach is robust, particularly for a smaller number of clusters. However, it may not be statistically the most efficient, especially if clusters are of varying size. Such weighting is incorporated in IL analysis. Analysis of cluster randomised trials can be undertaken in a number of ways. We will present and discuss the advantages and disadvantages of each of these analytical methods. Simple randomisation is the easiest method for allocating participants to treatment groups in clinical trials. In the long run it balances all features of participants across the groups but may not be suitable for small to medium sized trials, or for larger trials at the time of interim analysis. If important prognostic factors are identified at the design stage then minimisation can help to balance these features. There is uncertainty as to whether treatment groups need to be balanced at baseline, but many researchers believe this to be advantageous, allowing comparison between groups without the need for sophisticated analysis. Balance between treatment groups can be desirable in a range of scenarios: for small trials, interim analyses, early termination, analysis of subgroups or where the credibility of an unbalanced trial is considered problematic (e.g. in the case of a small treatment effect). Three completed trials of varying size, originally using minimisation as method of treatment allocation, were "re-randomised", in the order that participants joined the study, using simple randomisation. Datasets frozen at the time of either interim or full analysis were used. For all three trials treatment allocation was well balanced across prognostic variables and between treatment arms when using minimisation at all time points, i.e. for any number of participants recruited at that time. With simple randomisation, at each timepoint imbalances were identified that could have made analysis more difficult. In some cases the potential imbalance across treatment groups within a factor reached 100% (where all participants with a given characteristic were in the same treatment allocation group) and no amount of sophisticated analysis could compensate for this. The simulations demonstrated the need for incorporating minimisation into the randomisation algorithm of trials of any size in order to achieve treatment balance which cannot be achieved by using simple randomisation alone. A futility analysis is commonly utilized in clinical trials for early read of trial efficacy data. An investigational drug will be declared futile if the prespecified futility boundary is met, and the trial will be stopped. In a conventional group sequential design, a futility boundary is selected based on power preservation or sufficient conditional power, which protects the probability of rejecting the null hypothesis at the end of a trial. However, the observed treatment effect size is of increasing importance beyond rejecting the null hypothesis and is directly associated with the eventual success of drug development. To ensure a high probability of observing a desired effect size, or in another words a high probability of success, we propose a new futility analysis design approach where the futility boundary is selected based on preserving the probability of success. We define the relative preservation of this probability as "pseudo-power", using which we propose the boundary selection criteria. Via a case study, we evaluate various operational characteristic of this approach in term of the probability of correct and incorrect stopping, with respect to the futility boundary, the underlying true effect size and the timing of the futility analysis. Increasingly, the NIH and Industry sponsors are establishing large multi-center collaborative research efforts that implement multiple studies simultaneously through a network of investigators. This presents a challenge for the sponsors and leadership teams who are responsible for monitoring activities across studies. The business world has addressed this need for complex information monitoring systems with a high- level summarized overview called a dashboard. We created a web-based dashboard for the Inner City Asthma Consortium (ICAC), a large, federally-funded, multi-center research consortium. The consortium has eight active studies that are being conducted across ten clinical centers with total projected enrollment of over 3500 participants. Many research programs provide web-based resources to aid stakeholders with study supervision. Unfortunately, traditional study portals can be hindered by an overabundance of information and tedious top-down navigation. These characteristics make them an inefficient resource for large multi-center programs. Our dashboard avoids the typical information- dense, hierarchical construction of traditional websites in favor of a comprehensive single- webpage display that is easier for stakeholders to access and use. Dashboards summarize and display critical information on a single page, with an emphasis on graphical, rather than text-heavy displays. Our dashboard has a main page for the consortium, which provides comparative enrollment graphs for the active studies, and displays pertinent deadlines and announcements. Each study also has a dedicated page that follows this same "dashboard" approach. We update the dashboard data weekly. Sponsors have responded positively to the ICAC dashboard, voicing appreciation for the system's efficient presentation of data and ease of use. Given the success of the dashboard, we plan to expand the system to other federal and commercial programs. Our experience suggests that multi-center or multi-study programs would benefit from creating a dashboard to provide sponsors and network leadership teams with key study monitoring information in a quick, succinct manner. Due to the lack of infrastructure in resource poor settings and despite the strong need for Clinical Research coordination, Information and Communication Technology has not been systematically and sustainably integrated into health research, hospital administration and practice, thus limiting efficiency and outcomes of the efforts to fight poverty related diseases. Cloud-based technology could now overcome infrastructure scarcity problems of resource poor settings and thus greatly support Clinical Research by integrating mobile, online, offline and Voice over IP technology. The Italian Inter University Consortium Cineca, a non-profit Consortium of Italian Universities for high performance computing and ICT, has an over 20 year experience in providing technological support to health research for activities related to the design and development of IT systems and services in the health care and biomedical area, using advanced technologies and methodologies. In particular, since 2008 Cineca has been involved in projects providing and developing technology to collect and analyze clinical and health related data in Africa. The European funded project Medishare, coordinated by Cineca, successfully managed to collect standardized data for over 15000 patients affected by HIV/AIDS, Malaria and TB in Kenya Tanzania and Uganda in one central database. Medishare was recognized supportive of the Millennium Development Goals by the United Nations. The Europe - Africa Research Network for Evaluation of Second-line Therapy (EARNEST) is a trial supported by the European and Developing Countries Clinical Trials Partnership (EDCTP) that is successfully using Cineca integrated technology in Uganda, Malawi, Zimbabwe. Cineca exploits the integration of newer technologies to fill in the infrastructural gaps of Africa and provides a sustainable centralized infrastructure which is fully certified for quality, safety and security procedures. We have developed a LIMS to manage biobank samples for the Scottish Early Rheumatoid Arthritis (SERA) cohort study. Commercial and open-source solutions were evaluated and it was concluded that development of a bespoke LIMS system was needed to provide scalability and flexibility to support future projects with different requirements. The system developed includes a generic workflow which is capable of modelling:* Complex storage configurations with up to 1024 dimensions over multiple geographic sites * Storage rules for sample type, method and time of storage * Multi-event work flow processing from site collection to arrival at labs * Lab technician workflows incorporating working plate practices * Manual and automated validation methods using a combination of 1D and 2D barcode technologies The system is based on a tree structure; all samples are stored in a parentage tree that shows the lineage of the sample allowing for exploration of any number of generations of derived samples. Our tree based approach allows the LIMS to be largely generic. By defining the storage, site configuration and the collection protocols the system can operate with scenarios ranging from a single lab collecting ad-hoc samples, to a multi-lab, multi collection site protocol hosting thousands of samples. We will ...</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1038124583</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 22923729</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Scholarly Journals</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SAGE Publications © Aug 2012</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>10.1177/1740774512453224</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Journal Article , General Information</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aug 2012</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Endoscopic mucosal resection , Effectiveness , Quality management , Chronic wound , Negative-pressure wound therapy , Utility Function , Trial , Patient participation , Clinical trial , Efficacy , Negative pressure wound therapy , Endoscopy , Utility</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>1740-7745</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>4</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 450-554</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> London</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Aug 2012</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Clinical Trials</t>
+        </is>
+      </c>
+      <c r="AB29" t="n">
         <v>2012</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>A decision of the Federal Joint Committee Germany states that negative pressure wound therapy is not accepted as a standard therapy with full reimbursement by the health insurance companies in Germany. This decision is based on the rapid report and the final report of the Institute for Quality and Efficiency in Health Care, which demonstrated through systematic reviews and meta-analysis of previous studies projects that an insufficient state of evidence regarding the use of negative pressure wound therapy (NPWT) for treatment of acute and chronic wounds exists. The Institute for Research in Operative Medicine (IFOM) as part of the University of Witten / Herdecke gGmbH is an independent scientific institute that is responsible for the planning, implementation, analysis and publication of trial projects regarding the efficacy and effectiveness of negative pressure wound therapy for acute and chronic wounds in both medical sectors (in- and outpatient care) in Germany. The study projects are designed and conducted with the aim to provide solid evidence regarding the efficacy of NPWT. The trials evaluate the treatment outcome of the application of a technical medical device which is based on the principle of negative pressure wound therapy (Intervention Group) in comparison to standard wound therapy (Control group) in the treatment of chronic foot wounds and acute subcutaneous abdominal wounds after surgery. All used treatment systems bear the CE mark and will be used within normal conditions of clinical routine and according to manufacturer's instructions. The aim of the trial projects is to compare the clinical, safety and economic results of both treatment arms. Study results will be provided until the end of 2014 to contribute to the final decision of the Federal Joint Committee Germany regarding the general admission of negative pressure wound therapy as a standard of performance within both medical sectors. Introduction: Adequate patient recruitment is a key condition determining the validity, duration and costs of RCTs, yet remains challenging. The expanding interface between therapeutic endoscopy and minimally invasive surgery for the treatment of benign gastrointestinal diseases demands RCTs to compare safety and cost-effectiveness of comparable interventions. We aimed to identify patient motives and barriers for (non)participation in the TREND study. Methods: Patients with large rectal adenomas counseled between January and July 2011 for participation in an RCT comparing endoscopic mucosal resection (EMR) with transanal endoscopic microsurgery (TEM) were invited for a semi-structured interview (14 participants, 12 non- participants). Interviewees were asked to discuss their main motive for (non-) participation in an open fashion. Subsequently, potential other barriers and motivations as previously described in the literature were presented by the interviewer. Interviews were coded and analyzed by 2 independent researchers. Results: We interviewed 10 participants and 7 non-participants, aged 54-84. Key motive for trial participation was contribution to medical science and future clinical practice (all participants). Other motives included satisfactory counseling, sufficient time to reflect and the sense that participation was completely voluntary. The vast majority of non-participants had previous in-hospital experience, however more than half had not been introduced to research prior. Although most non-participants felt contributing to research was important, key barriers to participation included a distinct preference for either EMR (n=4) or TEM (n=3) or intervention-specific characteristics like type of sedation (all non-participants). Consultation of family members affected half of all decisions. Study characteristics such as randomization, blinding, insurance and ethical approval hardly influenced the decision making. Conclusion: In RCTs comparing similar endoscopic and surgical strategies, thorough, tailored and timely counseling is crucial to clarify the study purpose and to emphasize the presumed equality of allocation arms. Avoidance of common barriers to participation will improve trial inclusion. The establishment of clinical trial centers creates a demand for both infrastructure and skilled staff. While establishment and operation of clinical trial centers in surgical specialties have in recent years often been conducted by medical staff in addition to clinical practice, the intensification of legal regulations and the increased number of clinical trials in surgery requires rethinking. The ability to fulfill these more specialized demands can only be given by allocating sufficient funds. These funds can be used to employ trained paramedical staff and furthermore to release medical staff from clinical work and thereby enable full-time scientific work. On the other hand, a demand for funding is risen to implement infrastructural requirements such as IT hardware and premises. Once a clinical trial center has been established, further operation has to be ensured by generating additional funds. While the demand for start-up financing of a clinical trial unit is most meaningful arranged by governmental or institutional fundraising, the operation relies on generating sufficient funds through the conduction of industry-initiated trials. Own experience and further possibilities are demonstrated by reporting on different strategies for funding of clinical trial centers and the general demand of funds during establishment and operation of clinical trial centers. Therefore, different governmental, industrial as well as institutional supports are relevant factors. In Europe safety management requirements in clinical trials with medical devices were changed fundamentally by the council directive 2007/47/EC in 2007 and internationally with the ISO 14155:2011 in 2011. Previously adverse incidents had to be reported to the competent authority. Since implementation of the directive in Germany each serious adverse event (SAE) which happened or might have happened to a patient, user, or third party, must be reported immediately. Sponsor and investigators must report SAEs via an electronic form centrally provided by the Federal Institute for Drugs and Medical Devices (BfArM). Besides profound knowledge adequate IT equipment at all investigator trial sites are needed. The latter being a challenge for academic trials with their low budgets. To develop operational competence the quality management (QM) working group of the Clinical Trials Centers (CTC)-network developed a harmonized SOP describing thecomplex procedures of safety management for sponsor and investigator trial sites. It includes appendices providing among others definitions, a template for an SAE-manual, and instructions for completing the electronic form. This document particularly suggests solutions regarding more general regulatory requirements,e.g. follow-up information for the sponsor or for the competent authority. The implemented safety management procedures consider experiences derived from clinical trials with medicinal products and the special characteristics of academic trials. As increased numbers of clinical trials with medical devices are to be expected according to changed regulations CTCs will become more experienced with these complex procedures. Thus they will be competent partners to industry in conducting national and international clinical trials with medical devices. Our report will show the challenges of coping with this novel electronic reporting process, and provide our experiences in fulfilling the updated changed German national regulations. Due to the ever increasing global activity in clinical research, knowledge transfer between researchers and all stakeholders in clinical health care (including patients) worldwide is an indispensable requirement. A prerequisite for knowledge transfer in clinical research is an unbiased and complete view on clinical trial results. How is the arising number of clinical trials registries and results databases being utilized by different user groups including ethics committees, clinicians, patients, researchers, reimbursement and funding institutions? What are the different requirements defined by the parties involved? How can variable needs be met? What seem to be the arising issues concerning database content, language barriers, retrieval problems, implementation of knowledge into daily work, evaluation of existing evidence? What efforts are made to overcome the obstacles? Meanwhile it is daily experience that conduct of a clinical quality assurance audit involves some kind of computer system to be considered and assessed. The following fundamental question comes immediately to mind: how valid are data and information kept and handled by the systems employed? This question will be subdivided in five parts for the purpose of this session: Where does the basic computer system used come from, how has it been implemented and validated and how is it maintained? How has the computer system application used in a specific trial been developed, validated and deployed and how is it operated and maintained? Which regulations, guidelines and state of the art standards are to be expected to be observed for development, validation and operation? How big are the risks on data quality and acceptability of the study outcome in case of malfunction of the computer system application? How high are chances that system weaknesses can be detected in a standard audit setting and how can auditors optimise the preparation and conduct of their review to detect hidden system bugs? The session presents an overview over the current situation, naming specific risks and gives some answers to the questions posed afore, mainly by giving practical examples how to proceed in the most frequent audit situations, namely investigator site audits (eClinical and electronic source documents), CRO system audits and vendor audits. A flexible and simple Bayesian decision- theoretic design for dose finding trials is proposed in this paper. In order to reduce the computational complexity, we adopt a working model which produces analytic posterior distributions. In addition, this working model is sufficiently flexible to fit all monotonic dose-toxicity curves. We also discuss how to use a proper utility function to reflect the interest of the trial. Patients are allocated based on not only the utility function but also the chosen dose selection rule. The most popular dose selection rule is the one-step-look-ahead (OSLA), which selects the best so far dose. More complicated rules such as two-step-look- ahead (TSLA) are surely more efficient than OSLA only when the required distributional assumptions are met which is however often not the case in practice. We carry out extensive simulation studies to evaluate a variety of dose selection rules and have found that OSLA is often more efficient than TSLA under our proposed method. Moreover, our simulation results show that the proposed method performs superior to several popular Bayesian methods and the negative impact of prior mis-specification could be considered in the design stage. Isotonic Design using Normalized Equivalent Toxicity Score (ID-NETS) is a novel Phase I design originally proposed by Chen et al. by integrating the novel toxicity scoring system proposed by Chen et al. and the original Isotonic Design proposed by Leung et al. ID-NETS has substantially improved the accuracy of maximum tolerated dose (MTD) estimation and efficiency of trial by fully utilizing all toxicities of each patient and treating toxicity response as a quasi-continuous variable instead of a binary indicator of dose limiting toxicity (DLT) in a Phase I clinical trial. To facilitate designing and conducting a Phase I clinical trial with ID-NETS, we have developed a user-friendly software ID-NETS©TM, which has two functions: 1) Calculating the recommended next dose level from completed data; and 2) Performing simulation to obtain the operating characteristics of a trial. Currently, ID-NETS©TM v1.0 is available for download at http://winshipbbisr.emory.edu/IDNETS.html. Building on the toxicity probability interval (TPI) design in Ji et al. (2007), we present a modified TPI design (mTPI) that is calibration-free for phase I trials. Our goal is to further simplify the design and improve the trial conduct, and provide more effective and safer methods while maintaining the simplicity of the original TPI design. Like the TPI method, mTPI consists of a practical dose-finding scheme guided by the posterior inference using a simple Bayesian model. However, the new method benefits from improved dose-finding decision rules based on a new statistic, the unit probability mass (UPM). The improvement through the use of the UPM for dose finding is significant. We will present extensive simulation results comparing the mTPI design to the 3+3 and CRM methods, and provide convincing evidence why the mTPI is a practically superior method. Among the most recent advances in escalation with overdose control (EWOC) based Bayesian adaptive phase I clinical trial designs, Tighiouart et al (2011) developed EWOC based on the proportional hazards model (EWOC-PH) using time to toxicity to estimate the MTD. The method has been shown to be more efficient to estimate MTD comparing to the original EWOC and a version of time to event EWOC (TITE-EWOC) proposed by Mauguen et al (2010). In this study, we will further extent EWOC-PH to take into account patients' baseline covariates. The extension of EWOC to accommodate baseline covariates has been developed by Babb and Rogatko (2001) and Tighiouart and Rogatko (2010). We expect that the new design will provide better safety protection by assigning a personalized dose to the next available patient based on his/her own baseline characteristics and lead to an estimation for covariate specific phase II dose. We assess the operating characteristics for the design via extensive simulations including three scenarios: (1) design using a covariate; (2) Design ignoring the covariate; (3) Design using separate trials. The efficiency of estimating the conditional MTD and safety of the trial are compared with original EWOC with covariate using DLT as a binary indicator of toxicity. Escalation with overdose control (EWOC) is a successful Phase I design and has been widely used. Chen et al. further extended EWOC to utilize fully all toxicities of patients instead of a binary indicator of dose limiting toxicity (DLT) by incorporating the normalized toxicity scoring system (NETS) proposed by Chen et al. into EWOC with a quasi-Bernoulli likelihood approach. The new design is called EWOC-NETS which has been demonstrated by simulation studies to have good operating characteristics and improve the accuracy and efficiency of the maximum tolerated dose (MTD) estimation relative to common Phase I designs. In this study, we have developed an interactive software called EWOC-NETS©TM which is very user friendly to facilitate designing and conducting a Phase I clinical trial with EWOC-NETS and available for free download at the website of Emory University http://winshipbbisr.emory.edu/Software.html. We would like to introduce this novel statistical software and translate EWOC-NETS into Phase I cancer clinical trials in the future. Some clinical predictors may or may not have monotonic properties. They may have increasing or decreasing pattern or they may remain steady during a period of observation time. A clinical question is raised on how such increasing or decreasing or constant pattern of variations may have effect on survival or on clinical outcomes independently during a period of time. Generally we ignore such point of transitions and independent pattern of variations while investigating their overall effect. Isotonicity is called the simple or partial ordered monotonicity mathematically. Isotonic regression is performed under ordered monotonic restrictions criteria. Either increasing or decreasing or constant variation of a clinical predicator or of a prognostic variable generates a change-point problem at the transition from increasing order to decreasing order or vice versa or from the steady condition to either increasing or decreasing pattern of clinical predictors. The primary thrust of this paper is to address such clinical questions using a Cox Regression Model with isotonic regressors with such change-point problems. In a case study with multiple myeloma the impact of such change- point patterns of clinically significant predictors such as hemoglobin, blood urea nitrogen, white blood corpuscles, platelets on patients median survival time have been explored. Policy makers in Denmark are starting to realize that RCT designs are needed if they want to know the impact of social interventions. Therefore the Ministry of Social Affair granted funding to do three RCTs of family programs (Multidimension Treatment Foster Care-MTFC, Parent Management Training Oregon -PMTO and Multisystemic Therapy-MST). During the last year SFI has been planning the studies including all relevant parts in the process. The process has been long and challenging. Problems faced include: 1: A pronounced resistance to randomization within all levels of social services. 2: An economic crisis in the municipalities causing both unwillingness to participate in the research study and a significant lower caseload in the MST and MTFC teams. 3: Fear of the study going to steal half of the families from the programs. 4: Underfunding of the studies. 5: Resistance against using standardized tests because this is not common in social work, and 6: Difficulties in getting data for power calculations. Recurring issues that we have had to deal with are: "do we really have to randomize? Can't we just do some kind of matching?" and "it would be much better to spend the money on a wider implementation of the program and practice oriented qualitative research." Recently the MST study was cancelled since all five MST teams declined to participate. Funding was transferred to the other two studies making them look more promising. A lot of resources have been used to prepare the studies and expectations are high. Hopefully by May 2012 the MTFC study will be recruiting families and the PMTO study will be ready to start recruiting in September 2012. If all goes well the two studies will be among the first RCTs carried out on social interventions in Denmark. Regulatory goals for a clinical study can be different from research and exploratory goals. For the Food and Drug Administration (FDA), Phase 3 Investigational New Drug (IND) studies (i.e., adequate and well- controlled studies) will provide the primary clinical evidence to support a marketing application such as a Biologic License Application (BLA). To support approval and initiation of these studies, the protocol should cover all the statistical issues considered by the reviewers when assessing the study design and its ability to adequately address the study objectives. As an aid to statistical reviewers, as well as to improve efficiency and consistency in our reviews of these protocols, the Division of Biostatistics in the Center for Biologics Evaluation and Research (CBER) has developed a checklist outlining the important elements of a Phase 3 protocol. Some elements included in this checklist are consistency between the study objectives and endpoints; number and regions of study sites; statistical hypotheses; planned interim analyses; sample size assumptions and calculations; randomization description; blinding techniques; analysis populations; multiplicity considerations; missing data considerations; study success criterion; and study conduct. Original IND submissions with protocols with such elements may also lead to less correspondence with the sponsor to clarify items in the protocol. We note that the elements identified in this checklist may also be helpful in designing earlier phase studies as well as non-IND studies. This presentation will focus on the motivation, contents, and use of the checklist. In non-inferiority trials, a pre-specified margin of non-inferiority must be defined a priori. However, what happens when an acceptable risk varies according to physician risk tolerance or patient circumstances, so a pre-specified margin of non-inferiority cannot be easily defined? We will discuss a double-blind clinical trial in which SLE patients on long-term MMF therapy with stable disease are randomized to continue therapy or withdraw. It is expected that withdrawal from MMF will result in increased risk of disease reactivation; however, long- term MMF treatment is not without risk of side effects. The goal of the trial is to determine if the increase in risk of disease reactivation outweighs the benefits of withdrawal. One could frame this goal as a test of the non-inferiority hypothesis that the increased risk of disease reactivation is greater than a pre-specified margin, determined by potential benefit. However, how the risks and benefits should be weighed is highly individual, even for experienced rheumatologists. Rather than design the study to test a hypothesis of non- inferiority using an arbitrary risk margin that may or may not be relevant for any particular patient, the results of this trial will be reported as effect estimates for change in risk of disease reactivation in addition to other disease activity, safety, quality of life and medication use endpoints. These effect estimates and confidence intervals will describe the risks and benefits of withdrawal from study therapy and may be used to guide physicians and patients in making decisions based on individualized assessments of acceptable risk. As clinicians are likely to find interpretation of results difficult in the absence of hypothesis testing (and p-values), we will discuss the approach planned for disseminating clinical trial results. Cluster randomised trials (CRTs), compared to individually randomised trials, require specific analysis; statistical models need to take account of between-cluster variability. This abstract focuses on two main approaches to analysis, cluster-level (CL) and individual-level (IL), and examines their efficiency for the Training Caregivers After Stroke trial (TRACS). TRACS is a CRT evaluating a complex intervention in stroke rehabilitation with 928 dyads of patients and caregivers within 36 stoke rehabilitation units. The primary outcome is NEADL score at 6 months. CL analysis is attractive due to its simplicity. We compare performance of three techniques; simple summaries (using appropriate two- sample weighted t-tests), CL analysis adjusted for covariates and nonparametric methods. The CL approach is a two-stage method; in unadjusted analysis, a summary measure for each cluster is calculated and two sets of cluster-specific measures are compared using the weighted t-test. When performing CL analysis adjusted for covariates; we carried out an IL regression with all but intervention effect covariates ignoring the clustering effect. Secondly, we compared the residuals for each cluster between treatment arms using the weighted two-sample t-test. Wilcoxon's rank sum test was used as a nonparametric substitute to the two-sample t- test. IL analysis, using a random effects linear mixed model with stroke rehabilitation units as level 2, was the preferred method, because of its greater computational convenience and it is possible to analyse the intervention effect and other covariates simultaneously. The CL approach is robust, particularly for a smaller number of clusters. However, it may not be statistically the most efficient, especially if clusters are of varying size. Such weighting is incorporated in IL analysis. Analysis of cluster randomised trials can be undertaken in a number of ways. We will present and discuss the advantages and disadvantages of each of these analytical methods. Simple randomisation is the easiest method for allocating participants to treatment groups in clinical trials. In the long run it balances all features of participants across the groups but may not be suitable for small to medium sized trials, or for larger trials at the time of interim analysis. If important prognostic factors are identified at the design stage then minimisation can help to balance these features. There is uncertainty as to whether treatment groups need to be balanced at baseline, but many researchers believe this to be advantageous, allowing comparison between groups without the need for sophisticated analysis. Balance between treatment groups can be desirable in a range of scenarios: for small trials, interim analyses, early termination, analysis of subgroups or where the credibility of an unbalanced trial is considered problematic (e.g. in the case of a small treatment effect). Three completed trials of varying size, originally using minimisation as method of treatment allocation, were "re-randomised", in the order that participants joined the study, using simple randomisation. Datasets frozen at the time of either interim or full analysis were used. For all three trials treatment allocation was well balanced across prognostic variables and between treatment arms when using minimisation at all time points, i.e. for any number of participants recruited at that time. With simple randomisation, at each timepoint imbalances were identified that could have made analysis more difficult. In some cases the potential imbalance across treatment groups within a factor reached 100% (where all participants with a given characteristic were in the same treatment allocation group) and no amount of sophisticated analysis could compensate for this. The simulations demonstrated the need for incorporating minimisation into the randomisation algorithm of trials of any size in order to achieve treatment balance which cannot be achieved by using simple randomisation alone. A futility analysis is commonly utilized in clinical trials for early read of trial efficacy data. An investigational drug will be declared futile if the prespecified futility boundary is met, and the trial will be stopped. In a conventional group sequential design, a futility boundary is selected based on power preservation or sufficient conditional power, which protects the probability of rejecting the null hypothesis at the end of a trial. However, the observed treatment effect size is of increasing importance beyond rejecting the null hypothesis and is directly associated with the eventual success of drug development. To ensure a high probability of observing a desired effect size, or in another words a high probability of success, we propose a new futility analysis design approach where the futility boundary is selected based on preserving the probability of success. We define the relative preservation of this probability as "pseudo-power", using which we propose the boundary selection criteria. Via a case study, we evaluate various operational characteristic of this approach in term of the probability of correct and incorrect stopping, with respect to the futility boundary, the underlying true effect size and the timing of the futility analysis. Increasingly, the NIH and Industry sponsors are establishing large multi-center collaborative research efforts that implement multiple studies simultaneously through a network of investigators. This presents a challenge for the sponsors and leadership teams who are responsible for monitoring activities across studies. The business world has addressed this need for complex information monitoring systems with a high- level summarized overview called a dashboard. We created a web-based dashboard for the Inner City Asthma Consortium (ICAC), a large, federally-funded, multi-center research consortium. The consortium has eight active studies that are being conducted across ten clinical centers with total projected enrollment of over 3500 participants. Many research programs provide web-based resources to aid stakeholders with study supervision. Unfortunately, traditional study portals can be hindered by an overabundance of information and tedious top-down navigation. These characteristics make them an inefficient resource for large multi-center programs. Our dashboard avoids the typical information- dense, hierarchical construction of traditional websites in favor of a comprehensive single- webpage display that is easier for stakeholders to access and use. Dashboards summarize and display critical information on a single page, with an emphasis on graphical, rather than text-heavy displays. Our dashboard has a main page for the consortium, which provides comparative enrollment graphs for the active studies, and displays pertinent deadlines and announcements. Each study also has a dedicated page that follows this same "dashboard" approach. We update the dashboard data weekly. Sponsors have responded positively to the ICAC dashboard, voicing appreciation for the system's efficient presentation of data and ease of use. Given the success of the dashboard, we plan to expand the system to other federal and commercial programs. Our experience suggests that multi-center or multi-study programs would benefit from creating a dashboard to provide sponsors and network leadership teams with key study monitoring information in a quick, succinct manner. Due to the lack of infrastructure in resource poor settings and despite the strong need for Clinical Research coordination, Information and Communication Technology has not been systematically and sustainably integrated into health research, hospital administration and practice, thus limiting efficiency and outcomes of the efforts to fight poverty related diseases. Cloud-based technology could now overcome infrastructure scarcity problems of resource poor settings and thus greatly support Clinical Research by integrating mobile, online, offline and Voice over IP technology. The Italian Inter University Consortium Cineca, a non-profit Consortium of Italian Universities for high performance computing and ICT, has an over 20 year experience in providing technological support to health research for activities related to the design and development of IT systems and services in the health care and biomedical area, using advanced technologies and methodologies. In particular, since 2008 Cineca has been involved in projects providing and developing technology to collect and analyze clinical and health related data in Africa. The European funded project Medishare, coordinated by Cineca, successfully managed to collect standardized data for over 15000 patients affected by HIV/AIDS, Malaria and TB in Kenya Tanzania and Uganda in one central database. Medishare was recognized supportive of the Millennium Development Goals by the United Nations. The Europe - Africa Research Network for Evaluation of Second-line Therapy (EARNEST) is a trial supported by the European and Developing Countries Clinical Trials Partnership (EDCTP) that is successfully using Cineca integrated technology in Uganda, Malawi, Zimbabwe. Cineca exploits the integration of newer technologies to fill in the infrastructural gaps of Africa and provides a sustainable centralized infrastructure which is fully certified for quality, safety and security procedures. We have developed a LIMS to manage biobank samples for the Scottish Early Rheumatoid Arthritis (SERA) cohort study. Commercial and open-source solutions were evaluated and it was concluded that development of a bespoke LIMS system was needed to provide scalability and flexibility to support future projects with different requirements. The system developed includes a generic workflow which is capable of modelling:* Complex storage configurations with up to 1024 dimensions over multiple geographic sites * Storage rules for sample type, method and time of storage * Multi-event work flow processing from site collection to arrival at labs * Lab technician workflows incorporating working plate practices * Manual and automated validation methods using a combination of 1D and 2D barcode technologies The system is based on a tree structure; all samples are stored in a parentage tree that shows the lineage of the sample allowing for exploration of any number of generations of derived samples. Our tree based approach allows the LIMS to be largely generic. By defining the storage, site configuration and the collection protocols the system can operate with scenarios ranging from a single lab collecting ad-hoc samples, to a multi-lab, multi collection site protocol hosting thousands of samples. We will ...</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/scholarly-journals/abstracts-society-clinical-trials-annual-meeting/docview/1038124583/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=article&amp;amp;sid=ProQ:ProQ%3Ahealthcompleteshell&amp;amp;atitle=Abstracts+from+the+Society+for+Clinical+Trials+Annual+Meeting%2C+Miami%2C+May+21-23%2C+2012&amp;amp;title=Clinical+Trials&amp;amp;issn=17407745&amp;amp;date=2012-08-01&amp;amp;volume=9&amp;amp;issue=4&amp;amp;spage=450&amp;amp;au=&amp;amp;isbn=&amp;amp;jtitle=Clinical+Trials&amp;amp;btitle=&amp;amp;rft_id=info:eric/22923729&amp;amp;rft_id=info:doi/10.1177%2F1740774512453224</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>Entrepreneurship Collection, Health Research Premium Collection, ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>decision federal joint committee germany state negative pressure wound therapy accepted standard therapy full reimbursement health insurance company germany decision based rapid report final report institute quality efficiency health care demonstrated systematic review previous study project insufficient state evidence regarding use negative pressure wound therapy npwt treatment acute chronic wound exists institute operative medicine ifom part witten herdecke ggmbh independent scientific institute responsible planning implementation publication trial project regarding efficacy effectiveness negative pressure wound therapy acute chronic wound medical sector outpatient care germany project designed conducted aim provide solid evidence regarding efficacy npwt trial evaluate treatment outcome application technical medical device based principle negative pressure wound therapy intervention group comparison standard wound therapy control group treatment chronic foot wound acute subcutaneous abdominal wound surgery used treatment system bear mark used within normal condition clinical routine according manufacturer instruction aim trial project compare clinical safety economic result treatment arm result provided end contribute final decision federal joint committee germany regarding general admission negative pressure wound therapy standard performance within medical sector introduction adequate patient recruitment key condition determining validity duration cost rcts yet remains challenging expanding interface therapeutic endoscopy minimally invasive surgery treatment benign gastrointestinal disease demand rcts compare safety comparable intervention aimed identify patient motif barrier non participation trend method patient large rectal adenoma counseled january july participation rct comparing endoscopic mucosal resection emr transanal endoscopic microsurgery tem invited interview participant participant interviewee asked discus main motive participation open fashion subsequently potential barrier motivation previously described literature presented interviewer interview coded analyzed independent researcher result interviewed participant aged key motive trial participation contribution medical science future clinical practice participant motif included satisfactory counseling sufficient time reflect sense participation completely voluntary vast majority previous experience however half introduced prior although felt contributing important key barrier participation included distinct preference either emr tem characteristic like type sedation consultation family member affected half decision characteristic randomization blinding insurance ethical approval hardly influenced decision making conclusion rcts comparing similar endoscopic surgical strategy thorough tailored timely counseling crucial clarify purpose emphasize presumed equality allocation arm avoidance common barrier participation improve trial inclusion establishment clinical trial center creates demand infrastructure skilled staff establishment operation clinical trial center surgical specialty recent year often conducted medical staff addition clinical practice intensification legal regulation increased number clinical trial surgery requires rethinking ability fulfill specialized demand given allocating sufficient fund fund used employ trained paramedical staff furthermore release medical staff clinical work thereby enable scientific work hand demand funding risen implement infrastructural requirement hardware premise clinical trial center established operation ensured generating additional fund demand financing clinical trial unit meaningful arranged governmental institutional fundraising operation relies generating sufficient fund conduction trial experience possibility demonstrated reporting different strategy funding clinical trial center general demand fund establishment operation clinical trial center therefore different governmental industrial well institutional support relevant factor europe safety management requirement clinical trial medical device changed fundamentally council directive internationally iso previously adverse incident reported competent authority since implementation directive germany serious adverse event sae happened might happened patient user third party must reported immediately sponsor investigator must report saes via electronic form centrally provided federal institute drug medical device bfarm besides profound knowledge adequate equipment investigator trial site needed latter challenge academic trial low budget develop operational competence quality management working group clinical trial center ctc developed harmonized sop describing thecomplex procedure safety management sponsor investigator trial site includes appendix providing among others definition template instruction completing electronic form document particularly suggests solution regarding general regulatory requirement information sponsor competent authority implemented safety management procedure consider experience derived clinical trial medicinal product special characteristic academic trial increased number clinical trial medical device expected according changed regulation ctc become experienced complex procedure thus competent partner industry conducting national international clinical trial medical device report show challenge coping novel electronic reporting process provide experience fulfilling updated changed german national regulation due ever increasing global activity clinical knowledge transfer researcher stakeholder clinical health care including patient worldwide indispensable requirement prerequisite knowledge transfer clinical unbiased complete view clinical trial result arising number clinical trial registry result database utilized different user group including ethic committee clinician patient researcher reimbursement funding institution different requirement defined party involved variable need met seem arising issue concerning database content language barrier retrieval problem implementation knowledge daily work evaluation existing evidence effort made overcome obstacle meanwhile daily experience conduct clinical quality assurance audit involves kind computer system considered assessed following fundamental question come immediately mind valid information kept handled system employed question subdivided five part purpose session basic computer system used come implemented validated maintained computer system application used specific trial developed validated deployed operated maintained regulation guideline state art standard expected observed development validation operation big risk quality acceptability outcome case malfunction computer system application high chance system weakness detected standard audit setting auditor optimise preparation conduct review detect hidden system bug session present overview current situation naming specific risk give answer question posed afore mainly giving practical example proceed frequent audit situation namely investigator site audit eclinical electronic source document cro system audit vendor audit flexible simple bayesian theoretic design dose finding trial proposed order reduce computational complexity adopt working model produce analytic posterior distribution addition working model sufficiently flexible fit monotonic curve also discus use proper utility function reflect interest trial patient allocated based utility function also chosen dose selection rule popular dose selection rule osla selects best far dose complicated rule ahead tsla surely efficient osla required distributional assumption met however often case practice carry extensive simulation study evaluate variety dose selection rule found osla often efficient tsla proposed moreover simulation result show proposed performs superior several popular bayesian method negative impact prior could considered design stage isotonic design using normalized equivalent toxicity score novel phase design originally proposed chen integrating novel toxicity scoring system proposed chen original isotonic design proposed leung substantially improved accuracy maximum tolerated dose mtd estimation efficiency trial fully utilizing toxicity patient treating toxicity response variable instead binary indicator dose limiting toxicity dlt phase clinical trial facilitate designing conducting phase clinical trial developed software two function calculating recommended next dose level completed performing simulation obtain operating characteristic trial currently available download http building toxicity probability interval tpi design present modified tpi design mtpi phase trial goal simplify design improve trial conduct provide effective safer method maintaining simplicity original tpi design like tpi mtpi consists practical scheme guided posterior inference using simple bayesian model however new benefit improved decision rule based new statistic unit probability mass upm improvement use upm dose finding significant present extensive simulation result comparing mtpi design crm method provide convincing evidence mtpi practically superior among recent advance escalation overdose control ewoc based bayesian adaptive phase clinical trial design tighiouart developed ewoc based proportional hazard model using time toxicity estimate mtd shown efficient estimate mtd comparing original ewoc version time event ewoc proposed mauguen extent take account patient baseline covariates extension ewoc accommodate baseline covariates developed babb rogatko tighiouart rogatko expect new design provide better safety protection assigning personalized dose next available patient based baseline characteristic lead estimation covariate specific phase dose assess operating characteristic design via extensive simulation including three scenario design using covariate design ignoring covariate design using separate trial efficiency estimating conditional mtd safety trial compared original ewoc covariate using dlt binary indicator toxicity escalation overdose control ewoc successful phase design widely used chen extended ewoc utilize fully toxicity patient instead binary indicator dose limiting toxicity dlt incorporating normalized toxicity scoring system net proposed chen ewoc likelihood new design called demonstrated simulation study good operating characteristic improve accuracy efficiency maximum tolerated dose mtd estimation relative common phase design developed interactive software called user friendly facilitate designing conducting phase clinical trial available free download website emory http would like introduce novel statistical software translate phase cancer clinical trial future clinical predictor may may monotonic property may increasing decreasing pattern may remain steady period observation time clinical question raised increasing decreasing constant pattern variation may effect survival clinical outcome independently period time generally ignore point transition independent pattern variation investigating overall effect isotonicity called simple partial ordered monotonicity mathematically isotonic regression performed ordered monotonic restriction criterion either increasing decreasing constant variation clinical predicator prognostic variable generates problem transition increasing order decreasing order vice versa steady condition either increasing decreasing pattern clinical predictor primary thrust address clinical question using cox regression model isotonic regressors problem case multiple myeloma impact point pattern clinically significant predictor hemoglobin blood urea nitrogen white blood corpuscle platelet patient median survival time explored policy maker denmark starting realize rct design needed want know impact social intervention therefore ministry social affair granted funding three rcts family program multidimension treatment foster parent management training oregon multisystemic last year sfi planning study including relevant part process process long challenging problem faced include pronounced resistance randomization within level social service economic crisis municipality causing unwillingness participate significant lower caseload mst mtfc team fear going steal half family program underfunding study resistance using standardized test common social work difficulty getting power calculation recurring issue deal really randomize kind matching would much better spend money wider implementation program practice oriented qualitative recently mst cancelled since five mst team declined participate funding transferred two study making look promising lot resource used prepare study expectation high hopefully may mtfc recruiting family pmto ready start recruiting september go well two study among first rcts carried social intervention denmark regulatory goal clinical different exploratory goal food drug administration fda phase investigational new drug ind study adequate controlled study provide primary clinical evidence support marketing application biologic license application bla support approval initiation study protocol cover statistical issue considered reviewer assessing design ability adequately address objective aid statistical reviewer well improve efficiency consistency review protocol division biostatistics center biologics evaluation cber developed checklist outlining important element phase protocol element included checklist consistency objective endpoint number region site statistical hypothesis planned interim analysis sample size assumption calculation randomization description blinding technique population multiplicity consideration missing consideration success criterion conduct original ind submission protocol element may also lead less correspondence sponsor clarify item protocol note element identified checklist may also helpful designing earlier phase study well study presentation focus motivation content use checklist trial margin must defined priori however happens acceptable risk varies according physician risk tolerance patient circumstance margin easily defined discus clinical trial sle patient mmf therapy stable disease randomized continue therapy withdraw expected withdrawal mmf increased risk disease reactivation however term mmf treatment without risk side effect goal trial determine increase risk disease reactivation outweighs benefit withdrawal one could frame goal test hypothesis increased risk disease reactivation greater margin determined potential benefit however risk benefit weighed highly individual even experienced rheumatologist rather design test hypothesis inferiority using arbitrary risk margin may may relevant particular patient result trial reported effect estimate change risk disease reactivation addition disease activity safety quality life medication use endpoint effect estimate confidence interval describe risk benefit withdrawal therapy may used guide physician patient making decision based individualized assessment acceptable risk clinician likely find interpretation result difficult absence hypothesis testing discus planned disseminating clinical trial result cluster randomised trial crt compared individually randomised trial require specific statistical model need take account variability abstract focus two main approach examines efficiency training caregiver stroke trial tracs tracs crt evaluating complex intervention stroke rehabilitation dyad patient caregiver within stoke rehabilitation unit primary outcome neadl score month attractive due simplicity compare performance three technique simple summary using appropriate sample weighted adjusted covariates nonparametric method unadjusted summary measure cluster calculated two set measure compared using weighted performing adjusted covariates carried regression intervention effect covariates ignoring clustering effect secondly compared residual cluster treatment arm using weighted wilcoxon rank sum test used nonparametric substitute test using random effect linear mixed model stroke rehabilitation unit level preferred greater computational convenience possible analyse intervention effect covariates simultaneously robust particularly smaller number cluster however may statistically efficient especially cluster varying size weighting incorporated cluster randomised trial undertaken number way present discus advantage disadvantage analytical method simple randomisation easiest allocating participant treatment group clinical trial long run balance feature participant across group may suitable small medium sized trial larger trial time interim important prognostic factor identified design stage minimisation help balance feature uncertainty whether treatment group need balanced baseline many researcher believe advantageous allowing comparison group without need sophisticated balance treatment group desirable range scenario small trial interim analysis early termination subgroup credibility unbalanced trial considered problematic case small treatment effect three completed trial varying size originally using minimisation treatment allocation order participant joined using simple randomisation datasets frozen time either interim full used three trial treatment allocation well balanced across prognostic variable treatment arm using minimisation time point number participant recruited time simple randomisation timepoint imbalance identified could made difficult case potential imbalance across treatment group within factor reached participant given characteristic treatment allocation group amount sophisticated could compensate simulation demonstrated need incorporating minimisation randomisation algorithm trial size order achieve treatment balance achieved using simple randomisation alone futility commonly utilized clinical trial early read trial efficacy investigational drug declared futile prespecified futility boundary met trial stopped conventional group sequential design futility boundary selected based power preservation sufficient conditional power protects probability rejecting null hypothesis end trial however observed treatment effect size increasing importance beyond rejecting null hypothesis directly associated eventual success drug development ensure high probability observing desired effect size another word high probability success propose new futility design futility boundary selected based preserving probability success define relative preservation probability using propose boundary selection criterion via case evaluate various operational characteristic term probability correct incorrect stopping respect futility boundary underlying true effect size timing futility increasingly nih industry sponsor establishing large collaborative effort implement multiple study simultaneously network investigator present challenge sponsor leadership team responsible monitoring activity across study business world addressed need complex information monitoring system level summarized overview called dashboard created dashboard inner city asthma consortium icac large consortium consortium eight active study conducted across ten clinical center total projected enrollment participant many program provide resource aid stakeholder supervision unfortunately traditional portal hindered overabundance information tedious navigation characteristic make inefficient resource large program dashboard avoids typical dense hierarchical construction traditional website favor comprehensive webpage display easier stakeholder access use dashboard summarize display critical information single page emphasis graphical rather display dashboard main page consortium provides comparative enrollment graph active study display pertinent deadline announcement also dedicated page follows dashboard update dashboard weekly sponsor responded positively icac dashboard voicing appreciation system efficient presentation ease use given success dashboard plan expand system federal commercial program experience suggests program would benefit creating dashboard provide sponsor network leadership team key monitoring information quick succinct manner due lack infrastructure resource poor setting despite strong need clinical coordination information communication technology systematically sustainably integrated health hospital administration practice thus limiting efficiency outcome effort fight poverty related disease technology could overcome infrastructure scarcity problem resource poor setting thus greatly support clinical integrating mobile online offline voice technology italian inter consortium cineca consortium italian university high performance computing ict year experience providing technological support health activity related design development system service health care biomedical area using advanced technology methodology particular since cineca involved project providing developing technology collect analyze clinical health related africa european funded project medishare coordinated cineca successfully managed collect standardized patient affected malaria kenya tanzania uganda one central database medishare recognized supportive millennium development goal united nation europe africa network evaluation therapy earnest trial supported european developing country clinical trial partnership edctp successfully using cineca integrated technology uganda malawi zimbabwe cineca exploit integration newer technology fill infrastructural gap africa provides sustainable centralized infrastructure fully certified quality safety security procedure developed lims manage biobank sample scottish early rheumatoid arthritis serum cohort commercial solution evaluated concluded development bespoke lims system needed provide scalability flexibility support future project different requirement system developed includes generic workflow capable modelling complex storage configuration dimension multiple geographic site storage rule sample type time storage work flow processing site collection arrival lab lab technician workflow incorporating working plate practice manual automated validation method using combination barcode technology system based tree structure sample stored parentage tree show lineage sample allowing exploration number generation derived sample tree based allows lims largely generic defining storage site configuration collection protocol system operate scenario ranging single lab collecting sample multi collection site protocol hosting thousand sample</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>['decision', 'federal', 'joint', 'committee', 'germany', 'states', 'negative', 'pressure', 'wound', 'therapy', 'accepted', 'standard', 'therapy', 'full', 'reimbursement', 'health', 'insurance', 'companies', 'germany', 'decision', 'based', 'rapid', 'report', 'final', 'report', 'institute', 'quality', 'efficiency', 'health', 'care', 'demonstrated', 'systematic', 'reviews', 'previous', 'studies', 'projects', 'insufficient', 'state', 'evidence', 'regarding', 'use', 'negative', 'pressure', 'wound', 'therapy', 'npwt', 'treatment', 'acute', 'chronic', 'wounds', 'exists', 'institute', 'operative', 'medicine', 'ifom', 'part', 'university', 'witten', 'herdecke', 'ggmbh', 'independent', 'scientific', 'institute', 'responsible', 'planning', 'implementation', 'publication', 'trial', 'projects', 'regarding', 'efficacy', 'effectiveness', 'negative', 'pressure', 'wound', 'therapy', 'acute', 'chronic', 'wounds', 'medical', 'sectors', 'outpatient', 'care', 'germany', 'projects', 'designed', 'conducted', 'aim', 'provide', 'solid', 'evidence', 'regarding', 'efficacy', 'npwt', 'trials', 'evaluate', 'treatment', 'outcome', 'application', 'technical', 'medical', 'device', 'based', 'principle', 'negative', 'pressure', 'wound', 'therapy', 'intervention', 'group', 'comparison', 'standard', 'wound', 'therapy', 'control', 'group', 'treatment', 'chronic', 'foot', 'wounds', 'acute', 'subcutaneous', 'abdominal', 'wounds', 'surgery', 'used', 'treatment', 'systems', 'bear', 'mark', 'used', 'within', 'normal', 'conditions', 'clinical', 'routine', 'according', 'manufacturer', 'instructions', 'aim', 'trial', 'projects', 'compare', 'clinical', 'safety', 'economic', 'results', 'treatment', 'arms', 'results', 'provided', 'end', 'contribute', 'final', 'decision', 'federal', 'joint', 'committee', 'germany', 'regarding', 'general', 'admission', 'negative', 'pressure', 'wound', 'therapy', 'standard', 'performance', 'within', 'medical', 'sectors', 'introduction', 'adequate', 'patient', 'recruitment', 'key', 'condition', 'determining', 'validity', 'duration', 'costs', 'rcts', 'yet', 'remains', 'challenging', 'expanding', 'interface', 'therapeutic', 'endoscopy', 'minimally', 'invasive', 'surgery', 'treatment', 'benign', 'gastrointestinal', 'diseases', 'demands', 'rcts', 'compare', 'safety', 'comparable', 'interventions', 'aimed', 'identify', 'patient', 'motives', 'barriers', 'non', 'participation', 'trend', 'methods', 'patients', 'large', 'rectal', 'adenomas', 'counseled', 'january', 'july', 'participation', 'rct', 'comparing', 'endoscopic', 'mucosal', 'resection', 'emr', 'transanal', 'endoscopic', 'microsurgery', 'tem', 'invited', 'interview', 'participants', 'participants', 'interviewees', 'asked', 'discuss', 'main', 'motive', 'participation', 'open', 'fashion', 'subsequently', 'potential', 'barriers', 'motivations', 'previously', 'described', 'literature', 'presented', 'interviewer', 'interviews', 'coded', 'analyzed', 'independent', 'researchers', 'results', 'interviewed', 'participants', 'aged', 'key', 'motive', 'trial', 'participation', 'contribution', 'medical', 'science', 'future', 'clinical', 'practice', 'participants', 'motives', 'included', 'satisfactory', 'counseling', 'sufficient', 'time', 'reflect', 'sense', 'participation', 'completely', 'voluntary', 'vast', 'majority', 'previous', 'experience', 'however', 'half', 'introduced', 'prior', 'although', 'felt', 'contributing', 'important', 'key', 'barriers', 'participation', 'included', 'distinct', 'preference', 'either', 'emr', 'tem', 'characteristics', 'like', 'type', 'sedation', 'consultation', 'family', 'members', 'affected', 'half', 'decisions', 'characteristics', 'randomization', 'blinding', 'insurance', 'ethical', 'approval', 'hardly', 'influenced', 'decision', 'making', 'conclusion', 'rcts', 'comparing', 'similar', 'endoscopic', 'surgical', 'strategies', 'thorough', 'tailored', 'timely', 'counseling', 'crucial', 'clarify', 'purpose', 'emphasize', 'presumed', 'equality', 'allocation', 'arms', 'avoidance', 'common', 'barriers', 'participation', 'improve', 'trial', 'inclusion', 'establishment', 'clinical', 'trial', 'centers', 'creates', 'demand', 'infrastructure', 'skilled', 'staff', 'establishment', 'operation', 'clinical', 'trial', 'centers', 'surgical', 'specialties', 'recent', 'years', 'often', 'conducted', 'medical', 'staff', 'addition', 'clinical', 'practice', 'intensification', 'legal', 'regulations', 'increased', 'number', 'clinical', 'trials', 'surgery', 'requires', 'rethinking', 'ability', 'fulfill', 'specialized', 'demands', 'given', 'allocating', 'sufficient', 'funds', 'funds', 'used', 'employ', 'trained', 'paramedical', 'staff', 'furthermore', 'release', 'medical', 'staff', 'clinical', 'work', 'thereby', 'enable', 'scientific', 'work', 'hand', 'demand', 'funding', 'risen', 'implement', 'infrastructural', 'requirements', 'hardware', 'premises', 'clinical', 'trial', 'center', 'established', 'operation', 'ensured', 'generating', 'additional', 'funds', 'demand', 'financing', 'clinical', 'trial', 'unit', 'meaningful', 'arranged', 'governmental', 'institutional', 'fundraising', 'operation', 'relies', 'generating', 'sufficient', 'funds', 'conduction', 'trials', 'experience', 'possibilities', 'demonstrated', 'reporting', 'different', 'strategies', 'funding', 'clinical', 'trial', 'centers', 'general', 'demand', 'funds', 'establishment', 'operation', 'clinical', 'trial', 'centers', 'therefore', 'different', 'governmental', 'industrial', 'well', 'institutional', 'supports', 'relevant', 'factors', 'europe', 'safety', 'management', 'requirements', 'clinical', 'trials', 'medical', 'devices', 'changed', 'fundamentally', 'council', 'directive', 'internationally', 'iso', 'previously', 'adverse', 'incidents', 'reported', 'competent', 'authority', 'since', 'implementation', 'directive', 'germany', 'serious', 'adverse', 'event', 'sae', 'happened', 'might', 'happened', 'patient', 'user', 'third', 'party', 'must', 'reported', 'immediately', 'sponsor', 'investigators', 'must', 'report', 'saes', 'via', 'electronic', 'form', 'centrally', 'provided', 'federal', 'institute', 'drugs', 'medical', 'devices', 'bfarm', 'besides', 'profound', 'knowledge', 'adequate', 'equipment', 'investigator', 'trial', 'sites', 'needed', 'latter', 'challenge', 'academic', 'trials', 'low', 'budgets', 'develop', 'operational', 'competence', 'quality', 'management', 'working', 'group', 'clinical', 'trials', 'centers', 'ctc', 'developed', 'harmonized', 'sop', 'describing', 'thecomplex', 'procedures', 'safety', 'management', 'sponsor', 'investigator', 'trial', 'sites', 'includes', 'appendices', 'providing', 'among', 'others', 'definitions', 'template', 'instructions', 'completing', 'electronic', 'form', 'document', 'particularly', 'suggests', 'solutions', 'regarding', 'general', 'regulatory', 'requirements', 'information', 'sponsor', 'competent', 'authority', 'implemented', 'safety', 'management', 'procedures', 'consider', 'experiences', 'derived', 'clinical', 'trials', 'medicinal', 'products', 'special', 'characteristics', 'academic', 'trials', 'increased', 'numbers', 'clinical', 'trials', 'medical', 'devices', 'expected', 'according', 'changed', 'regulations', 'ctcs', 'become', 'experienced', 'complex', 'procedures', 'thus', 'competent', 'partners', 'industry', 'conducting', 'national', 'international', 'clinical', 'trials', 'medical', 'devices', 'report', 'show', 'challenges', 'coping', 'novel', 'electronic', 'reporting', 'process', 'provide', 'experiences', 'fulfilling', 'updated', 'changed', 'german', 'national', 'regulations', 'due', 'ever', 'increasing', 'global', 'activity', 'clinical', 'knowledge', 'transfer', 'researchers', 'stakeholders', 'clinical', 'health', 'care', 'including', 'patients', 'worldwide', 'indispensable', 'requirement', 'prerequisite', 'knowledge', 'transfer', 'clinical', 'unbiased', 'complete', 'view', 'clinical', 'trial', 'results', 'arising', 'number', 'clinical', 'trials', 'registries', 'results', 'databases', 'utilized', 'different', 'user', 'groups', 'including', 'ethics', 'committees', 'clinicians', 'patients', 'researchers', 'reimbursement', 'funding', 'institutions', 'different', 'requirements', 'defined', 'parties', 'involved', 'variable', 'needs', 'met', 'seem', 'arising', 'issues', 'concerning', 'database', 'content', 'language', 'barriers', 'retrieval', 'problems', 'implementation', 'knowledge', 'daily', 'work', 'evaluation', 'existing', 'evidence', 'efforts', 'made', 'overcome', 'obstacles', 'meanwhile', 'daily', 'experience', 'conduct', 'clinical', 'quality', 'assurance', 'audit', 'involves', 'kind', 'computer', 'system', 'considered', 'assessed', 'following', 'fundamental', 'question', 'comes', 'immediately', 'mind', 'valid', 'data', 'information', 'kept', 'handled', 'systems', 'employed', 'question', 'subdivided', 'five', 'parts', 'purpose', 'session', 'basic', 'computer', 'system', 'used', 'come', 'implemented', 'validated', 'maintained', 'computer', 'system', 'application', 'used', 'specific', 'trial', 'developed', 'validated', 'deployed', 'operated', 'maintained', 'regulations', 'guidelines', 'state', 'art', 'standards', 'expected', 'observed', 'development', 'validation', 'operation', 'big', 'risks', 'data', 'quality', 'acceptability', 'outcome', 'case', 'malfunction', 'computer', 'system', 'application', 'high', 'chances', 'system', 'weaknesses', 'detected', 'standard', 'audit', 'setting', 'auditors', 'optimise', 'preparation', 'conduct', 'review', 'detect', 'hidden', 'system', 'bugs', 'session', 'presents', 'overview', 'current', 'situation', 'naming', 'specific', 'risks', 'gives', 'answers', 'questions', 'posed', 'afore', 'mainly', 'giving', 'practical', 'examples', 'proceed', 'frequent', 'audit', 'situations', 'namely', 'investigator', 'site', 'audits', 'eclinical', 'electronic', 'source', 'documents', 'cro', 'system', 'audits', 'vendor', 'audits', 'flexible', 'simple', 'bayesian', 'theoretic', 'design', 'dose', 'finding', 'trials', 'proposed', 'order', 'reduce', 'computational', 'complexity', 'adopt', 'working', 'model', 'produces', 'analytic', 'posterior', 'distributions', 'addition', 'working', 'model', 'sufficiently', 'flexible', 'fit', 'monotonic', 'curves', 'also', 'discuss', 'use', 'proper', 'utility', 'function', 'reflect', 'interest', 'trial', 'patients', 'allocated', 'based', 'utility', 'function', 'also', 'chosen', 'dose', 'selection', 'rule', 'popular', 'dose', 'selection', 'rule', 'osla', 'selects', 'best', 'far', 'dose', 'complicated', 'rules', 'ahead', 'tsla', 'surely', 'efficient', 'osla', 'required', 'distributional', 'assumptions', 'met', 'however', 'often', 'case', 'practice', 'carry', 'extensive', 'simulation', 'studies', 'evaluate', 'variety', 'dose', 'selection', 'rules', 'found', 'osla', 'often', 'efficient', 'tsla', 'proposed', 'moreover', 'simulation', 'results', 'show', 'proposed', 'performs', 'superior', 'several', 'popular', 'bayesian', 'methods', 'negative', 'impact', 'prior', 'could', 'considered', 'design', 'stage', 'isotonic', 'design', 'using', 'normalized', 'equivalent', 'toxicity', 'score', 'novel', 'phase', 'design', 'originally', 'proposed', 'chen', 'integrating', 'novel', 'toxicity', 'scoring', 'system', 'proposed', 'chen', 'original', 'isotonic', 'design', 'proposed', 'leung', 'substantially', 'improved', 'accuracy', 'maximum', 'tolerated', 'dose', 'mtd', 'estimation', 'efficiency', 'trial', 'fully', 'utilizing', 'toxicities', 'patient', 'treating', 'toxicity', 'response', 'variable', 'instead', 'binary', 'indicator', 'dose', 'limiting', 'toxicity', 'dlt', 'phase', 'clinical', 'trial', 'facilitate', 'designing', 'conducting', 'phase', 'clinical', 'trial', 'developed', 'software', 'two', 'functions', 'calculating', 'recommended', 'next', 'dose', 'level', 'completed', 'data', 'performing', 'simulation', 'obtain', 'operating', 'characteristics', 'trial', 'currently', 'available', 'download', 'http', 'building', 'toxicity', 'probability', 'interval', 'tpi', 'design', 'present', 'modified', 'tpi', 'design', 'mtpi', 'phase', 'trials', 'goal', 'simplify', 'design', 'improve', 'trial', 'conduct', 'provide', 'effective', 'safer', 'methods', 'maintaining', 'simplicity', 'original', 'tpi', 'design', 'like', 'tpi', 'mtpi', 'consists', 'practical', 'scheme', 'guided', 'posterior', 'inference', 'using', 'simple', 'bayesian', 'model', 'however', 'new', 'benefits', 'improved', 'decision', 'rules', 'based', 'new', 'statistic', 'unit', 'probability', 'mass', 'upm', 'improvement', 'use', 'upm', 'dose', 'finding', 'significant', 'present', 'extensive', 'simulation', 'results', 'comparing', 'mtpi', 'design', 'crm', 'methods', 'provide', 'convincing', 'evidence', 'mtpi', 'practically', 'superior', 'among', 'recent', 'advances', 'escalation', 'overdose', 'control', 'ewoc', 'based', 'bayesian', 'adaptive', 'phase', 'clinical', 'trial', 'designs', 'tighiouart', 'developed', 'ewoc', 'based', 'proportional', 'hazards', 'model', 'using', 'time', 'toxicity', 'estimate', 'mtd', 'shown', 'efficient', 'estimate', 'mtd', 'comparing', 'original', 'ewoc', 'version', 'time', 'event', 'ewoc', 'proposed', 'mauguen', 'extent', 'take', 'account', 'patients', 'baseline', 'covariates', 'extension', 'ewoc', 'accommodate', 'baseline', 'covariates', 'developed', 'babb', 'rogatko', 'tighiouart', 'rogatko', 'expect', 'new', 'design', 'provide', 'better', 'safety', 'protection', 'assigning', 'personalized', 'dose', 'next', 'available', 'patient', 'based', 'baseline', 'characteristics', 'lead', 'estimation', 'covariate', 'specific', 'phase', 'dose', 'assess', 'operating', 'characteristics', 'design', 'via', 'extensive', 'simulations', 'including', 'three', 'scenarios', 'design', 'using', 'covariate', 'design', 'ignoring', 'covariate', 'design', 'using', 'separate', 'trials', 'efficiency', 'estimating', 'conditional', 'mtd', 'safety', 'trial', 'compared', 'original', 'ewoc', 'covariate', 'using', 'dlt', 'binary', 'indicator', 'toxicity', 'escalation', 'overdose', 'control', 'ewoc', 'successful', 'phase', 'design', 'widely', 'used', 'chen', 'extended', 'ewoc', 'utilize', 'fully', 'toxicities', 'patients', 'instead', 'binary', 'indicator', 'dose', 'limiting', 'toxicity', 'dlt', 'incorporating', 'normalized', 'toxicity', 'scoring', 'system', 'nets', 'proposed', 'chen', 'ewoc', 'likelihood', 'new', 'design', 'called', 'demonstrated', 'simulation', 'studies', 'good', 'operating', 'characteristics', 'improve', 'accuracy', 'efficiency', 'maximum', 'tolerated', 'dose', 'mtd', 'estimation', 'relative', 'common', 'phase', 'designs', 'developed', 'interactive', 'software', 'called', 'user', 'friendly', 'facilitate', 'designing', 'conducting', 'phase', 'clinical', 'trial', 'available', 'free', 'download', 'website', 'emory', 'university', 'http', 'would', 'like', 'introduce', 'novel', 'statistical', 'software', 'translate', 'phase', 'cancer', 'clinical', 'trials', 'future', 'clinical', 'predictors', 'may', 'may', 'monotonic', 'properties', 'may', 'increasing', 'decreasing', 'pattern', 'may', 'remain', 'steady', 'period', 'observation', 'time', 'clinical', 'question', 'raised', 'increasing', 'decreasing', 'constant', 'pattern', 'variations', 'may', 'effect', 'survival', 'clinical', 'outcomes', 'independently', 'period', 'time', 'generally', 'ignore', 'point', 'transitions', 'independent', 'pattern', 'variations', 'investigating', 'overall', 'effect', 'isotonicity', 'called', 'simple', 'partial', 'ordered', 'monotonicity', 'mathematically', 'isotonic', 'regression', 'performed', 'ordered', 'monotonic', 'restrictions', 'criteria', 'either', 'increasing', 'decreasing', 'constant', 'variation', 'clinical', 'predicator', 'prognostic', 'variable', 'generates', 'problem', 'transition', 'increasing', 'order', 'decreasing', 'order', 'vice', 'versa', 'steady', 'condition', 'either', 'increasing', 'decreasing', 'pattern', 'clinical', 'predictors', 'primary', 'thrust', 'address', 'clinical', 'questions', 'using', 'cox', 'regression', 'model', 'isotonic', 'regressors', 'problems', 'case', 'multiple', 'myeloma', 'impact', 'point', 'patterns', 'clinically', 'significant', 'predictors', 'hemoglobin', 'blood', 'urea', 'nitrogen', 'white', 'blood', 'corpuscles', 'platelets', 'patients', 'median', 'survival', 'time', 'explored', 'policy', 'makers', 'denmark', 'starting', 'realize', 'rct', 'designs', 'needed', 'want', 'know', 'impact', 'social', 'interventions', 'therefore', 'ministry', 'social', 'affair', 'granted', 'funding', 'three', 'rcts', 'family', 'programs', 'multidimension', 'treatment', 'foster', 'parent', 'management', 'training', 'oregon', 'multisystemic', 'last', 'year', 'sfi', 'planning', 'studies', 'including', 'relevant', 'parts', 'process', 'process', 'long', 'challenging', 'problems', 'faced', 'include', 'pronounced', 'resistance', 'randomization', 'within', 'levels', 'social', 'services', 'economic', 'crisis', 'municipalities', 'causing', 'unwillingness', 'participate', 'significant', 'lower', 'caseload', 'mst', 'mtfc', 'teams', 'fear', 'going', 'steal', 'half', 'families', 'programs', 'underfunding', 'studies', 'resistance', 'using', 'standardized', 'tests', 'common', 'social', 'work', 'difficulties', 'getting', 'data', 'power', 'calculations', 'recurring', 'issues', 'deal', 'really', 'randomize', 'kind', 'matching', 'would', 'much', 'better', 'spend', 'money', 'wider', 'implementation', 'program', 'practice', 'oriented', 'qualitative', 'recently', 'mst', 'cancelled', 'since', 'five', 'mst', 'teams', 'declined', 'participate', 'funding', 'transferred', 'two', 'studies', 'making', 'look', 'promising', 'lot', 'resources', 'used', 'prepare', 'studies', 'expectations', 'high', 'hopefully', 'may', 'mtfc', 'recruiting', 'families', 'pmto', 'ready', 'start', 'recruiting', 'september', 'goes', 'well', 'two', 'studies', 'among', 'first', 'rcts', 'carried', 'social', 'interventions', 'denmark', 'regulatory', 'goals', 'clinical', 'different', 'exploratory', 'goals', 'food', 'drug', 'administration', 'fda', 'phase', 'investigational', 'new', 'drug', 'ind', 'studies', 'adequate', 'controlled', 'studies', 'provide', 'primary', 'clinical', 'evidence', 'support', 'marketing', 'application', 'biologic', 'license', 'application', 'bla', 'support', 'approval', 'initiation', 'studies', 'protocol', 'cover', 'statistical', 'issues', 'considered', 'reviewers', 'assessing', 'design', 'ability', 'adequately', 'address', 'objectives', 'aid', 'statistical', 'reviewers', 'well', 'improve', 'efficiency', 'consistency', 'reviews', 'protocols', 'division', 'biostatistics', 'center', 'biologics', 'evaluation', 'cber', 'developed', 'checklist', 'outlining', 'important', 'elements', 'phase', 'protocol', 'elements', 'included', 'checklist', 'consistency', 'objectives', 'endpoints', 'number', 'regions', 'sites', 'statistical', 'hypotheses', 'planned', 'interim', 'analyses', 'sample', 'size', 'assumptions', 'calculations', 'randomization', 'description', 'blinding', 'techniques', 'populations', 'multiplicity', 'considerations', 'missing', 'data', 'considerations', 'success', 'criterion', 'conduct', 'original', 'ind', 'submissions', 'protocols', 'elements', 'may', 'also', 'lead', 'less', 'correspondence', 'sponsor', 'clarify', 'items', 'protocol', 'note', 'elements', 'identified', 'checklist', 'may', 'also', 'helpful', 'designing', 'earlier', 'phase', 'studies', 'well', 'studies', 'presentation', 'focus', 'motivation', 'contents', 'use', 'checklist', 'trials', 'margin', 'must', 'defined', 'priori', 'however', 'happens', 'acceptable', 'risk', 'varies', 'according', 'physician', 'risk', 'tolerance', 'patient', 'circumstances', 'margin', 'easily', 'defined', 'discuss', 'clinical', 'trial', 'sle', 'patients', 'mmf', 'therapy', 'stable', 'disease', 'randomized', 'continue', 'therapy', 'withdraw', 'expected', 'withdrawal', 'mmf', 'result', 'increased', 'risk', 'disease', 'reactivation', 'however', 'term', 'mmf', 'treatment', 'without', 'risk', 'side', 'effects', 'goal', 'trial', 'determine', 'increase', 'risk', 'disease', 'reactivation', 'outweighs', 'benefits', 'withdrawal', 'one', 'could', 'frame', 'goal', 'test', 'hypothesis', 'increased', 'risk', 'disease', 'reactivation', 'greater', 'margin', 'determined', 'potential', 'benefit', 'however', 'risks', 'benefits', 'weighed', 'highly', 'individual', 'even', 'experienced', 'rheumatologists', 'rather', 'design', 'test', 'hypothesis', 'inferiority', 'using', 'arbitrary', 'risk', 'margin', 'may', 'may', 'relevant', 'particular', 'patient', 'results', 'trial', 'reported', 'effect', 'estimates', 'change', 'risk', 'disease', 'reactivation', 'addition', 'disease', 'activity', 'safety', 'quality', 'life', 'medication', 'use', 'endpoints', 'effect', 'estimates', 'confidence', 'intervals', 'describe', 'risks', 'benefits', 'withdrawal', 'therapy', 'may', 'used', 'guide', 'physicians', 'patients', 'making', 'decisions', 'based', 'individualized', 'assessments', 'acceptable', 'risk', 'clinicians', 'likely', 'find', 'interpretation', 'results', 'difficult', 'absence', 'hypothesis', 'testing', 'discuss', 'planned', 'disseminating', 'clinical', 'trial', 'results', 'cluster', 'randomised', 'trials', 'crts', 'compared', 'individually', 'randomised', 'trials', 'require', 'specific', 'statistical', 'models', 'need', 'take', 'account', 'variability', 'abstract', 'focuses', 'two', 'main', 'approaches', 'examines', 'efficiency', 'training', 'caregivers', 'stroke', 'trial', 'tracs', 'tracs', 'crt', 'evaluating', 'complex', 'intervention', 'stroke', 'rehabilitation', 'dyads', 'patients', 'caregivers', 'within', 'stoke', 'rehabilitation', 'units', 'primary', 'outcome', 'neadl', 'score', 'months', 'attractive', 'due', 'simplicity', 'compare', 'performance', 'three', 'techniques', 'simple', 'summaries', 'using', 'appropriate', 'sample', 'weighted', 'adjusted', 'covariates', 'nonparametric', 'methods', 'unadjusted', 'summary', 'measure', 'cluster', 'calculated', 'two', 'sets', 'measures', 'compared', 'using', 'weighted', 'performing', 'adjusted', 'covariates', 'carried', 'regression', 'intervention', 'effect', 'covariates', 'ignoring', 'clustering', 'effect', 'secondly', 'compared', 'residuals', 'cluster', 'treatment', 'arms', 'using', 'weighted', 'wilcoxon', 'rank', 'sum', 'test', 'used', 'nonparametric', 'substitute', 'test', 'using', 'random', 'effects', 'linear', 'mixed', 'model', 'stroke', 'rehabilitation', 'units', 'level', 'preferred', 'greater', 'computational', 'convenience', 'possible', 'analyse', 'intervention', 'effect', 'covariates', 'simultaneously', 'robust', 'particularly', 'smaller', 'number', 'clusters', 'however', 'may', 'statistically', 'efficient', 'especially', 'clusters', 'varying', 'size', 'weighting', 'incorporated', 'cluster', 'randomised', 'trials', 'undertaken', 'number', 'ways', 'present', 'discuss', 'advantages', 'disadvantages', 'analytical', 'methods', 'simple', 'randomisation', 'easiest', 'allocating', 'participants', 'treatment', 'groups', 'clinical', 'trials', 'long', 'run', 'balances', 'features', 'participants', 'across', 'groups', 'may', 'suitable', 'small', 'medium', 'sized', 'trials', 'larger', 'trials', 'time', 'interim', 'important', 'prognostic', 'factors', 'identified', 'design', 'stage', 'minimisation', 'help', 'balance', 'features', 'uncertainty', 'whether', 'treatment', 'groups', 'need', 'balanced', 'baseline', 'many', 'researchers', 'believe', 'advantageous', 'allowing', 'comparison', 'groups', 'without', 'need', 'sophisticated', 'balance', 'treatment', 'groups', 'desirable', 'range', 'scenarios', 'small', 'trials', 'interim', 'analyses', 'early', 'termination', 'subgroups', 'credibility', 'unbalanced', 'trial', 'considered', 'problematic', 'case', 'small', 'treatment', 'effect', 'three', 'completed', 'trials', 'varying', 'size', 'originally', 'using', 'minimisation', 'treatment', 'allocation', 'order', 'participants', 'joined', 'using', 'simple', 'randomisation', 'datasets', 'frozen', 'time', 'either', 'interim', 'full', 'used', 'three', 'trials', 'treatment', 'allocation', 'well', 'balanced', 'across', 'prognostic', 'variables', 'treatment', 'arms', 'using', 'minimisation', 'time', 'points', 'number', 'participants', 'recruited', 'time', 'simple', 'randomisation', 'timepoint', 'imbalances', 'identified', 'could', 'made', 'difficult', 'cases', 'potential', 'imbalance', 'across', 'treatment', 'groups', 'within', 'factor', 'reached', 'participants', 'given', 'characteristic', 'treatment', 'allocation', 'group', 'amount', 'sophisticated', 'could', 'compensate', 'simulations', 'demonstrated', 'need', 'incorporating', 'minimisation', 'randomisation', 'algorithm', 'trials', 'size', 'order', 'achieve', 'treatment', 'balance', 'achieved', 'using', 'simple', 'randomisation', 'alone', 'futility', 'commonly', 'utilized', 'clinical', 'trials', 'early', 'read', 'trial', 'efficacy', 'data', 'investigational', 'drug', 'declared', 'futile', 'prespecified', 'futility', 'boundary', 'met', 'trial', 'stopped', 'conventional', 'group', 'sequential', 'design', 'futility', 'boundary', 'selected', 'based', 'power', 'preservation', 'sufficient', 'conditional', 'power', 'protects', 'probability', 'rejecting', 'null', 'hypothesis', 'end', 'trial', 'however', 'observed', 'treatment', 'effect', 'size', 'increasing', 'importance', 'beyond', 'rejecting', 'null', 'hypothesis', 'directly', 'associated', 'eventual', 'success', 'drug', 'development', 'ensure', 'high', 'probability', 'observing', 'desired', 'effect', 'size', 'another', 'words', 'high', 'probability', 'success', 'propose', 'new', 'futility', 'design', 'futility', 'boundary', 'selected', 'based', 'preserving', 'probability', 'success', 'define', 'relative', 'preservation', 'probability', 'using', 'propose', 'boundary', 'selection', 'criteria', 'via', 'case', 'evaluate', 'various', 'operational', 'characteristic', 'term', 'probability', 'correct', 'incorrect', 'stopping', 'respect', 'futility', 'boundary', 'underlying', 'true', 'effect', 'size', 'timing', 'futility', 'increasingly', 'nih', 'industry', 'sponsors', 'establishing', 'large', 'collaborative', 'efforts', 'implement', 'multiple', 'studies', 'simultaneously', 'network', 'investigators', 'presents', 'challenge', 'sponsors', 'leadership', 'teams', 'responsible', 'monitoring', 'activities', 'across', 'studies', 'business', 'world', 'addressed', 'need', 'complex', 'information', 'monitoring', 'systems', 'level', 'summarized', 'overview', 'called', 'dashboard', 'created', 'dashboard', 'inner', 'city', 'asthma', 'consortium', 'icac', 'large', 'consortium', 'consortium', 'eight', 'active', 'studies', 'conducted', 'across', 'ten', 'clinical', 'centers', 'total', 'projected', 'enrollment', 'participants', 'many', 'programs', 'provide', 'resources', 'aid', 'stakeholders', 'supervision', 'unfortunately', 'traditional', 'portals', 'hindered', 'overabundance', 'information', 'tedious', 'navigation', 'characteristics', 'make', 'inefficient', 'resource', 'large', 'programs', 'dashboard', 'avoids', 'typical', 'dense', 'hierarchical', 'construction', 'traditional', 'websites', 'favor', 'comprehensive', 'webpage', 'display', 'easier', 'stakeholders', 'access', 'use', 'dashboards', 'summarize', 'display', 'critical', 'information', 'single', 'page', 'emphasis', 'graphical', 'rather', 'displays', 'dashboard', 'main', 'page', 'consortium', 'provides', 'comparative', 'enrollment', 'graphs', 'active', 'studies', 'displays', 'pertinent', 'deadlines', 'announcements', 'also', 'dedicated', 'page', 'follows', 'dashboard', 'update', 'dashboard', 'data', 'weekly', 'sponsors', 'responded', 'positively', 'icac', 'dashboard', 'voicing', 'appreciation', 'system', 'efficient', 'presentation', 'data', 'ease', 'use', 'given', 'success', 'dashboard', 'plan', 'expand', 'system', 'federal', 'commercial', 'programs', 'experience', 'suggests', 'programs', 'would', 'benefit', 'creating', 'dashboard', 'provide', 'sponsors', 'network', 'leadership', 'teams', 'key', 'monitoring', 'information', 'quick', 'succinct', 'manner', 'due', 'lack', 'infrastructure', 'resource', 'poor', 'settings', 'despite', 'strong', 'need', 'clinical', 'coordination', 'information', 'communication', 'technology', 'systematically', 'sustainably', 'integrated', 'health', 'hospital', 'administration', 'practice', 'thus', 'limiting', 'efficiency', 'outcomes', 'efforts', 'fight', 'poverty', 'related', 'diseases', 'technology', 'could', 'overcome', 'infrastructure', 'scarcity', 'problems', 'resource', 'poor', 'settings', 'thus', 'greatly', 'support', 'clinical', 'integrating', 'mobile', 'online', 'offline', 'voice', 'technology', 'italian', 'inter', 'university', 'consortium', 'cineca', 'consortium', 'italian', 'universities', 'high', 'performance', 'computing', 'ict', 'year', 'experience', 'providing', 'technological', 'support', 'health', 'activities', 'related', 'design', 'development', 'systems', 'services', 'health', 'care', 'biomedical', 'area', 'using', 'advanced', 'technologies', 'methodologies', 'particular', 'since', 'cineca', 'involved', 'projects', 'providing', 'developing', 'technology', 'collect', 'analyze', 'clinical', 'health', 'related', 'data', 'africa', 'european', 'funded', 'project', 'medishare', 'coordinated', 'cineca', 'successfully', 'managed', 'collect', 'standardized', 'data', 'patients', 'affected', 'malaria', 'kenya', 'tanzania', 'uganda', 'one', 'central', 'database', 'medishare', 'recognized', 'supportive', 'millennium', 'development', 'goals', 'united', 'nations', 'europe', 'africa', 'network', 'evaluation', 'therapy', 'earnest', 'trial', 'supported', 'european', 'developing', 'countries', 'clinical', 'trials', 'partnership', 'edctp', 'successfully', 'using', 'cineca', 'integrated', 'technology', 'uganda', 'malawi', 'zimbabwe', 'cineca', 'exploits', 'integration', 'newer', 'technologies', 'fill', 'infrastructural', 'gaps', 'africa', 'provides', 'sustainable', 'centralized', 'infrastructure', 'fully', 'certified', 'quality', 'safety', 'security', 'procedures', 'developed', 'lims', 'manage', 'biobank', 'samples', 'scottish', 'early', 'rheumatoid', 'arthritis', 'sera', 'cohort', 'commercial', 'solutions', 'evaluated', 'concluded', 'development', 'bespoke', 'lims', 'system', 'needed', 'provide', 'scalability', 'flexibility', 'support', 'future', 'projects', 'different', 'requirements', 'system', 'developed', 'includes', 'generic', 'workflow', 'capable', 'modelling', 'complex', 'storage', 'configurations', 'dimensions', 'multiple', 'geographic', 'sites', 'storage', 'rules', 'sample', 'type', 'time', 'storage', 'work', 'flow', 'processing', 'site', 'collection', 'arrival', 'labs', 'lab', 'technician', 'workflows', 'incorporating', 'working', 'plate', 'practices', 'manual', 'automated', 'validation', 'methods', 'using', 'combination', 'barcode', 'technologies', 'system', 'based', 'tree', 'structure', 'samples', 'stored', 'parentage', 'tree', 'shows', 'lineage', 'sample', 'allowing', 'exploration', 'number', 'generations', 'derived', 'samples', 'tree', 'based', 'allows', 'lims', 'largely', 'generic', 'defining', 'storage', 'site', 'configuration', 'collection', 'protocols', 'system', 'operate', 'scenarios', 'ranging', 'single', 'lab', 'collecting', 'samples', 'multi', 'collection', 'site', 'protocol', 'hosting', 'thousands', 'samples']</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Journal Article</t>
+        </is>
+      </c>
+      <c r="AL29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1063,20 +4427,126 @@
           <t>Some aspects of the behaviour of pelagic species species off Angola and its implication on biomass estimation</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pelagic fish off Angola constitute about 80% of the total fish landed and 75% of animal protein in the diet of the coastal population. In Angola, the primary means for estimating abundance of small pelagic fish is through acoustic surveys, a method that is sensitive to errors caused by effects of fish behaviour, particularly those that may reduce the acoustic detectability offish. This study describes the interannual variability of the fishery and stocks pelagic off Angola and their behaviour in relation to the abundance estimation. The dynamics of the two main pelagic species, Cunene horse mackerel and Sardinela spp off Angola differ. In recent years the biomass of Sardinela spp is at stable level, whereas the Cunene horse mackerel is at critical level. It was observe that a relatively straightforward analysis of conventional acoustic survey data collected at a single- frequency combined with ancillary spatio-temporal information can provide useful indications on the identification of single- and multi species aggregations of small pelagic fish. With regard to their behaviour, Cunene horse mackerel tend to concentrate in dense schools near the seabed, but at night they move into the pelagic zone, dispersing into widespread scattering layers. The present study found that under some conditions fish tend to avoid the vessel vertically, diving below 12 m depth as vessel was passing over the fish. In general, the results of this study should help improve Angola improve the knowledge of the behaviour of pelagic species off Angola and the quality of the abundance estimations produced.</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2007525277</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Velho, Filomena Vaz</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2011</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://hdl.handle.net/10400.1/7737 , (UMI)AAI10598455 , Biological sciences , Applied sciences , Pelagic fish</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9781083614896</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>PQDT - Global</t>
+        </is>
+      </c>
+      <c r="AB30" t="n">
         <v>2011</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Velho, Filomena Vaz</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Pelagic fish off Angola constitute about 80% of the total fish landed and 75% of animal protein in the diet of the coastal population. In Angola, the primary means for estimating abundance of small pelagic fish is through acoustic surveys, a method that is sensitive to errors caused by effects of fish behaviour, particularly those that may reduce the acoustic detectability offish. This study describes the interannual variability of the fishery and stocks pelagic off Angola and their behaviour in relation to the abundance estimation. The dynamics of the two main pelagic species, Cunene horse mackerel and Sardinela spp off Angola differ. In recent years the biomass of Sardinela spp is at stable level, whereas the Cunene horse mackerel is at critical level. It was observe that a relatively straightforward analysis of conventional acoustic survey data collected at a single- frequency combined with ancillary spatio-temporal information can provide useful indications on the identification of single- and multi species aggregations of small pelagic fish. With regard to their behaviour, Cunene horse mackerel tend to concentrate in dense schools near the seabed, but at night they move into the pelagic zone, dispersing into widespread scattering layers. The present study found that under some conditions fish tend to avoid the vessel vertically, diving below 12 m depth as vessel was passing over the fish. In general, the results of this study should help improve Angola improve the knowledge of the behaviour of pelagic species off Angola and the quality of the abundance estimations produced.</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/some-aspects-behaviour-pelagic-species-off-angola/docview/2007525277/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Some+aspects+of+the+behaviour+of+pelagic+species+species+off+Angola+and+its+implication+on+biomass+estimation&amp;amp;issn=&amp;amp;date=2011-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Velho%2C+Filomena+Vaz&amp;amp;isbn=9781083614896&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>pelagic fish angola constitute total fish landed animal protein diet coastal population angola primary mean estimating abundance small pelagic fish acoustic survey sensitive error caused effect fish behaviour particularly may reduce acoustic detectability offish describes interannual variability fishery stock pelagic angola behaviour relation abundance estimation dynamic two main pelagic specie cunene horse mackerel sardinela spp angola differ recent year biomass sardinela spp stable level whereas cunene horse mackerel critical level observe relatively straightforward conventional acoustic survey collected frequency combined ancillary information provide useful indication identification multi specie aggregation small pelagic fish regard behaviour cunene horse mackerel tend concentrate dense school near seabed night move pelagic zone dispersing widespread scattering layer present found condition fish tend avoid vessel vertically diving depth vessel passing fish general result help improve angola improve knowledge behaviour pelagic specie angola quality abundance estimation produced</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>['pelagic', 'fish', 'angola', 'constitute', 'total', 'fish', 'landed', 'animal', 'protein', 'diet', 'coastal', 'population', 'angola', 'primary', 'means', 'estimating', 'abundance', 'small', 'pelagic', 'fish', 'acoustic', 'surveys', 'sensitive', 'errors', 'caused', 'effects', 'fish', 'behaviour', 'particularly', 'may', 'reduce', 'acoustic', 'detectability', 'offish', 'describes', 'interannual', 'variability', 'fishery', 'stocks', 'pelagic', 'angola', 'behaviour', 'relation', 'abundance', 'estimation', 'dynamics', 'two', 'main', 'pelagic', 'species', 'cunene', 'horse', 'mackerel', 'sardinela', 'spp', 'angola', 'differ', 'recent', 'years', 'biomass', 'sardinela', 'spp', 'stable', 'level', 'whereas', 'cunene', 'horse', 'mackerel', 'critical', 'level', 'observe', 'relatively', 'straightforward', 'conventional', 'acoustic', 'survey', 'data', 'collected', 'frequency', 'combined', 'ancillary', 'information', 'provide', 'useful', 'indications', 'identification', 'multi', 'species', 'aggregations', 'small', 'pelagic', 'fish', 'regard', 'behaviour', 'cunene', 'horse', 'mackerel', 'tend', 'concentrate', 'dense', 'schools', 'near', 'seabed', 'night', 'move', 'pelagic', 'zone', 'dispersing', 'widespread', 'scattering', 'layers', 'present', 'found', 'conditions', 'fish', 'tend', 'avoid', 'vessel', 'vertically', 'diving', 'depth', 'vessel', 'passing', 'fish', 'general', 'results', 'help', 'improve', 'angola', 'improve', 'knowledge', 'behaviour', 'pelagic', 'species', 'angola', 'quality', 'abundance', 'estimations', 'produced']</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1084,20 +4554,146 @@
           <t>General Dynamics Information Technology: Delivering Full Spectrum Logistics</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>General Dynamics IT serves the military service branches and Joint commands, U.S. Department of Defense (DoD) agencies, the Intelligence Community, federal civilian agencies such as the U.S. Departments of Justice and Homeland Security, law enforcement agencies, and major corporations. The U.S. Navy Space and Naval Warfare Systems Center San Diego depends on General Dynamics IT for research, development, and test and evaluation services, including all aspects of C4I systems engineering for submarine communications support.</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>895974757</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Trade Journals</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Anonymous</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LGSCAN</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> General Dynamics Corp</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Copyright Society of Logistics Engineers Apr-Jun 2010</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Feature</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Apr-Jun 2010</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Logistics</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0024-5852</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>2</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Huntsville</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Apr-Jun 2010</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>Logistics Spectrum</t>
+        </is>
+      </c>
+      <c r="AB31" t="n">
         <v>2010</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Anonymous</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>General Dynamics IT serves the military service branches and Joint commands, U.S. Department of Defense (DoD) agencies, the Intelligence Community, federal civilian agencies such as the U.S. Departments of Justice and Homeland Security, law enforcement agencies, and major corporations. The U.S. Navy Space and Naval Warfare Systems Center San Diego depends on General Dynamics IT for research, development, and test and evaluation services, including all aspects of C4I systems engineering for submarine communications support.</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/trade-journals/general-dynamics-information-technology/docview/895974757/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=article&amp;amp;sid=ProQ:ProQ%3Amilitary&amp;amp;atitle=General+Dynamics+Information+Technology%3A+Delivering+Full+Spectrum+Logistics&amp;amp;title=Logistics+Spectrum&amp;amp;issn=00245852&amp;amp;date=2010-04-01&amp;amp;volume=44&amp;amp;issue=2&amp;amp;spage=27&amp;amp;au=Anonymous&amp;amp;isbn=&amp;amp;jtitle=Logistics+Spectrum&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Military Database, ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>general dynamic serf service branch joint command agency intelligence community federal civilian agency department justice homeland security law enforcement agency major corporation navy space naval warfare system center san diego depends general dynamic development test evaluation service including aspect system engineering submarine communication support</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>['general', 'dynamics', 'serves', 'service', 'branches', 'joint', 'commands', 'agencies', 'intelligence', 'community', 'federal', 'civilian', 'agencies', 'departments', 'justice', 'homeland', 'security', 'law', 'enforcement', 'agencies', 'major', 'corporations', 'navy', 'space', 'naval', 'warfare', 'systems', 'center', 'san', 'diego', 'depends', 'general', 'dynamics', 'development', 'test', 'evaluation', 'services', 'including', 'aspects', 'systems', 'engineering', 'submarine', 'communications', 'support']</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="AL31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1105,20 +4701,126 @@
           <t>Factors influencing intent to persist in higher education of participants in U.S. Army Reserve Officer Training Corps (ROTC) programs</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>The preponderance of research examining college student retention has focused on the influence of academic and social integration factors (Bean, 2005; Braxton, Hirschy, &amp;amp; McClendon, 2004; Pascarella &amp;amp; Terenzini, 1980; Tinto, 1993). Recent research suggested that psychosocial factors may be significantly related to student departure decisions (Bean, 2005). In addition, the psychological construct of hardiness has been positively correlated to retention of students in higher education (Lifton, Seay, McCarly, Olive-Taylor, Seeger, &amp;amp; Bigbee, 2006). The attributes associated with Communities of Practice (CoPs) may include many of the factors that might be considered psychosocial variables (Lave &amp;amp; Wenger, 1991; Stein, 1998; Wenger, 1998a). The function of CoPs is the promotion of individual and group learning that offered meaning and united members (Wenger, 1998a). The U.S. Army ROTC program offered a community of practice that encouraged learning through both formal and informal learning experiences and provided the social and psychological development variables that may contribute to retention. This study examines the extent to which the social and psychological variables, including hardiness, influenced the retention of participants in U.S. Army ROTC in higher education. Assessments measuring the variables were administered to participants in U.S. Army ROTC programs, and the results were analyzed using a logistic regression model to determine the probability of persistence in higher education.</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>758436316</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Johnston, Susan M.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2010</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Education , Social sciences , Army Reserve Officer Training Corps , College student retention , Community of practice , Intent to persist , United States Army ROTC</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 978-1-124-25874-4</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB32" t="n">
         <v>2010</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Johnston, Susan M.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>The preponderance of research examining college student retention has focused on the influence of academic and social integration factors (Bean, 2005; Braxton, Hirschy, &amp;amp; McClendon, 2004; Pascarella &amp;amp; Terenzini, 1980; Tinto, 1993). Recent research suggested that psychosocial factors may be significantly related to student departure decisions (Bean, 2005). In addition, the psychological construct of hardiness has been positively correlated to retention of students in higher education (Lifton, Seay, McCarly, Olive-Taylor, Seeger, &amp;amp; Bigbee, 2006). The attributes associated with Communities of Practice (CoPs) may include many of the factors that might be considered psychosocial variables (Lave &amp;amp; Wenger, 1991; Stein, 1998; Wenger, 1998a). The function of CoPs is the promotion of individual and group learning that offered meaning and united members (Wenger, 1998a). The U.S. Army ROTC program offered a community of practice that encouraged learning through both formal and informal learning experiences and provided the social and psychological development variables that may contribute to retention. This study examines the extent to which the social and psychological variables, including hardiness, influenced the retention of participants in U.S. Army ROTC in higher education. Assessments measuring the variables were administered to participants in U.S. Army ROTC programs, and the results were analyzed using a logistic regression model to determine the probability of persistence in higher education.</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/factors-influencing-intent-persist-higher/docview/758436316/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Factors+influencing+intent+to+persist+in+higher+education+of+participants+in+U.S.+Army+Reserve+Officer+Training+Corps+%28ROTC%29+programs&amp;amp;issn=&amp;amp;date=2010-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Johnston%2C+Susan+M.&amp;amp;isbn=978-1-124-25874-4&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>preponderance examining college student retention focused influence academic social integration factor bean braxton hirschy amp mcclendon pascarella amp terenzini tinto recent suggested psychosocial factor may significantly related student departure decision bean addition psychological construct hardiness positively correlated retention student higher education lifton seay mccarly seeger amp bigbee attribute associated community practice cop may include many factor might considered psychosocial variable lave amp wenger stein wenger function cop promotion individual group learning offered meaning united member wenger army rotc program offered community practice encouraged learning formal informal learning experience provided social psychological development variable may contribute retention examines extent social psychological variable including hardiness influenced retention participant army rotc higher education assessment measuring variable administered participant army rotc program result analyzed using logistic regression model determine probability persistence higher education</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>['preponderance', 'examining', 'college', 'student', 'retention', 'focused', 'influence', 'academic', 'social', 'integration', 'factors', 'bean', 'braxton', 'hirschy', 'amp', 'mcclendon', 'pascarella', 'amp', 'terenzini', 'tinto', 'recent', 'suggested', 'psychosocial', 'factors', 'may', 'significantly', 'related', 'student', 'departure', 'decisions', 'bean', 'addition', 'psychological', 'construct', 'hardiness', 'positively', 'correlated', 'retention', 'students', 'higher', 'education', 'lifton', 'seay', 'mccarly', 'seeger', 'amp', 'bigbee', 'attributes', 'associated', 'communities', 'practice', 'cops', 'may', 'include', 'many', 'factors', 'might', 'considered', 'psychosocial', 'variables', 'lave', 'amp', 'wenger', 'stein', 'wenger', 'function', 'cops', 'promotion', 'individual', 'group', 'learning', 'offered', 'meaning', 'united', 'members', 'wenger', 'army', 'rotc', 'program', 'offered', 'community', 'practice', 'encouraged', 'learning', 'formal', 'informal', 'learning', 'experiences', 'provided', 'social', 'psychological', 'development', 'variables', 'may', 'contribute', 'retention', 'examines', 'extent', 'social', 'psychological', 'variables', 'including', 'hardiness', 'influenced', 'retention', 'participants', 'army', 'rotc', 'higher', 'education', 'assessments', 'measuring', 'variables', 'administered', 'participants', 'army', 'rotc', 'programs', 'results', 'analyzed', 'using', 'logistic', 'regression', 'model', 'determine', 'probability', 'persistence', 'higher', 'education']</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1126,20 +4828,126 @@
           <t>Information assurance within the United States Air Force</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>According to the Department of Defense (DoD), a review of information assurance (IA) in the United States Air Force (USAF) in 2009, cyber security is jeopardized because of information loss. This situation has occurred in large part because of less than optimal training practices or adherence to training protocols. The purpose of this study was to determine if conformity to protocols was lessoned because of the current self-paced training regimen and whether or not trainees who spent more time on their training were correspondingly more likely to utilize security protocols. An ex-post facto quasi-experimental design and quantitative analysis were used to determine the training impact of current practices in establishing IA conformance to protocols in the USAF. Dependent variable data regarding IA training was collected from a sampling of military and civilian USAF DoD employees. Comparisons between user conformity levels to IA procedures after required training and between users’ perceptions of time spent in training and conformity to IA protocols, demonstrated that increased IA training time equated to an overall perceived greater understanding of both IA roles and conformance with security protocols. The results of this study have the potential to contribute to positive social change by helping the DoD understand the impact of some training dynamics on user compliance with IA protocols in the USAF cyber network. Thus, by utilizing the results of this study, the USAF could insure a higher level of user conformity with IA security protocols.</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>205432476</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Cherry, John D.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2010</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Applied sciences , Assurance , Cyber , Department of Defense , DoD , Information , Training , USAF , United States Air Force</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 978-1-109-70225-5</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB33" t="n">
         <v>2010</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Cherry, John D.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>According to the Department of Defense (DoD), a review of information assurance (IA) in the United States Air Force (USAF) in 2009, cyber security is jeopardized because of information loss. This situation has occurred in large part because of less than optimal training practices or adherence to training protocols. The purpose of this study was to determine if conformity to protocols was lessoned because of the current self-paced training regimen and whether or not trainees who spent more time on their training were correspondingly more likely to utilize security protocols. An ex-post facto quasi-experimental design and quantitative analysis were used to determine the training impact of current practices in establishing IA conformance to protocols in the USAF. Dependent variable data regarding IA training was collected from a sampling of military and civilian USAF DoD employees. Comparisons between user conformity levels to IA procedures after required training and between users’ perceptions of time spent in training and conformity to IA protocols, demonstrated that increased IA training time equated to an overall perceived greater understanding of both IA roles and conformance with security protocols. The results of this study have the potential to contribute to positive social change by helping the DoD understand the impact of some training dynamics on user compliance with IA protocols in the USAF cyber network. Thus, by utilizing the results of this study, the USAF could insure a higher level of user conformity with IA security protocols.</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/information-assurance-within-united-states-air/docview/205432476/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Information+assurance+within+the+United+States+Air+Force&amp;amp;issn=&amp;amp;date=2010-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Cherry%2C+John+D.&amp;amp;isbn=978-1-109-70225-5&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>according review information assurance united state air force usaf cyber security jeopardized information loss situation occurred large part less optimal training practice adherence training protocol purpose determine conformity protocol lessoned current training regimen whether trainee spent time training correspondingly likely utilize security protocol facto design quantitative used determine training impact current practice establishing conformance protocol usaf dependent variable regarding training collected sampling civilian usaf employee comparison user conformity level procedure required training user perception time spent training conformity protocol demonstrated increased training time equated overall perceived greater understanding role conformance security protocol result potential contribute positive social change helping understand impact training dynamic user compliance protocol usaf cyber network thus utilizing result usaf could insure higher level user conformity security protocol</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>['according', 'review', 'information', 'assurance', 'united', 'states', 'air', 'force', 'usaf', 'cyber', 'security', 'jeopardized', 'information', 'loss', 'situation', 'occurred', 'large', 'part', 'less', 'optimal', 'training', 'practices', 'adherence', 'training', 'protocols', 'purpose', 'determine', 'conformity', 'protocols', 'lessoned', 'current', 'training', 'regimen', 'whether', 'trainees', 'spent', 'time', 'training', 'correspondingly', 'likely', 'utilize', 'security', 'protocols', 'facto', 'design', 'quantitative', 'used', 'determine', 'training', 'impact', 'current', 'practices', 'establishing', 'conformance', 'protocols', 'usaf', 'dependent', 'variable', 'data', 'regarding', 'training', 'collected', 'sampling', 'civilian', 'usaf', 'employees', 'comparisons', 'user', 'conformity', 'levels', 'procedures', 'required', 'training', 'users', 'perceptions', 'time', 'spent', 'training', 'conformity', 'protocols', 'demonstrated', 'increased', 'training', 'time', 'equated', 'overall', 'perceived', 'greater', 'understanding', 'roles', 'conformance', 'security', 'protocols', 'results', 'potential', 'contribute', 'positive', 'social', 'change', 'helping', 'understand', 'impact', 'training', 'dynamics', 'user', 'compliance', 'protocols', 'usaf', 'cyber', 'network', 'thus', 'utilizing', 'results', 'usaf', 'could', 'insure', 'higher', 'level', 'user', 'conformity', 'security', 'protocols']</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1147,20 +4955,130 @@
           <t>Defining and using the subject matter expert's role in transforming Army training and education programs</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>The United States Army is a complex and diverse organization that must keep pace with the changing global environment to meet its Constitutional responsibility to fight and win the nation’s wars. Today, organizations, doctrine, logistics, material, facilities, concepts, techniques, procedures, and training and education are all changing to meet the Army’s requirements to fight in the new global war on terrorism. Given the complex nature of the Army and the transformation that is occurring, constant training and education is required to keep pace and to meet the Army’s evolving mission requirements. The traditional training and education model for the U.S. Army is insufficient to meet the meet the demands of the contemporary operational environment characterized by rapid technological insertions and a volatile global political situation (Cianciolo, 2007). The Army leadership wants all soldiers to engage in learning wherever they are located (Byrnes, 2003). In response, the Army is changing education and training models using a blend of resident and nonresident instruction (distributed learning) and training to keep pace with transformation and provide the training and education that meets the Army’s needs and helps maintain soldier readiness. The use of Subject Matter Experts, employing the expertise of those on the leading edge in the shifting environment the army now faces, and the expertise found in the resident Army schools with expertise from industry, academia and others that have current skills and knowledge, will help produce what the Army wants; a combat ready soldier.</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>305125141</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Wilson, William Rollyn</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Army-US</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2009</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Social sciences , Education , Army training , Leadership , Subject matter expert</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 978-1-109-67554-2</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB34" t="n">
         <v>2009</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Wilson, William Rollyn</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>The United States Army is a complex and diverse organization that must keep pace with the changing global environment to meet its Constitutional responsibility to fight and win the nation’s wars. Today, organizations, doctrine, logistics, material, facilities, concepts, techniques, procedures, and training and education are all changing to meet the Army’s requirements to fight in the new global war on terrorism. Given the complex nature of the Army and the transformation that is occurring, constant training and education is required to keep pace and to meet the Army’s evolving mission requirements. The traditional training and education model for the U.S. Army is insufficient to meet the meet the demands of the contemporary operational environment characterized by rapid technological insertions and a volatile global political situation (Cianciolo, 2007). The Army leadership wants all soldiers to engage in learning wherever they are located (Byrnes, 2003). In response, the Army is changing education and training models using a blend of resident and nonresident instruction (distributed learning) and training to keep pace with transformation and provide the training and education that meets the Army’s needs and helps maintain soldier readiness. The use of Subject Matter Experts, employing the expertise of those on the leading edge in the shifting environment the army now faces, and the expertise found in the resident Army schools with expertise from industry, academia and others that have current skills and knowledge, will help produce what the Army wants; a combat ready soldier.</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/defining-using-subject-matter-experts-role/docview/305125141/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Defining+and+using+the+subject+matter+expert%27s+role+in+transforming+Army+training+and+education+programs&amp;amp;issn=&amp;amp;date=2009-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Wilson%2C+William+Rollyn&amp;amp;isbn=978-1-109-67554-2&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>Military Database, ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>united state army complex diverse organization must keep pace changing global environment meet constitutional responsibility fight win nation war today organization doctrine logistics material facility concept technique procedure training education changing meet army requirement fight new global war terrorism given complex nature army transformation occurring constant training education required keep pace meet army evolving mission requirement traditional training education model army insufficient meet meet demand contemporary operational environment characterized rapid technological insertion volatile global political situation cianciolo army leadership want soldier engage learning wherever located byrnes response army changing education training model using blend resident nonresident instruction distributed learning training keep pace transformation provide training education meet army need help maintain soldier readiness use subject matter expert employing expertise leading edge shifting environment army face expertise found resident army school expertise industry academia others current skill knowledge help produce army want combat ready soldier</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>['united', 'states', 'army', 'complex', 'diverse', 'organization', 'must', 'keep', 'pace', 'changing', 'global', 'environment', 'meet', 'constitutional', 'responsibility', 'fight', 'win', 'nation', 'wars', 'today', 'organizations', 'doctrine', 'logistics', 'material', 'facilities', 'concepts', 'techniques', 'procedures', 'training', 'education', 'changing', 'meet', 'army', 'requirements', 'fight', 'new', 'global', 'war', 'terrorism', 'given', 'complex', 'nature', 'army', 'transformation', 'occurring', 'constant', 'training', 'education', 'required', 'keep', 'pace', 'meet', 'army', 'evolving', 'mission', 'requirements', 'traditional', 'training', 'education', 'model', 'army', 'insufficient', 'meet', 'meet', 'demands', 'contemporary', 'operational', 'environment', 'characterized', 'rapid', 'technological', 'insertions', 'volatile', 'global', 'political', 'situation', 'cianciolo', 'army', 'leadership', 'wants', 'soldiers', 'engage', 'learning', 'wherever', 'located', 'byrnes', 'response', 'army', 'changing', 'education', 'training', 'models', 'using', 'blend', 'resident', 'nonresident', 'instruction', 'distributed', 'learning', 'training', 'keep', 'pace', 'transformation', 'provide', 'training', 'education', 'meets', 'army', 'needs', 'helps', 'maintain', 'soldier', 'readiness', 'use', 'subject', 'matter', 'experts', 'employing', 'expertise', 'leading', 'edge', 'shifting', 'environment', 'army', 'faces', 'expertise', 'found', 'resident', 'army', 'schools', 'expertise', 'industry', 'academia', 'others', 'current', 'skills', 'knowledge', 'help', 'produce', 'army', 'wants', 'combat', 'ready', 'soldier']</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1168,20 +5086,126 @@
           <t>Regression analysis of automatic measurement systems</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>The Department of Defense (DoD) testing methodology for the evaluation and acceptance between existing and emerging automatic measurement systems are based on qualitative (PASS/FAIL) criteria of the automatic measurement systems responses when testing of a unit-under-test. Acceptance of a unit-under-test, based on qualitative responses, is contingent upon accurate measurements by the automatic measurement system. This dissertation presents a regression analysis methodology for evaluating the performance between automatic measurement systems that are functionally equivalent but technologically different. The motivation for this research is to advance regression analysis techniques in the transportability of unit-under-tests between current and emerging measurement systems. Given the acquisition cost, schedule and technical challenges in developing new systems, this methodology will provide increased confidence for the acquisition community to make informed decisions about the capability of future automatic measurement systems. The regression analysis methodology presented, quantitatively analyzes the parametric responses by functionally decomposing the automatic measurement systems to their lowest functional capability, and subsequently integrates the total automated measurement system for a unit-under-test's parametric responses.</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>304880219</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Flynn, Michael J.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2009</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Applied sciences , Automatic test equipment , Exploratory data analysis , Measurment systems , Regression analysis , Systems analysis</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 978-1-109-04935-0</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB35" t="n">
         <v>2009</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Flynn, Michael J.</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>The Department of Defense (DoD) testing methodology for the evaluation and acceptance between existing and emerging automatic measurement systems are based on qualitative (PASS/FAIL) criteria of the automatic measurement systems responses when testing of a unit-under-test. Acceptance of a unit-under-test, based on qualitative responses, is contingent upon accurate measurements by the automatic measurement system. This dissertation presents a regression analysis methodology for evaluating the performance between automatic measurement systems that are functionally equivalent but technologically different. The motivation for this research is to advance regression analysis techniques in the transportability of unit-under-tests between current and emerging measurement systems. Given the acquisition cost, schedule and technical challenges in developing new systems, this methodology will provide increased confidence for the acquisition community to make informed decisions about the capability of future automatic measurement systems. The regression analysis methodology presented, quantitatively analyzes the parametric responses by functionally decomposing the automatic measurement systems to their lowest functional capability, and subsequently integrates the total automated measurement system for a unit-under-test's parametric responses.</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/regression-analysis-automatic-measurement-systems/docview/304880219/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Regression+analysis+of+automatic+measurement+systems&amp;amp;issn=&amp;amp;date=2009-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Flynn%2C+Michael+J.&amp;amp;isbn=978-1-109-04935-0&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>testing evaluation acceptance existing emerging automatic measurement system based qualitative criterion automatic measurement system response testing acceptance based qualitative response contingent upon accurate measurement automatic measurement system present regression evaluating performance automatic measurement system functionally equivalent technologically different motivation advance regression technique transportability current emerging measurement system given acquisition cost schedule technical challenge developing new system provide increased confidence acquisition community make informed decision capability future automatic measurement system regression presented quantitatively analyzes parametric response functionally decomposing automatic measurement system lowest functional capability subsequently integrates total automated measurement system parametric response</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>['testing', 'evaluation', 'acceptance', 'existing', 'emerging', 'automatic', 'measurement', 'systems', 'based', 'qualitative', 'criteria', 'automatic', 'measurement', 'systems', 'responses', 'testing', 'acceptance', 'based', 'qualitative', 'responses', 'contingent', 'upon', 'accurate', 'measurements', 'automatic', 'measurement', 'system', 'dissertation', 'presents', 'regression', 'evaluating', 'performance', 'automatic', 'measurement', 'systems', 'functionally', 'equivalent', 'technologically', 'different', 'motivation', 'advance', 'regression', 'techniques', 'transportability', 'current', 'emerging', 'measurement', 'systems', 'given', 'acquisition', 'cost', 'schedule', 'technical', 'challenges', 'developing', 'new', 'systems', 'provide', 'increased', 'confidence', 'acquisition', 'community', 'make', 'informed', 'decisions', 'capability', 'future', 'automatic', 'measurement', 'systems', 'regression', 'presented', 'quantitatively', 'analyzes', 'parametric', 'responses', 'functionally', 'decomposing', 'automatic', 'measurement', 'systems', 'lowest', 'functional', 'capability', 'subsequently', 'integrates', 'total', 'automated', 'measurement', 'system', 'parametric', 'responses']</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1189,20 +5213,126 @@
           <t>Army leadership and human resource processes to attract, retain, reward, and develop a civilian workforce</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>This study focuses on the difficult issues that the leadership of the Department of the Army is confronting the following concerns: attracting, retaining, rewarding, and developing a civilian workforce that is able to exceed mission demands with shrinking resources. This case study was established with the primary source of information being the National Defense Act, Government Accounting Office reports, papers, and speeches presented by high-ranking government officials, academia, and private sector experts. Review of literature from the government and private sector provides the database that displays knowledge concerning a civilian workforce that can be developed, acquired, and sustained. In addition the framework of a case study provides a flexible design that unfolds as the research proceeds. The survey includes such topics as: tenure, roles, certification, values, education, culture, teaming, and implementation factors with other topics that are relevant to a civilian workforce. This survey will answer how and why with an unbiased, multidimensional perspective for attracting and retaining a talented civilian workforce (Simon and Francis, 2001). The methodology utilized in this case study was real-life situations based on factual literature in today's Defense Industry.</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>304831668</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Roberts, Charles R.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2008</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Social sciences , Army , Civilian workforce , Human resource processes , Leadership , Recruiting a viable workforce , Retaining a viable workforce , Rewarding a viable workforce , Workforce development</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 978-0-549-41028-7</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB36" t="n">
         <v>2008</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Roberts, Charles R.</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>This study focuses on the difficult issues that the leadership of the Department of the Army is confronting the following concerns: attracting, retaining, rewarding, and developing a civilian workforce that is able to exceed mission demands with shrinking resources. This case study was established with the primary source of information being the National Defense Act, Government Accounting Office reports, papers, and speeches presented by high-ranking government officials, academia, and private sector experts. Review of literature from the government and private sector provides the database that displays knowledge concerning a civilian workforce that can be developed, acquired, and sustained. In addition the framework of a case study provides a flexible design that unfolds as the research proceeds. The survey includes such topics as: tenure, roles, certification, values, education, culture, teaming, and implementation factors with other topics that are relevant to a civilian workforce. This survey will answer how and why with an unbiased, multidimensional perspective for attracting and retaining a talented civilian workforce (Simon and Francis, 2001). The methodology utilized in this case study was real-life situations based on factual literature in today's Defense Industry.</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/army-leadership-human-resource-processes-attract/docview/304831668/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Army+leadership+and+human+resource+processes+to+attract%2C+retain%2C+reward%2C+and+develop+a+civilian+workforce&amp;amp;issn=&amp;amp;date=2008-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Roberts%2C+Charles+R.&amp;amp;isbn=978-0-549-41028-7&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Military Database, ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>focus difficult issue leadership army confronting following concern attracting retaining rewarding developing civilian workforce able exceed mission demand shrinking resource case established primary source information national act government accounting office report paper speech presented government official academia private sector expert review literature government private sector provides database display knowledge concerning civilian workforce developed acquired sustained addition framework case provides flexible design unfolds proceeds survey includes topic tenure role certification value education culture teaming implementation factor topic relevant civilian workforce survey answer unbiased multidimensional perspective attracting retaining talented civilian workforce simon francis utilized case situation based factual literature today industry</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>['focuses', 'difficult', 'issues', 'leadership', 'army', 'confronting', 'following', 'concerns', 'attracting', 'retaining', 'rewarding', 'developing', 'civilian', 'workforce', 'able', 'exceed', 'mission', 'demands', 'shrinking', 'resources', 'case', 'established', 'primary', 'source', 'information', 'national', 'act', 'government', 'accounting', 'office', 'reports', 'papers', 'speeches', 'presented', 'government', 'officials', 'academia', 'private', 'sector', 'experts', 'review', 'literature', 'government', 'private', 'sector', 'provides', 'database', 'displays', 'knowledge', 'concerning', 'civilian', 'workforce', 'developed', 'acquired', 'sustained', 'addition', 'framework', 'case', 'provides', 'flexible', 'design', 'unfolds', 'proceeds', 'survey', 'includes', 'topics', 'tenure', 'roles', 'certification', 'values', 'education', 'culture', 'teaming', 'implementation', 'factors', 'topics', 'relevant', 'civilian', 'workforce', 'survey', 'answer', 'unbiased', 'multidimensional', 'perspective', 'attracting', 'retaining', 'talented', 'civilian', 'workforce', 'simon', 'francis', 'utilized', 'case', 'situations', 'based', 'factual', 'literature', 'today', 'industry']</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1210,20 +5340,126 @@
           <t>Teenagers doing history out-of-school: An intrinsic case study of situated learning in history</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>This intrinsic case study documents a community-based history expedition implemented as a project-based, voluntary, out-of-school history activity. The expedition’s development was informed by the National Education Association’s concept of the intensive study of history, its structure by the history seminary, and its spirit by Webb’s account of seminar as history expedition. Specific study objectives included documentation of the planning, implementation, operation, and outcomes of the expedition, as well as the viability of the history expedition as a vehicle for engaging teenagers in the practice of history. Finally, the study examined whether a history expedition might serve as a curriculum of identity. Constructivist philosophy and situated learning theory grounded the analysis and interpretation of the study. Undertaken in North Central Texas, the study followed the experiences of six teenagers engaged as historians who were given one year to research and write a historical monograph. The monograph concerned the last horse cavalry regiment deployed overseas as a mounted combat unit by the U.S. Army during World War II. The study yielded qualitative data in the form of researcher observations, participant interviews, artifacts of participant writing, and participant speeches. In addition, the study includes evaluations of the historical monograph by subject matter experts. The data indicate that participants and audience describe the history expedition as a highly motivational experience which empowered participants to think critically, write historically, and create an original product valuable to the regiment’s veterans, the veterans’ families, the State of Texas, and military historians. The study supports the contention of the National Education Association that the intensive study of history can be beneficial both to expedition participants and to their community. The assertion that engaging teenagers as researchers within a discipline serves as a curriculum of identity was supported in the study as well. The study underscored the importance of oral history as a gateway for learning about modern history.</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>304556495</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Johnston, Glenn T.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2008</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Social sciences , Education , Case study , Qualitative research , Interviews , Community education , Experiential learning , History , Informal learning , Situated learning</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 978-0-549-79043-3</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB37" t="n">
         <v>2008</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Johnston, Glenn T.</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>This intrinsic case study documents a community-based history expedition implemented as a project-based, voluntary, out-of-school history activity. The expedition’s development was informed by the National Education Association’s concept of the intensive study of history, its structure by the history seminary, and its spirit by Webb’s account of seminar as history expedition. Specific study objectives included documentation of the planning, implementation, operation, and outcomes of the expedition, as well as the viability of the history expedition as a vehicle for engaging teenagers in the practice of history. Finally, the study examined whether a history expedition might serve as a curriculum of identity. Constructivist philosophy and situated learning theory grounded the analysis and interpretation of the study. Undertaken in North Central Texas, the study followed the experiences of six teenagers engaged as historians who were given one year to research and write a historical monograph. The monograph concerned the last horse cavalry regiment deployed overseas as a mounted combat unit by the U.S. Army during World War II. The study yielded qualitative data in the form of researcher observations, participant interviews, artifacts of participant writing, and participant speeches. In addition, the study includes evaluations of the historical monograph by subject matter experts. The data indicate that participants and audience describe the history expedition as a highly motivational experience which empowered participants to think critically, write historically, and create an original product valuable to the regiment’s veterans, the veterans’ families, the State of Texas, and military historians. The study supports the contention of the National Education Association that the intensive study of history can be beneficial both to expedition participants and to their community. The assertion that engaging teenagers as researchers within a discipline serves as a curriculum of identity was supported in the study as well. The study underscored the importance of oral history as a gateway for learning about modern history.</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/teenagers-doing-history-out-school-intrinsic-case/docview/304556495/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Teenagers+doing+history+out-of-school%3A+An+intrinsic+case+study+of+situated+learning+in+history&amp;amp;issn=&amp;amp;date=2008-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Johnston%2C+Glenn+T.&amp;amp;isbn=978-0-549-79043-3&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>Military Database, ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>intrinsic case document history expedition implemented voluntary history activity expedition development informed national education association concept intensive history structure history seminary spirit webb account seminar history expedition specific objective included documentation planning implementation operation outcome expedition well viability history expedition vehicle engaging teenager practice history finally examined whether history expedition might serve curriculum identity constructivist philosophy situated learning theory grounded interpretation undertaken north central texas followed experience six teenager engaged historian given one year write historical monograph monograph concerned last horse cavalry regiment deployed overseas mounted combat unit army world war yielded qualitative form researcher observation participant interview artifact participant writing participant speech addition includes evaluation historical monograph subject matter expert indicate participant audience describe history expedition highly motivational experience empowered participant think critically write historically create original product valuable regiment veteran veteran family state texas historian support contention national education association intensive history beneficial expedition participant community assertion engaging teenager researcher within discipline serf curriculum identity supported well underscored importance oral history gateway learning modern history</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>['intrinsic', 'case', 'documents', 'history', 'expedition', 'implemented', 'voluntary', 'history', 'activity', 'expedition', 'development', 'informed', 'national', 'education', 'association', 'concept', 'intensive', 'history', 'structure', 'history', 'seminary', 'spirit', 'webb', 'account', 'seminar', 'history', 'expedition', 'specific', 'objectives', 'included', 'documentation', 'planning', 'implementation', 'operation', 'outcomes', 'expedition', 'well', 'viability', 'history', 'expedition', 'vehicle', 'engaging', 'teenagers', 'practice', 'history', 'finally', 'examined', 'whether', 'history', 'expedition', 'might', 'serve', 'curriculum', 'identity', 'constructivist', 'philosophy', 'situated', 'learning', 'theory', 'grounded', 'interpretation', 'undertaken', 'north', 'central', 'texas', 'followed', 'experiences', 'six', 'teenagers', 'engaged', 'historians', 'given', 'one', 'year', 'write', 'historical', 'monograph', 'monograph', 'concerned', 'last', 'horse', 'cavalry', 'regiment', 'deployed', 'overseas', 'mounted', 'combat', 'unit', 'army', 'world', 'war', 'yielded', 'qualitative', 'data', 'form', 'researcher', 'observations', 'participant', 'interviews', 'artifacts', 'participant', 'writing', 'participant', 'speeches', 'addition', 'includes', 'evaluations', 'historical', 'monograph', 'subject', 'matter', 'experts', 'data', 'indicate', 'participants', 'audience', 'describe', 'history', 'expedition', 'highly', 'motivational', 'experience', 'empowered', 'participants', 'think', 'critically', 'write', 'historically', 'create', 'original', 'product', 'valuable', 'regiment', 'veterans', 'veterans', 'families', 'state', 'texas', 'historians', 'supports', 'contention', 'national', 'education', 'association', 'intensive', 'history', 'beneficial', 'expedition', 'participants', 'community', 'assertion', 'engaging', 'teenagers', 'researchers', 'within', 'discipline', 'serves', 'curriculum', 'identity', 'supported', 'well', 'underscored', 'importance', 'oral', 'history', 'gateway', 'learning', 'modern', 'history']</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1231,20 +5467,142 @@
           <t>Learning That Could Save Lives</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>When the US entered into the current conflicts in Iraq and Afghanistan, the US Armament Research Development and Engineering Center (ARDEC), part of the Department of the Army, faced two daunting tasks: to hire and develop more than 1,000 new scientists and engineers to replace employees eligible for retirement, and to develop new weaponry and technology to support American soldiers in an unconventional war. Employees new to ARDEC, regardless of the number of advanced degrees they hold, require significant education and training. It is critical that scientists and engineers understand the deadly environment in which their end users work --- and the ways in which military personnel use and adapt their weapons in the field. Six full-time and five part-time staff design and deliver human capital initiatives for ARDEC's 3,000 employees under the auspices of Armament University and more than 50 unit administrators who help with outreach, support, and instruction. ARDEC's</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>227028353</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Trade Journals</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Anonymous</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Armament Research Development &amp; Engineering Center</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Copyright American Society for Training and Development Oct 2007</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Feature</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oct 2007</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Life , Training and development , Save , Human capital , Military personnel</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>1535-7740</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>10</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 46-48</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alexandria</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>Oct 2007</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>T + D</t>
+        </is>
+      </c>
+      <c r="AB38" t="n">
         <v>2007</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Anonymous</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>When the US entered into the current conflicts in Iraq and Afghanistan, the US Armament Research Development and Engineering Center (ARDEC), part of the Department of the Army, faced two daunting tasks: to hire and develop more than 1,000 new scientists and engineers to replace employees eligible for retirement, and to develop new weaponry and technology to support American soldiers in an unconventional war. Employees new to ARDEC, regardless of the number of advanced degrees they hold, require significant education and training. It is critical that scientists and engineers understand the deadly environment in which their end users work --- and the ways in which military personnel use and adapt their weapons in the field. Six full-time and five part-time staff design and deliver human capital initiatives for ARDEC's 3,000 employees under the auspices of Armament University and more than 50 unit administrators who help with outreach, support, and instruction. ARDEC's</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/trade-journals/learning-that-could-save-lives/docview/227028353/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=article&amp;amp;sid=ProQ:ProQ%3Aabiglobal&amp;amp;atitle=Learning+That+Could+Save+Lives&amp;amp;title=T+%2B+D&amp;amp;issn=15357740&amp;amp;date=2007-10-01&amp;amp;volume=61&amp;amp;issue=10&amp;amp;spage=46&amp;amp;au=Anonymous&amp;amp;isbn=&amp;amp;jtitle=T+%2B+D&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>Health Research Premium Collection, ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>entered current conflict iraq afghanistan armament development engineering center ardec part army faced two daunting task hire develop new scientist engineer replace employee eligible retirement develop new weaponry technology support american soldier unconventional war employee new ardec regardless number advanced degree hold require significant education training critical scientist engineer understand deadly environment end user work way personnel use adapt weapon field six five staff design deliver human capital initiative ardec employee auspex armament unit administrator help outreach support instruction ardec</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>['entered', 'current', 'conflicts', 'iraq', 'afghanistan', 'armament', 'development', 'engineering', 'center', 'ardec', 'part', 'army', 'faced', 'two', 'daunting', 'tasks', 'hire', 'develop', 'new', 'scientists', 'engineers', 'replace', 'employees', 'eligible', 'retirement', 'develop', 'new', 'weaponry', 'technology', 'support', 'american', 'soldiers', 'unconventional', 'war', 'employees', 'new', 'ardec', 'regardless', 'number', 'advanced', 'degrees', 'hold', 'require', 'significant', 'education', 'training', 'critical', 'scientists', 'engineers', 'understand', 'deadly', 'environment', 'end', 'users', 'work', 'ways', 'personnel', 'use', 'adapt', 'weapons', 'field', 'six', 'five', 'staff', 'design', 'deliver', 'human', 'capital', 'initiatives', 'ardec', 'employees', 'auspices', 'armament', 'university', 'unit', 'administrators', 'help', 'outreach', 'support', 'instruction', 'ardec']</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="AL38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1252,20 +5610,138 @@
           <t>Transforming &amp; Restructuring Today's Army</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  The U.S. Army is actively engaged at the forefront of the continuing global war on terrorism and committed, along with our sister services in the joint force, to the primary mission of protecting U.S. security interests at home and abroad. Other force protection technologies under development include acoustic and radar sensors for detecting and locating the source of rocket, artillery and mortar fire; infrared technology for counter-sniper operations, providing warning and locations for counterfire; and medical technology to protect soldiers from endemic diseases and provide rapid treatment to save lives, such as the Chitosan bandage and the one-handed tourniquet. Some examples of recent progress in Army research are liquid armor (applying nanotechnology to create flexible materials for soldiers' uniforms and improved composite armors for vehicles), soldier simulation and training aids representing unique cultural environments, biotechnology for improved sensors and flexible displays for soldier applications.</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>237084434</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Trade Journals</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Bolton, Claude M, Jr</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Copyright Association of the United States Army Oct 2006</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commentary</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oct 2006</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Army , Dilatant , Restructuring , Military applications , Military science</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>0004-2455</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>10</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 35-36,38,40</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arlington</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>Oct 2006</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>Army</t>
+        </is>
+      </c>
+      <c r="AB39" t="n">
         <v>2006</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Bolton, Claude M, Jr</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  The U.S. Army is actively engaged at the forefront of the continuing global war on terrorism and committed, along with our sister services in the joint force, to the primary mission of protecting U.S. security interests at home and abroad. Other force protection technologies under development include acoustic and radar sensors for detecting and locating the source of rocket, artillery and mortar fire; infrared technology for counter-sniper operations, providing warning and locations for counterfire; and medical technology to protect soldiers from endemic diseases and provide rapid treatment to save lives, such as the Chitosan bandage and the one-handed tourniquet. Some examples of recent progress in Army research are liquid armor (applying nanotechnology to create flexible materials for soldiers' uniforms and improved composite armors for vehicles), soldier simulation and training aids representing unique cultural environments, biotechnology for improved sensors and flexible displays for soldier applications.</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="n">
+        <v>56</v>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/trade-journals/transforming-restructuring-todays-army/docview/237084434/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=unknown&amp;amp;sid=ProQ:ProQ%3Amilitary&amp;amp;atitle=Transforming+%26+Restructuring+Today%27s+Army&amp;amp;title=Army&amp;amp;issn=00042455&amp;amp;date=2006-10-01&amp;amp;volume=56&amp;amp;issue=10&amp;amp;spage=35&amp;amp;au=Bolton%2C+Claude+M%2C+Jr&amp;amp;isbn=&amp;amp;jtitle=Army&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Military Database, ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>army actively engaged forefront continuing global war terrorism committed along sister service joint force primary mission protecting security interest home abroad force protection technology development include acoustic radar sensor detecting locating source rocket artillery mortar fire infrared technology operation providing warning location counterfire medical technology protect soldier endemic disease provide rapid treatment save life chitosan bandage tourniquet example recent progress army liquid armor applying nanotechnology create flexible material soldier uniform improved composite armor vehicle soldier simulation training aid representing unique cultural environment biotechnology improved sensor flexible display soldier application</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>['army', 'actively', 'engaged', 'forefront', 'continuing', 'global', 'war', 'terrorism', 'committed', 'along', 'sister', 'services', 'joint', 'force', 'primary', 'mission', 'protecting', 'security', 'interests', 'home', 'abroad', 'force', 'protection', 'technologies', 'development', 'include', 'acoustic', 'radar', 'sensors', 'detecting', 'locating', 'source', 'rocket', 'artillery', 'mortar', 'fire', 'infrared', 'technology', 'operations', 'providing', 'warning', 'locations', 'counterfire', 'medical', 'technology', 'protect', 'soldiers', 'endemic', 'diseases', 'provide', 'rapid', 'treatment', 'save', 'lives', 'chitosan', 'bandage', 'tourniquet', 'examples', 'recent', 'progress', 'army', 'liquid', 'armor', 'applying', 'nanotechnology', 'create', 'flexible', 'materials', 'soldiers', 'uniforms', 'improved', 'composite', 'armors', 'vehicles', 'soldier', 'simulation', 'training', 'aids', 'representing', 'unique', 'cultural', 'environments', 'biotechnology', 'improved', 'sensors', 'flexible', 'displays', 'soldier', 'applications']</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Commentary</t>
+        </is>
+      </c>
+      <c r="AL39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1273,20 +5749,146 @@
           <t>Pentagon Devises Innovative IT Strategy</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>The U.S. Department of Defense is emerging as a pioneer in systems architectures. The DOD has become an innovator in supporting real-time responsiveness across an enterprise. The DOD is stuck with the fixed costs to support well over $1 trillion worth of accumulation from mainframe- and desktop-centric acquisitions. To escape that bondage and confront rapidly rising threats to our security, the DOD has come up with an architecture that meets the new requirements at materially lower costs. It's an architecture that makes it possible to migrate rapidly without the resulting chaos seen in the efforts to modernize information systems for the Navy and the Marine Corps. The objective of the GIG is to move all DOD applications from the current broadcast, point-to-point and interapplication communications to a virtual and secure, enterprisewide ultrawideband bus. It's based on the operating doctrine of posting information and knowledge for real-time availability by means of universal data-elementlevel interoperability.</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>216102448</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Trade Journals</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Strassmann, Paul A</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMPWAB</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Department of Defense</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Copyright Computerworld Inc. Jun 7, 2004</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commentary</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jun 7, 2004</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Strategy , Interoperability , Security , Real-time , Pentagon , Innovative</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>0010-4841</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>23</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 44</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Framingham</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>Jun 7, 2004</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>Computerworld</t>
+        </is>
+      </c>
+      <c r="AB40" t="n">
         <v>2004</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Strassmann, Paul A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>The U.S. Department of Defense is emerging as a pioneer in systems architectures. The DOD has become an innovator in supporting real-time responsiveness across an enterprise. The DOD is stuck with the fixed costs to support well over $1 trillion worth of accumulation from mainframe- and desktop-centric acquisitions. To escape that bondage and confront rapidly rising threats to our security, the DOD has come up with an architecture that meets the new requirements at materially lower costs. It's an architecture that makes it possible to migrate rapidly without the resulting chaos seen in the efforts to modernize information systems for the Navy and the Marine Corps. The objective of the GIG is to move all DOD applications from the current broadcast, point-to-point and interapplication communications to a virtual and secure, enterprisewide ultrawideband bus. It's based on the operating doctrine of posting information and knowledge for real-time availability by means of universal data-elementlevel interoperability.</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/trade-journals/pentagon-devises-innovative-strategy/docview/216102448/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=unknown&amp;amp;sid=ProQ:ProQ%3Aabiglobal&amp;amp;atitle=Pentagon+Devises+Innovative+IT+Strategy&amp;amp;title=Computerworld&amp;amp;issn=00104841&amp;amp;date=2004-06-07&amp;amp;volume=38&amp;amp;issue=23&amp;amp;spage=44&amp;amp;au=Strassmann%2C+Paul+A&amp;amp;isbn=&amp;amp;jtitle=Computerworld&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>emerging pioneer system architecture become innovator supporting responsiveness across enterprise stuck fixed cost support well trillion worth accumulation acquisition escape bondage confront rapidly rising threat security come architecture meet new requirement materially lower cost architecture make possible migrate rapidly without resulting chaos seen effort modernize information system navy marine corp objective gig move application current broadcast interapplication communication virtual secure enterprisewide ultrawideband bus based operating doctrine posting information knowledge availability mean universal interoperability</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>['emerging', 'pioneer', 'systems', 'architectures', 'become', 'innovator', 'supporting', 'responsiveness', 'across', 'enterprise', 'stuck', 'fixed', 'costs', 'support', 'well', 'trillion', 'worth', 'accumulation', 'acquisitions', 'escape', 'bondage', 'confront', 'rapidly', 'rising', 'threats', 'security', 'come', 'architecture', 'meets', 'new', 'requirements', 'materially', 'lower', 'costs', 'architecture', 'makes', 'possible', 'migrate', 'rapidly', 'without', 'resulting', 'chaos', 'seen', 'efforts', 'modernize', 'information', 'systems', 'navy', 'marine', 'corps', 'objective', 'gig', 'move', 'applications', 'current', 'broadcast', 'interapplication', 'communications', 'virtual', 'secure', 'enterprisewide', 'ultrawideband', 'bus', 'based', 'operating', 'doctrine', 'posting', 'information', 'knowledge', 'availability', 'means', 'universal', 'interoperability']</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Commentary</t>
+        </is>
+      </c>
+      <c r="AL40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1294,20 +5896,138 @@
           <t>Avondale adds to record take by contractor</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>This July, Ship Systems will christen the first of its 12-ship LPD program, a multibillion-dollar U.S. Navy contract, [Ed Winter] said. The second ship is under construction at Avondale, the third at Pascagoula. The shipyard is winding down its U.S. Navy Sea Lift ship program, delivering the final 950-foot cargo carrier this summer. Avondale will also deliver the third of its 5 Polar Tanker ships to ConocoPhillips this year, Winter said. Avondale employs nearly 7,000 workers, making it one of the state's largest employers, said Trisha Hirth, workforce development coordinator for the Jefferson Parish Economic Development Commission, which assisted Avondale in its on-the-job training program. [Bob Folse] conducted the study for Northrop Grumman Corp. to secure a state commitment for long-term capital outlay programs at Avondale's shipyards. Northrop Grumman combined Avondale, Ingalls and Pascagoula shipyards into its Ship Systems sector in 2001.</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>209561377</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Trade Journals</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Boyer, Ellen</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Northrop Grumman Corp</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (Copyright 2003 Dolan Media Newswires)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> News</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> May 5, 2003</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shipyard , Workforce , Contractor</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>0279-4527</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Metairie</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>May 5, 2003</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>New Orleans CityBusiness</t>
+        </is>
+      </c>
+      <c r="AB41" t="n">
         <v>2003</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Boyer, Ellen</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>This July, Ship Systems will christen the first of its 12-ship LPD program, a multibillion-dollar U.S. Navy contract, [Ed Winter] said. The second ship is under construction at Avondale, the third at Pascagoula. The shipyard is winding down its U.S. Navy Sea Lift ship program, delivering the final 950-foot cargo carrier this summer. Avondale will also deliver the third of its 5 Polar Tanker ships to ConocoPhillips this year, Winter said. Avondale employs nearly 7,000 workers, making it one of the state's largest employers, said Trisha Hirth, workforce development coordinator for the Jefferson Parish Economic Development Commission, which assisted Avondale in its on-the-job training program. [Bob Folse] conducted the study for Northrop Grumman Corp. to secure a state commitment for long-term capital outlay programs at Avondale's shipyards. Northrop Grumman combined Avondale, Ingalls and Pascagoula shipyards into its Ship Systems sector in 2001.</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/trade-journals/avondale-adds-record-take-contractor/docview/209561377/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=article&amp;amp;sid=ProQ:ProQ%3Aabidateline&amp;amp;atitle=Avondale+adds+to+record+take+by+contractor&amp;amp;title=New+Orleans+CityBusiness&amp;amp;issn=02794527&amp;amp;date=2003-05-05&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=1&amp;amp;au=Boyer%2C+Ellen&amp;amp;isbn=&amp;amp;jtitle=New+Orleans+CityBusiness&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>july ship system christen first lpd program navy contract winter said second ship construction avondale third pascagoula shipyard winding navy sea lift ship program delivering final cargo carrier summer avondale also deliver third polar tanker ship conocophillips year winter said avondale employ nearly worker making one state largest employer said trisha hirth workforce development coordinator jefferson parish economic development commission assisted avondale training program bob folse conducted northrop grumman secure state commitment capital outlay program avondale shipyard northrop grumman combined avondale ingalls pascagoula shipyard ship system sector</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>['july', 'ship', 'systems', 'christen', 'first', 'lpd', 'program', 'navy', 'contract', 'winter', 'said', 'second', 'ship', 'construction', 'avondale', 'third', 'pascagoula', 'shipyard', 'winding', 'navy', 'sea', 'lift', 'ship', 'program', 'delivering', 'final', 'cargo', 'carrier', 'summer', 'avondale', 'also', 'deliver', 'third', 'polar', 'tanker', 'ships', 'conocophillips', 'year', 'winter', 'said', 'avondale', 'employs', 'nearly', 'workers', 'making', 'one', 'state', 'largest', 'employers', 'said', 'trisha', 'hirth', 'workforce', 'development', 'coordinator', 'jefferson', 'parish', 'economic', 'development', 'commission', 'assisted', 'avondale', 'training', 'program', 'bob', 'folse', 'conducted', 'northrop', 'grumman', 'secure', 'state', 'commitment', 'capital', 'outlay', 'programs', 'avondale', 'shipyards', 'northrop', 'grumman', 'combined', 'avondale', 'ingalls', 'pascagoula', 'shipyards', 'ship', 'systems', 'sector']</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>News</t>
+        </is>
+      </c>
+      <c r="AL41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1315,20 +6035,126 @@
           <t>Knowledge and work in context: A case of troubleshooting a complex system across ship and shore</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>The implications of knowledge management present two key challenges to human performance technology. In short, the issues are these: (1)&amp;#xa0;how to conceptualize knowledge and work distributed across organizational boundaries for purposes of analysis; and (2)&amp;#xa0;how to target one or more levels of organization for performance intervention. In fact, what may be required in light of this dilemma is a focused reassessment of current theory and practice. Accordingly, to address the first issue a position is developed that proposes theories from which human performance technology conventionally draws, primarily behavioral psychology and cognitive information processing, are myopic in perspective. From the standpoint of these theories, knowledge is oft-conceptualized as an object , something which can be codified and transferred to enhance performance and learning. Continuing a line of thought advanced by like-minded scholars, I propose that knowledge might better be conceptualized as a process , emphasizing participation, activity, and meaning-making. Three alternative perspectives amendable to this view, communities of practice, activity theory , and institutional theory , are recruited to conduct this measured reconceptualization. Concerning the second issue, the assertion is that interventions tend to gravitate toward support of the individual absent organizational context. By contrast, the position I support maintains that attention to social and cultural features of organization is critical for any intervention proposed to improve performance. Consequently, to demonstrate how these challenges may be met, a case study portraying the distributed nature of knowledge and work among co-present and “virtual” teams is presented. The depiction of these teams, comprised of military and civilian technicians troubleshooting complex systems aboard U.S. Navy ships, is then analyzed and explained from the three alternative perspectives. To conclude, insights gained from the case study examination are used to inform the development of knowledge management strategies for intervention. In line with the direction of this study, solutions are formulated to account for social and cultural features of organization, i.e., context . Thus, the objective of this dissertation is to reveal two salient challenges to HPT and then demonstrate how they might be dealt with in theory and practice.</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>305334668</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Evans, Michael A.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2003</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Communication and the arts , Social sciences , Complex system , Knowledge management , Ship , Troubleshooting , Work</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 978-0-496-70008-0</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB42" t="n">
         <v>2003</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Evans, Michael A.</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>The implications of knowledge management present two key challenges to human performance technology. In short, the issues are these: (1)&amp;#xa0;how to conceptualize knowledge and work distributed across organizational boundaries for purposes of analysis; and (2)&amp;#xa0;how to target one or more levels of organization for performance intervention. In fact, what may be required in light of this dilemma is a focused reassessment of current theory and practice. Accordingly, to address the first issue a position is developed that proposes theories from which human performance technology conventionally draws, primarily behavioral psychology and cognitive information processing, are myopic in perspective. From the standpoint of these theories, knowledge is oft-conceptualized as an object , something which can be codified and transferred to enhance performance and learning. Continuing a line of thought advanced by like-minded scholars, I propose that knowledge might better be conceptualized as a process , emphasizing participation, activity, and meaning-making. Three alternative perspectives amendable to this view, communities of practice, activity theory , and institutional theory , are recruited to conduct this measured reconceptualization. Concerning the second issue, the assertion is that interventions tend to gravitate toward support of the individual absent organizational context. By contrast, the position I support maintains that attention to social and cultural features of organization is critical for any intervention proposed to improve performance. Consequently, to demonstrate how these challenges may be met, a case study portraying the distributed nature of knowledge and work among co-present and “virtual” teams is presented. The depiction of these teams, comprised of military and civilian technicians troubleshooting complex systems aboard U.S. Navy ships, is then analyzed and explained from the three alternative perspectives. To conclude, insights gained from the case study examination are used to inform the development of knowledge management strategies for intervention. In line with the direction of this study, solutions are formulated to account for social and cultural features of organization, i.e., context . Thus, the objective of this dissertation is to reveal two salient challenges to HPT and then demonstrate how they might be dealt with in theory and practice.</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/knowledge-work-context-case-troubleshooting/docview/305334668/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Knowledge+and+work+in+context%3A+A+case+of+troubleshooting+a+complex+system+across+ship+and+shore&amp;amp;issn=&amp;amp;date=2003-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Evans%2C+Michael+A.&amp;amp;isbn=978-0-496-70008-0&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>implication knowledge management present two key challenge human performance technology short issue conceptualize knowledge work distributed across organizational boundary purpose target one level organization performance intervention fact may required light dilemma focused reassessment current theory practice accordingly address first issue position developed proposes theory human performance technology conventionally draw primarily behavioral psychology cognitive information processing myopic perspective standpoint theory knowledge object something codified transferred enhance performance learning continuing line thought advanced scholar propose knowledge might better conceptualized process emphasizing participation activity three alternative perspective amendable view community practice activity theory institutional theory recruited conduct measured reconceptualization concerning second issue assertion intervention tend gravitate toward support individual absent organizational context contrast position support maintains attention social cultural feature organization critical intervention proposed improve performance consequently demonstrate challenge may met case portraying distributed nature knowledge work among virtual team presented depiction team comprised civilian technician troubleshooting complex system aboard navy ship analyzed explained three alternative perspective conclude insight gained case examination used inform development knowledge management strategy intervention line direction solution formulated account social cultural feature organization context thus objective reveal two salient challenge hpt demonstrate might dealt theory practice</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>['implications', 'knowledge', 'management', 'present', 'two', 'key', 'challenges', 'human', 'performance', 'technology', 'short', 'issues', 'conceptualize', 'knowledge', 'work', 'distributed', 'across', 'organizational', 'boundaries', 'purposes', 'target', 'one', 'levels', 'organization', 'performance', 'intervention', 'fact', 'may', 'required', 'light', 'dilemma', 'focused', 'reassessment', 'current', 'theory', 'practice', 'accordingly', 'address', 'first', 'issue', 'position', 'developed', 'proposes', 'theories', 'human', 'performance', 'technology', 'conventionally', 'draws', 'primarily', 'behavioral', 'psychology', 'cognitive', 'information', 'processing', 'myopic', 'perspective', 'standpoint', 'theories', 'knowledge', 'object', 'something', 'codified', 'transferred', 'enhance', 'performance', 'learning', 'continuing', 'line', 'thought', 'advanced', 'scholars', 'propose', 'knowledge', 'might', 'better', 'conceptualized', 'process', 'emphasizing', 'participation', 'activity', 'three', 'alternative', 'perspectives', 'amendable', 'view', 'communities', 'practice', 'activity', 'theory', 'institutional', 'theory', 'recruited', 'conduct', 'measured', 'reconceptualization', 'concerning', 'second', 'issue', 'assertion', 'interventions', 'tend', 'gravitate', 'toward', 'support', 'individual', 'absent', 'organizational', 'context', 'contrast', 'position', 'support', 'maintains', 'attention', 'social', 'cultural', 'features', 'organization', 'critical', 'intervention', 'proposed', 'improve', 'performance', 'consequently', 'demonstrate', 'challenges', 'may', 'met', 'case', 'portraying', 'distributed', 'nature', 'knowledge', 'work', 'among', 'virtual', 'teams', 'presented', 'depiction', 'teams', 'comprised', 'civilian', 'technicians', 'troubleshooting', 'complex', 'systems', 'aboard', 'navy', 'ships', 'analyzed', 'explained', 'three', 'alternative', 'perspectives', 'conclude', 'insights', 'gained', 'case', 'examination', 'used', 'inform', 'development', 'knowledge', 'management', 'strategies', 'intervention', 'line', 'direction', 'solutions', 'formulated', 'account', 'social', 'cultural', 'features', 'organization', 'context', 'thus', 'objective', 'dissertation', 'reveal', 'two', 'salient', 'challenges', 'hpt', 'demonstrate', 'might', 'dealt', 'theory', 'practice']</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1336,20 +6162,126 @@
           <t>Applications of the novel spectral acceleration (NSA) algorithm for the computation of scattering from rough surfaces</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Rough surface scattering plays an important role in many electromagnetic (EM) applications. Analytical theories exist and are limited in their regimes of validity. At present, scattering from surfaces whose properties render the analytical theories invalid can be accurately calculated only through the use of numerical methods. However, numerical scattering models for rough surfaces are usually computationally expensive for general use in most practical applications. In this dissertation, an extremely efficient and accurate iterative method of moments based on a novel spectral acceleration (NSA) algorithm is developed for the computation of scattering from both one-dimensional (1-D) and two-dimensional (2-D) large-scale rough surfaces corresponding to 2-D and 3-D vector wave problems, respectively. For fixed frequency and surface roughness statistics, it is shown that the computational cost and memory storage requirement of the NSA algorithm is [special characters omitted]( N tot ) as the surface size increases, where N tot is the total number of unknowns to be solved. The contribution of this dissertation can be summarized as follows: (1)&amp;#xa0;The original 1-D NSA algorithm has been generalized for the fast computation of radiation/scattering from 1-D extremely large-scale quasi-planar structures (QPS). New analytical formulas associated with the 1-D NSA parameters are also derived, resulting in more flexibility in optimizing the 1-D NSA algorithm. In addition, the “multilevel” concept is introduced to improve the accuracy of the original NSA algorithm in the case of 1-D extremely large-scale QPS. (2)&amp;#xa0;The 1-D NSA algorithm is extended to treat 2-D random rough surfaces, and the new 2-D NSA algorithm for these surfaces is derived. Appropriate spectral integral representations of the 3-D free space scalar Green's function and the “multilevel” algorithm are developed to efficiently compute scattered fields from extremely large-scale surfaces with relatively large surface cross-range size. (3)&amp;#xa0;Numerical studies of the backscattering enhancement phenomenon for both 1-D and 2-D random rough surfaces are performed by varying the following parameters: surface statistics, surface material, polarization, and incident angle. It is found that the backscattering enhancement strongly depends on the above parameters. Physical insight gained from numerical results can potentially aid in the development and assessment of future extended analytical theories.</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>304610667</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Torrungrueng, Danai</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2000</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Applied sciences , Backscattering enhancement , Rough surfaces , Scattering , Spectral acceleration</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 978-0-493-04090-5</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB43" t="n">
         <v>2000</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Torrungrueng, Danai</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Rough surface scattering plays an important role in many electromagnetic (EM) applications. Analytical theories exist and are limited in their regimes of validity. At present, scattering from surfaces whose properties render the analytical theories invalid can be accurately calculated only through the use of numerical methods. However, numerical scattering models for rough surfaces are usually computationally expensive for general use in most practical applications. In this dissertation, an extremely efficient and accurate iterative method of moments based on a novel spectral acceleration (NSA) algorithm is developed for the computation of scattering from both one-dimensional (1-D) and two-dimensional (2-D) large-scale rough surfaces corresponding to 2-D and 3-D vector wave problems, respectively. For fixed frequency and surface roughness statistics, it is shown that the computational cost and memory storage requirement of the NSA algorithm is [special characters omitted]( N tot ) as the surface size increases, where N tot is the total number of unknowns to be solved. The contribution of this dissertation can be summarized as follows: (1)&amp;#xa0;The original 1-D NSA algorithm has been generalized for the fast computation of radiation/scattering from 1-D extremely large-scale quasi-planar structures (QPS). New analytical formulas associated with the 1-D NSA parameters are also derived, resulting in more flexibility in optimizing the 1-D NSA algorithm. In addition, the “multilevel” concept is introduced to improve the accuracy of the original NSA algorithm in the case of 1-D extremely large-scale QPS. (2)&amp;#xa0;The 1-D NSA algorithm is extended to treat 2-D random rough surfaces, and the new 2-D NSA algorithm for these surfaces is derived. Appropriate spectral integral representations of the 3-D free space scalar Green's function and the “multilevel” algorithm are developed to efficiently compute scattered fields from extremely large-scale surfaces with relatively large surface cross-range size. (3)&amp;#xa0;Numerical studies of the backscattering enhancement phenomenon for both 1-D and 2-D random rough surfaces are performed by varying the following parameters: surface statistics, surface material, polarization, and incident angle. It is found that the backscattering enhancement strongly depends on the above parameters. Physical insight gained from numerical results can potentially aid in the development and assessment of future extended analytical theories.</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/applications-novel-spectral-acceleration-nsa/docview/304610667/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Applications+of+the+novel+spectral+acceleration+%28NSA%29+algorithm+for+the+computation+of+scattering+from+rough+surfaces&amp;amp;issn=&amp;amp;date=2000-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Torrungrueng%2C+Danai&amp;amp;isbn=978-0-493-04090-5&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>rough surface scattering play important role many electromagnetic application analytical theory exist limited regime validity present scattering surface whose property render analytical theory invalid accurately calculated use numerical method however numerical scattering model rough surface usually computationally expensive general use practical application extremely efficient accurate iterative moment based novel spectral acceleration nsa algorithm developed computation scattering rough surface corresponding vector wave problem respectively fixed frequency surface roughness statistic shown computational cost memory storage requirement nsa algorithm special character omitted tot surface size increase tot total number unknown solved contribution summarized follows original nsa algorithm generalized fast computation extremely structure qps new analytical formula associated nsa parameter also derived resulting flexibility optimizing nsa algorithm addition multilevel concept introduced improve accuracy original nsa algorithm case extremely qps nsa algorithm extended treat random rough surface new nsa algorithm surface derived appropriate spectral integral representation free space scalar green function multilevel algorithm developed efficiently compute scattered field extremely surface relatively large surface size numerical study backscattering enhancement phenomenon random rough surface performed varying following parameter surface statistic surface material polarization incident angle found backscattering enhancement strongly depends parameter physical insight gained numerical result potentially aid development assessment future extended analytical theory</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>['rough', 'surface', 'scattering', 'plays', 'important', 'role', 'many', 'electromagnetic', 'applications', 'analytical', 'theories', 'exist', 'limited', 'regimes', 'validity', 'present', 'scattering', 'surfaces', 'whose', 'properties', 'render', 'analytical', 'theories', 'invalid', 'accurately', 'calculated', 'use', 'numerical', 'methods', 'however', 'numerical', 'scattering', 'models', 'rough', 'surfaces', 'usually', 'computationally', 'expensive', 'general', 'use', 'practical', 'applications', 'dissertation', 'extremely', 'efficient', 'accurate', 'iterative', 'moments', 'based', 'novel', 'spectral', 'acceleration', 'nsa', 'algorithm', 'developed', 'computation', 'scattering', 'rough', 'surfaces', 'corresponding', 'vector', 'wave', 'problems', 'respectively', 'fixed', 'frequency', 'surface', 'roughness', 'statistics', 'shown', 'computational', 'cost', 'memory', 'storage', 'requirement', 'nsa', 'algorithm', 'special', 'characters', 'omitted', 'tot', 'surface', 'size', 'increases', 'tot', 'total', 'number', 'unknowns', 'solved', 'contribution', 'dissertation', 'summarized', 'follows', 'original', 'nsa', 'algorithm', 'generalized', 'fast', 'computation', 'extremely', 'structures', 'qps', 'new', 'analytical', 'formulas', 'associated', 'nsa', 'parameters', 'also', 'derived', 'resulting', 'flexibility', 'optimizing', 'nsa', 'algorithm', 'addition', 'multilevel', 'concept', 'introduced', 'improve', 'accuracy', 'original', 'nsa', 'algorithm', 'case', 'extremely', 'qps', 'nsa', 'algorithm', 'extended', 'treat', 'random', 'rough', 'surfaces', 'new', 'nsa', 'algorithm', 'surfaces', 'derived', 'appropriate', 'spectral', 'integral', 'representations', 'free', 'space', 'scalar', 'green', 'function', 'multilevel', 'algorithm', 'developed', 'efficiently', 'compute', 'scattered', 'fields', 'extremely', 'surfaces', 'relatively', 'large', 'surface', 'size', 'numerical', 'studies', 'backscattering', 'enhancement', 'phenomenon', 'random', 'rough', 'surfaces', 'performed', 'varying', 'following', 'parameters', 'surface', 'statistics', 'surface', 'material', 'polarization', 'incident', 'angle', 'found', 'backscattering', 'enhancement', 'strongly', 'depends', 'parameters', 'physical', 'insight', 'gained', 'numerical', 'results', 'potentially', 'aid', 'development', 'assessment', 'future', 'extended', 'analytical', 'theories']</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1357,20 +6289,126 @@
           <t>Intelligent agents applied to software management</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Intelligent Agents (IAs) are an area of Artificial Intelligence (AI) that has recently attracted the attention of many researchers. In this research, three IAs were applied to Software Management. An IA uses a set of rules to determine the best action to take according to the inputs received. To implement the rules for the three agents two things are needed: First, a set of software metrics, and second, for each metric, ranges of admissible values (minimum, average, and maximum). The set of metrics used by the IAs were selected from the following sources: Software Engineering Institute (SEI); IEEE; Army; Department of Defense; and PAMPA. To find ranges of admissible values for the metrics in the set, three databases containing data from past software projects were analyzed. The first was the National Software and Information Repository (NSDIR) sponsored by the Air Force; the second was the Data Analysis Center for Software (DACS) sponsored by the Department of Defense; and the third was the Software Engineering Laboratory (NASA - SEL) sponsored by the National Aeronautics and Space Administration/ Goddard Space Flight Center NASA/GSFC. In addition, a Software Engineering student project developed at Texas A&amp;amp;M University was measured and analyzed. The first IA is used to estimate the phase of a project. The second IA is used to estimate the effort, development time, staff, paperwork, and number of defects in a software product. The third IA is used to diagnose problems in software products. The IAs will give a warning to software managers if they detect that a metric is out of the admissible range of values. Hopefully, this warning will lead to actions that solve problems before they grow and endanger the software project.</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>304446220</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Garcia Espinosa, Mario Alberto</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1997</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Applied sciences</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 978-0-591-50022-6</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>ProQuest Dissertations and Theses</t>
+        </is>
+      </c>
+      <c r="AB44" t="n">
         <v>1997</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Garcia Espinosa, Mario Alberto</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Intelligent Agents (IAs) are an area of Artificial Intelligence (AI) that has recently attracted the attention of many researchers. In this research, three IAs were applied to Software Management. An IA uses a set of rules to determine the best action to take according to the inputs received. To implement the rules for the three agents two things are needed: First, a set of software metrics, and second, for each metric, ranges of admissible values (minimum, average, and maximum). The set of metrics used by the IAs were selected from the following sources: Software Engineering Institute (SEI); IEEE; Army; Department of Defense; and PAMPA. To find ranges of admissible values for the metrics in the set, three databases containing data from past software projects were analyzed. The first was the National Software and Information Repository (NSDIR) sponsored by the Air Force; the second was the Data Analysis Center for Software (DACS) sponsored by the Department of Defense; and the third was the Software Engineering Laboratory (NASA - SEL) sponsored by the National Aeronautics and Space Administration/ Goddard Space Flight Center NASA/GSFC. In addition, a Software Engineering student project developed at Texas A&amp;amp;M University was measured and analyzed. The first IA is used to estimate the phase of a project. The second IA is used to estimate the effort, development time, staff, paperwork, and number of defects in a software product. The third IA is used to diagnose problems in software products. The IAs will give a warning to software managers if they detect that a metric is out of the admissible range of values. Hopefully, this warning will lead to actions that solve problems before they grow and endanger the software project.</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/intelligent-agents-applied-software-management/docview/304446220/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=&amp;amp;title=Intelligent+agents+applied+to+software+management&amp;amp;issn=&amp;amp;date=1997-01-01&amp;amp;volume=&amp;amp;issue=&amp;amp;spage=&amp;amp;au=Garcia+Espinosa%2C+Mario+Alberto&amp;amp;isbn=978-0-591-50022-6&amp;amp;jtitle=&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>intelligent agent ia area artificial intelligence recently attracted attention many researcher three ia applied software management us set rule determine best action take according input received implement rule three agent two thing needed first set software metric second metric range admissible value minimum average maximum set metric used ia selected following source software engineering institute sei ieee army pampa find range admissible value metric set three database containing past software project analyzed first national software information repository nsdir sponsored air force second center software dacs sponsored third software engineering laboratory nasa sel sponsored national aeronautics space goddard space flight center addition software engineering student project developed texas amp measured analyzed first used estimate phase project second used estimate effort development time staff paperwork number defect software product third used diagnose problem software product ia give warning software manager detect metric admissible range value hopefully warning lead action solve problem grow endanger software project</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>['intelligent', 'agents', 'ias', 'area', 'artificial', 'intelligence', 'recently', 'attracted', 'attention', 'many', 'researchers', 'three', 'ias', 'applied', 'software', 'management', 'uses', 'set', 'rules', 'determine', 'best', 'action', 'take', 'according', 'inputs', 'received', 'implement', 'rules', 'three', 'agents', 'two', 'things', 'needed', 'first', 'set', 'software', 'metrics', 'second', 'metric', 'ranges', 'admissible', 'values', 'minimum', 'average', 'maximum', 'set', 'metrics', 'used', 'ias', 'selected', 'following', 'sources', 'software', 'engineering', 'institute', 'sei', 'ieee', 'army', 'pampa', 'find', 'ranges', 'admissible', 'values', 'metrics', 'set', 'three', 'databases', 'containing', 'data', 'past', 'software', 'projects', 'analyzed', 'first', 'national', 'software', 'information', 'repository', 'nsdir', 'sponsored', 'air', 'force', 'second', 'data', 'center', 'software', 'dacs', 'sponsored', 'third', 'software', 'engineering', 'laboratory', 'nasa', 'sel', 'sponsored', 'national', 'aeronautics', 'space', 'goddard', 'space', 'flight', 'center', 'addition', 'software', 'engineering', 'student', 'project', 'developed', 'texas', 'amp', 'university', 'measured', 'analyzed', 'first', 'used', 'estimate', 'phase', 'project', 'second', 'used', 'estimate', 'effort', 'development', 'time', 'staff', 'paperwork', 'number', 'defects', 'software', 'product', 'third', 'used', 'diagnose', 'problems', 'software', 'products', 'ias', 'give', 'warning', 'software', 'managers', 'detect', 'metric', 'admissible', 'range', 'values', 'hopefully', 'warning', 'lead', 'actions', 'solve', 'problems', 'grow', 'endanger', 'software', 'project']</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>Continuous Learning</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
